--- a/HW8/NIST controls baselines.xlsx
+++ b/HW8/NIST controls baselines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\System Security\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEDAEE4-EEC3-4178-BFA6-026DB4D786AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F78E9E0-8224-4383-9B07-A24DE3FEAFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF0359E-8923-4E23-A0F3-A24CEB3062AA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6599" uniqueCount="5371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6622" uniqueCount="5394">
   <si>
     <t>No.</t>
   </si>
@@ -17221,6 +17221,140 @@
   </si>
   <si>
     <t>I log non filtrano le informazioni, per cui non si limitano solo alla generazione di informazioni relativamente alle azioni compiute, ma contengono anche informazioni sulla risposta del sistema alle azioni dell'utente (ndr. Print delle GET/POST/etc.).</t>
+  </si>
+  <si>
+    <t>Inclusione di timestamp precisi e coerenti in tutti i registri di audit.</t>
+  </si>
+  <si>
+    <t>Per i time stamp è stato applicato il formato ISO 8601, ma l'orario non è sincronizzato con una fonte di tempo attendibile.</t>
+  </si>
+  <si>
+    <t>Protezione delle informazioni di audit per evitare che vengano modificate, cancellate o altrimenti alterate.</t>
+  </si>
+  <si>
+    <t>I log di audit non sono protetti: chiunque può accedervi, modificarli ed eliminarli.</t>
+  </si>
+  <si>
+    <t>Capacità di garantire che un'azione eseguita da un utente non possa essere negata o disconosciuta da quest'ultimo.</t>
+  </si>
+  <si>
+    <t>I log non sono protetti, per cui le informazioni su di esso non sono crittografate e possono essere modificate da chiunque.</t>
+  </si>
+  <si>
+    <t>Necessità di mantenere i log di audit per un periodo di tempo appropriato, in modo che possano essere utilizzati in caso di necessità</t>
+  </si>
+  <si>
+    <t>Non c'è un sistema di gestione dei log automatico, per cui i log possono essere gestiti solo manualmente. Questo significa che la gestione è a discrezione dello sviluppatore.</t>
+  </si>
+  <si>
+    <t>Capacità di generare registri di audit per eventi significativi all'interno di un sistema.</t>
+  </si>
+  <si>
+    <r>
+      <t>I log sono automaticamente generati nelle seguenti occasioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> login/logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ogni volta che un utente effettua il login o il logout dal sistema), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modifiche ai dati</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ogni volta che un utente crea, modifica o elimina una risorsa), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eventuali errori o anomalie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ad esempio, tentativi di accesso non riusciti).</t>
+    </r>
+  </si>
+  <si>
+    <t>Garantire che siano adottati processi e procedure formali per garantire che un sistema sia sicuro e conforme agli standard di sicurezza richiesti.</t>
+  </si>
+  <si>
+    <t>Processo di esecuzione di una valutazione della sicurezza per identificare vulnerabilità, lacune nei controlli e per confermare che il sistema soddisfi i requisiti di sicurezza definiti.</t>
+  </si>
+  <si>
+    <t>Il software è stato testato durante l'implementazione numerose volte, apportando diverse modifiche affinché si adattasse quanto possibile agli standard di sicurezza. Il processo è stato eseguito, ma non documentato.</t>
+  </si>
+  <si>
+    <t>Non è stato definito un processo preciso di valutazione della sicurezza.</t>
+  </si>
+  <si>
+    <t>Garantire che le connessioni tra i sistemi siano sicure, siano tracciabili e che siano protette contro eventuali rischi legati alla comunicazione tra sistemi diversi.</t>
+  </si>
+  <si>
+    <t>Il sistema integra Vault, Apache e LDAP, considerabili sistemi esterni alla webapp principale, con cui comunicano. Tutte le connessioni sono state effettuate mediante HTTPS e l'uso di chiavi private e certificato (autofirmato), la cui validità è garantita.</t>
+  </si>
+  <si>
+    <t>I problemi nati durante l'implementazione erano noti, ma nessuno di essi è stato documentato. Non è stato redatto un documento per la loro risoluzione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Plan of Action and Milestones - POA&amp;M), un documento che descrive le azioni necessarie per correggere le vulnerabilità di sicurezza identificate e i progressi relativi a tali azioni. </t>
+  </si>
+  <si>
+    <t>Processo attraverso il quale un sistema informatico ottiene l'autorizzazione ufficiale per operare, garantendo che sia stato adeguatamente testato e che soddisfi tutti i requisiti di sicurezza.</t>
+  </si>
+  <si>
+    <t>L'approccio di autorizzazione alla sicurezza è stato applicato come una best practice per garantire che il sistema soddisfi adeguatamente i requisiti di sicurezza prima di essere utilizzato.</t>
+  </si>
+  <si>
+    <t>Processo volto a garantire che la sicurezza di un sistema venga costantemente monitorata durante tutto il suo ciclo di vita operativo per rilevare, rispondere e mitigare eventuali vulnerabilità e minacce.</t>
+  </si>
+  <si>
+    <t>Sono stati usati sistemi di monitoraggio base quali log audit, monitoraggio delle configurazioni delle applicazioni in esecuzione e monitoraggio degli eventi di sicurezza.</t>
+  </si>
+  <si>
+    <t>Processo in cui un esperto di sicurezza (chiamato anche "ethical hacker") esegue attacchi simulati al sistema per identificare vulnerabilità e debolezze che potrebbero essere sfruttate da attaccanti malintenzionati.</t>
   </si>
 </sst>
 </file>
@@ -17406,7 +17540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -17499,24 +17633,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17525,10 +17654,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17540,14 +17669,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17975,8 +18104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752914C7-115F-4905-A8A7-15F56CC9E2E7}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18015,7 +18144,7 @@
       <c r="H1" s="22" t="s">
         <v>5319</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>5330</v>
       </c>
     </row>
@@ -18040,7 +18169,7 @@
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="29"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="33" t="s">
         <v>5331</v>
       </c>
     </row>
@@ -18054,7 +18183,7 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -18063,13 +18192,13 @@
       <c r="F3" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>5324</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>5323</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="36" t="s">
         <v>5332</v>
       </c>
     </row>
@@ -18083,7 +18212,7 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -18092,13 +18221,13 @@
       <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="41" t="s">
         <v>5326</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>5322</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="35" t="s">
         <v>5333</v>
       </c>
     </row>
@@ -18113,19 +18242,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="42" t="s">
         <v>5321</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>5320</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="44" t="s">
         <v>5345</v>
       </c>
     </row>
@@ -18140,19 +18269,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="41" t="s">
         <v>5327</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>5325</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -18165,19 +18294,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="39" t="s">
         <v>395</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="37" t="s">
         <v>5334</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>5328</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -18189,7 +18318,7 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -18198,13 +18327,13 @@
       <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="38" t="s">
         <v>5329</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>5335</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -18213,16 +18342,16 @@
       <c r="B9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -18231,7 +18360,7 @@
       <c r="H9" s="30" t="s">
         <v>5337</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -18245,16 +18374,16 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="41" t="s">
         <v>5339</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>5338</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -18277,7 +18406,7 @@
       <c r="H11" s="30" t="s">
         <v>5340</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -18290,19 +18419,19 @@
         <v>21</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="41" t="s">
         <v>5342</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="43" t="s">
         <v>5341</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -18323,19 +18452,19 @@
       <c r="F13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="37" t="s">
         <v>5344</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>5343</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -18354,13 +18483,13 @@
       <c r="H14" s="30" t="s">
         <v>5346</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -18379,13 +18508,13 @@
       <c r="H15" s="30" t="s">
         <v>5347</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -18404,13 +18533,13 @@
       <c r="H16" s="30" t="s">
         <v>5348</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -18429,13 +18558,13 @@
       <c r="H17" s="30" t="s">
         <v>5349</v>
       </c>
-      <c r="I17" s="34"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -18454,13 +18583,13 @@
       <c r="H18" s="30" t="s">
         <v>5350</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -18479,13 +18608,13 @@
       <c r="H19" s="29" t="s">
         <v>5352</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -18504,13 +18633,13 @@
       <c r="H20" s="29" t="s">
         <v>5353</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -18529,13 +18658,13 @@
       <c r="H21" s="29" t="s">
         <v>5354</v>
       </c>
-      <c r="I21" s="34"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -18554,13 +18683,13 @@
       <c r="H22" s="30" t="s">
         <v>5355</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -18576,10 +18705,10 @@
         <v>55</v>
       </c>
       <c r="G23" s="21"/>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="30" t="s">
         <v>5356</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -18600,13 +18729,13 @@
       <c r="F24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="42" t="s">
         <v>5359</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="42" t="s">
         <v>5357</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -18633,7 +18762,7 @@
       <c r="H25" s="30" t="s">
         <v>5360</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -18660,7 +18789,7 @@
       <c r="H26" s="30" t="s">
         <v>5361</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -18687,7 +18816,7 @@
       <c r="H27" s="30" t="s">
         <v>5363</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -18714,7 +18843,7 @@
       <c r="H28" s="30" t="s">
         <v>5366</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -18741,7 +18870,7 @@
       <c r="H29" s="30" t="s">
         <v>5367</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -18766,13 +18895,13 @@
       <c r="H30" s="30" t="s">
         <v>5369</v>
       </c>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="23" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -18787,15 +18916,19 @@
       <c r="F31" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="34"/>
+      <c r="G31" s="30" t="s">
+        <v>5372</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>5371</v>
+      </c>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -18810,15 +18943,19 @@
       <c r="F32" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="46" t="s">
+        <v>5374</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>5373</v>
+      </c>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -18829,15 +18966,19 @@
       <c r="F33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="34"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="30" t="s">
+        <v>5376</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>5375</v>
+      </c>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="26" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -18852,15 +18993,19 @@
       <c r="F34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="30" t="s">
+        <v>5378</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>5377</v>
+      </c>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -18875,15 +19020,19 @@
       <c r="F35" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="34"/>
+      <c r="G35" s="30" t="s">
+        <v>5380</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>5379</v>
+      </c>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="26" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -18898,15 +19047,19 @@
       <c r="F36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="30" t="s">
+        <v>5384</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>5381</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -18921,15 +19074,19 @@
       <c r="F37" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="30" t="s">
+        <v>5383</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>5382</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="24" t="s">
         <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -18944,15 +19101,19 @@
       <c r="F38" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G38" s="30" t="s">
+        <v>5386</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>5385</v>
+      </c>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -18967,15 +19128,19 @@
       <c r="F39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="30" t="s">
+        <v>5387</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>5388</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="26" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -18990,15 +19155,19 @@
       <c r="F40" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="34"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="30" t="s">
+        <v>5390</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>5389</v>
+      </c>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -19013,15 +19182,19 @@
       <c r="F41" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="30" t="s">
+        <v>5392</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>5391</v>
+      </c>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -19033,8 +19206,10 @@
         <v>101</v>
       </c>
       <c r="G42" s="21"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="34"/>
+      <c r="H42" s="29" t="s">
+        <v>5393</v>
+      </c>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -19057,7 +19232,7 @@
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="34"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -19080,7 +19255,7 @@
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="29"/>
-      <c r="I44" s="34"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -19103,7 +19278,7 @@
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="34"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -19124,7 +19299,7 @@
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="29"/>
-      <c r="I46" s="34"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -19147,7 +19322,7 @@
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="29"/>
-      <c r="I47" s="34"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -19168,7 +19343,7 @@
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="29"/>
-      <c r="I48" s="34"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -19191,7 +19366,7 @@
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="29"/>
-      <c r="I49" s="34"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -19214,7 +19389,7 @@
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="29"/>
-      <c r="I50" s="34"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -19237,7 +19412,7 @@
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="34"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -19258,7 +19433,7 @@
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="29"/>
-      <c r="I52" s="34"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -19281,7 +19456,7 @@
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="29"/>
-      <c r="I53" s="34"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -19304,7 +19479,7 @@
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="29"/>
-      <c r="I54" s="34"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -19327,7 +19502,7 @@
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="29"/>
-      <c r="I55" s="34"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -19350,7 +19525,7 @@
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="29"/>
-      <c r="I56" s="34"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -19373,7 +19548,7 @@
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="34"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -19396,7 +19571,7 @@
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="29"/>
-      <c r="I58" s="34"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -19417,7 +19592,7 @@
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="29"/>
-      <c r="I59" s="34"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -19438,7 +19613,7 @@
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="29"/>
-      <c r="I60" s="34"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -19459,7 +19634,7 @@
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="29"/>
-      <c r="I61" s="34"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -19482,7 +19657,7 @@
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="29"/>
-      <c r="I62" s="34"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -19505,7 +19680,7 @@
       </c>
       <c r="G63" s="21"/>
       <c r="H63" s="29"/>
-      <c r="I63" s="34"/>
+      <c r="I63" s="25"/>
     </row>
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -19528,7 +19703,7 @@
       </c>
       <c r="G64" s="31"/>
       <c r="H64" s="29"/>
-      <c r="I64" s="34"/>
+      <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -19551,7 +19726,7 @@
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="29"/>
-      <c r="I65" s="34"/>
+      <c r="I65" s="25"/>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -19572,7 +19747,7 @@
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="29"/>
-      <c r="I66" s="34"/>
+      <c r="I66" s="25"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -19595,7 +19770,7 @@
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="29"/>
-      <c r="I67" s="34"/>
+      <c r="I67" s="25"/>
     </row>
     <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -19618,7 +19793,7 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="29"/>
-      <c r="I68" s="34"/>
+      <c r="I68" s="25"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -19641,7 +19816,7 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="29"/>
-      <c r="I69" s="34"/>
+      <c r="I69" s="25"/>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -19664,7 +19839,7 @@
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="29"/>
-      <c r="I70" s="34"/>
+      <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -19687,7 +19862,7 @@
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="29"/>
-      <c r="I71" s="34"/>
+      <c r="I71" s="25"/>
     </row>
     <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -19710,7 +19885,7 @@
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="29"/>
-      <c r="I72" s="34"/>
+      <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -19733,7 +19908,7 @@
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="29"/>
-      <c r="I73" s="34"/>
+      <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -19754,7 +19929,7 @@
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="29"/>
-      <c r="I74" s="34"/>
+      <c r="I74" s="25"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -19777,7 +19952,7 @@
       </c>
       <c r="G75" s="21"/>
       <c r="H75" s="29"/>
-      <c r="I75" s="34"/>
+      <c r="I75" s="25"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -19800,7 +19975,7 @@
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="29"/>
-      <c r="I76" s="34"/>
+      <c r="I76" s="25"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -19823,7 +19998,7 @@
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="29"/>
-      <c r="I77" s="34"/>
+      <c r="I77" s="25"/>
     </row>
     <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -19846,7 +20021,7 @@
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="29"/>
-      <c r="I78" s="34"/>
+      <c r="I78" s="25"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -19869,7 +20044,7 @@
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="29"/>
-      <c r="I79" s="34"/>
+      <c r="I79" s="25"/>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -19892,7 +20067,7 @@
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="29"/>
-      <c r="I80" s="34"/>
+      <c r="I80" s="25"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -19915,7 +20090,7 @@
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="29"/>
-      <c r="I81" s="34"/>
+      <c r="I81" s="25"/>
     </row>
     <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -19936,7 +20111,7 @@
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="29"/>
-      <c r="I82" s="34"/>
+      <c r="I82" s="25"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
@@ -19959,7 +20134,7 @@
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="29"/>
-      <c r="I83" s="34"/>
+      <c r="I83" s="25"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -19982,7 +20157,7 @@
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="29"/>
-      <c r="I84" s="34"/>
+      <c r="I84" s="25"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -20003,7 +20178,7 @@
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="29"/>
-      <c r="I85" s="34"/>
+      <c r="I85" s="25"/>
     </row>
     <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -20026,7 +20201,7 @@
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="29"/>
-      <c r="I86" s="34"/>
+      <c r="I86" s="25"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
@@ -20049,7 +20224,7 @@
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="29"/>
-      <c r="I87" s="34"/>
+      <c r="I87" s="25"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -20070,7 +20245,7 @@
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="29"/>
-      <c r="I88" s="34"/>
+      <c r="I88" s="25"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -20091,7 +20266,7 @@
       </c>
       <c r="G89" s="21"/>
       <c r="H89" s="29"/>
-      <c r="I89" s="34"/>
+      <c r="I89" s="25"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -20112,7 +20287,7 @@
       </c>
       <c r="G90" s="21"/>
       <c r="H90" s="29"/>
-      <c r="I90" s="34"/>
+      <c r="I90" s="25"/>
     </row>
     <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -20135,7 +20310,7 @@
       </c>
       <c r="G91" s="21"/>
       <c r="H91" s="29"/>
-      <c r="I91" s="34"/>
+      <c r="I91" s="25"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -20158,7 +20333,7 @@
       </c>
       <c r="G92" s="21"/>
       <c r="H92" s="29"/>
-      <c r="I92" s="34"/>
+      <c r="I92" s="25"/>
     </row>
     <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
@@ -20181,7 +20356,7 @@
       </c>
       <c r="G93" s="21"/>
       <c r="H93" s="29"/>
-      <c r="I93" s="34"/>
+      <c r="I93" s="25"/>
     </row>
     <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -20204,7 +20379,7 @@
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="29"/>
-      <c r="I94" s="34"/>
+      <c r="I94" s="25"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
@@ -20227,7 +20402,7 @@
       </c>
       <c r="G95" s="21"/>
       <c r="H95" s="29"/>
-      <c r="I95" s="34"/>
+      <c r="I95" s="25"/>
     </row>
     <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -20248,7 +20423,7 @@
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="29"/>
-      <c r="I96" s="34"/>
+      <c r="I96" s="25"/>
     </row>
     <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
@@ -20269,7 +20444,7 @@
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="29"/>
-      <c r="I97" s="34"/>
+      <c r="I97" s="25"/>
     </row>
     <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -20292,7 +20467,7 @@
       </c>
       <c r="G98" s="21"/>
       <c r="H98" s="29"/>
-      <c r="I98" s="34"/>
+      <c r="I98" s="25"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -20315,7 +20490,7 @@
       </c>
       <c r="G99" s="21"/>
       <c r="H99" s="29"/>
-      <c r="I99" s="34"/>
+      <c r="I99" s="25"/>
     </row>
     <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -20336,7 +20511,7 @@
       </c>
       <c r="G100" s="21"/>
       <c r="H100" s="29"/>
-      <c r="I100" s="34"/>
+      <c r="I100" s="25"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -20357,7 +20532,7 @@
       </c>
       <c r="G101" s="21"/>
       <c r="H101" s="29"/>
-      <c r="I101" s="34"/>
+      <c r="I101" s="25"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -20378,7 +20553,7 @@
       </c>
       <c r="G102" s="21"/>
       <c r="H102" s="29"/>
-      <c r="I102" s="34"/>
+      <c r="I102" s="25"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
@@ -20401,7 +20576,7 @@
       </c>
       <c r="G103" s="21"/>
       <c r="H103" s="29"/>
-      <c r="I103" s="34"/>
+      <c r="I103" s="25"/>
     </row>
     <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -20424,7 +20599,7 @@
       </c>
       <c r="G104" s="21"/>
       <c r="H104" s="29"/>
-      <c r="I104" s="34"/>
+      <c r="I104" s="25"/>
     </row>
     <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -20447,7 +20622,7 @@
       </c>
       <c r="G105" s="21"/>
       <c r="H105" s="29"/>
-      <c r="I105" s="34"/>
+      <c r="I105" s="25"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -20470,7 +20645,7 @@
       </c>
       <c r="G106" s="21"/>
       <c r="H106" s="29"/>
-      <c r="I106" s="34"/>
+      <c r="I106" s="25"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
@@ -20493,7 +20668,7 @@
       </c>
       <c r="G107" s="21"/>
       <c r="H107" s="29"/>
-      <c r="I107" s="34"/>
+      <c r="I107" s="25"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -20514,7 +20689,7 @@
       </c>
       <c r="G108" s="21"/>
       <c r="H108" s="29"/>
-      <c r="I108" s="34"/>
+      <c r="I108" s="25"/>
     </row>
     <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -20533,7 +20708,7 @@
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="29"/>
-      <c r="I109" s="34"/>
+      <c r="I109" s="25"/>
     </row>
     <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -20556,7 +20731,7 @@
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="29"/>
-      <c r="I110" s="34"/>
+      <c r="I110" s="25"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -20579,7 +20754,7 @@
       </c>
       <c r="G111" s="21"/>
       <c r="H111" s="29"/>
-      <c r="I111" s="34"/>
+      <c r="I111" s="25"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -20602,7 +20777,7 @@
       </c>
       <c r="G112" s="21"/>
       <c r="H112" s="29"/>
-      <c r="I112" s="34"/>
+      <c r="I112" s="25"/>
     </row>
     <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
@@ -20623,7 +20798,7 @@
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="29"/>
-      <c r="I113" s="34"/>
+      <c r="I113" s="25"/>
     </row>
     <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -20646,7 +20821,7 @@
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="29"/>
-      <c r="I114" s="34"/>
+      <c r="I114" s="25"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -20669,7 +20844,7 @@
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="29"/>
-      <c r="I115" s="34"/>
+      <c r="I115" s="25"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -20692,7 +20867,7 @@
       </c>
       <c r="G116" s="21"/>
       <c r="H116" s="29"/>
-      <c r="I116" s="34"/>
+      <c r="I116" s="25"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -20715,7 +20890,7 @@
       </c>
       <c r="G117" s="21"/>
       <c r="H117" s="29"/>
-      <c r="I117" s="34"/>
+      <c r="I117" s="25"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -20738,7 +20913,7 @@
       </c>
       <c r="G118" s="21"/>
       <c r="H118" s="29"/>
-      <c r="I118" s="34"/>
+      <c r="I118" s="25"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -20761,7 +20936,7 @@
       </c>
       <c r="G119" s="21"/>
       <c r="H119" s="29"/>
-      <c r="I119" s="34"/>
+      <c r="I119" s="25"/>
     </row>
     <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -20784,7 +20959,7 @@
       </c>
       <c r="G120" s="21"/>
       <c r="H120" s="29"/>
-      <c r="I120" s="34"/>
+      <c r="I120" s="25"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -20807,7 +20982,7 @@
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="29"/>
-      <c r="I121" s="34"/>
+      <c r="I121" s="25"/>
     </row>
     <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -20830,7 +21005,7 @@
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="29"/>
-      <c r="I122" s="34"/>
+      <c r="I122" s="25"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -20853,7 +21028,7 @@
       </c>
       <c r="G123" s="21"/>
       <c r="H123" s="29"/>
-      <c r="I123" s="34"/>
+      <c r="I123" s="25"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -20876,7 +21051,7 @@
       </c>
       <c r="G124" s="21"/>
       <c r="H124" s="29"/>
-      <c r="I124" s="34"/>
+      <c r="I124" s="25"/>
     </row>
     <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -20899,7 +21074,7 @@
       </c>
       <c r="G125" s="21"/>
       <c r="H125" s="29"/>
-      <c r="I125" s="34"/>
+      <c r="I125" s="25"/>
     </row>
     <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -20922,7 +21097,7 @@
       </c>
       <c r="G126" s="21"/>
       <c r="H126" s="29"/>
-      <c r="I126" s="34"/>
+      <c r="I126" s="25"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
@@ -20945,7 +21120,7 @@
       </c>
       <c r="G127" s="21"/>
       <c r="H127" s="29"/>
-      <c r="I127" s="34"/>
+      <c r="I127" s="25"/>
     </row>
     <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -20968,7 +21143,7 @@
       </c>
       <c r="G128" s="21"/>
       <c r="H128" s="29"/>
-      <c r="I128" s="34"/>
+      <c r="I128" s="25"/>
     </row>
     <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
@@ -20991,7 +21166,7 @@
       </c>
       <c r="G129" s="21"/>
       <c r="H129" s="29"/>
-      <c r="I129" s="34"/>
+      <c r="I129" s="25"/>
     </row>
     <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -21014,7 +21189,7 @@
       </c>
       <c r="G130" s="21"/>
       <c r="H130" s="29"/>
-      <c r="I130" s="34"/>
+      <c r="I130" s="25"/>
     </row>
     <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -21035,7 +21210,7 @@
       </c>
       <c r="G131" s="21"/>
       <c r="H131" s="29"/>
-      <c r="I131" s="34"/>
+      <c r="I131" s="25"/>
     </row>
     <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -21058,7 +21233,7 @@
       </c>
       <c r="G132" s="21"/>
       <c r="H132" s="29"/>
-      <c r="I132" s="34"/>
+      <c r="I132" s="25"/>
     </row>
     <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -21079,7 +21254,7 @@
       </c>
       <c r="G133" s="21"/>
       <c r="H133" s="29"/>
-      <c r="I133" s="34"/>
+      <c r="I133" s="25"/>
     </row>
     <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -21100,7 +21275,7 @@
       </c>
       <c r="G134" s="21"/>
       <c r="H134" s="29"/>
-      <c r="I134" s="34"/>
+      <c r="I134" s="25"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
@@ -21119,7 +21294,7 @@
       </c>
       <c r="G135" s="21"/>
       <c r="H135" s="29"/>
-      <c r="I135" s="34"/>
+      <c r="I135" s="25"/>
     </row>
     <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -21138,7 +21313,7 @@
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="29"/>
-      <c r="I136" s="34"/>
+      <c r="I136" s="25"/>
     </row>
     <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -21157,7 +21332,7 @@
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="29"/>
-      <c r="I137" s="34"/>
+      <c r="I137" s="25"/>
     </row>
     <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -21176,7 +21351,7 @@
       </c>
       <c r="G138" s="21"/>
       <c r="H138" s="29"/>
-      <c r="I138" s="34"/>
+      <c r="I138" s="25"/>
     </row>
     <row r="139" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -21199,7 +21374,7 @@
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="29"/>
-      <c r="I139" s="34"/>
+      <c r="I139" s="25"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -21220,7 +21395,7 @@
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="29"/>
-      <c r="I140" s="34"/>
+      <c r="I140" s="25"/>
     </row>
     <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -21239,7 +21414,7 @@
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="29"/>
-      <c r="I141" s="34"/>
+      <c r="I141" s="25"/>
     </row>
     <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -21260,7 +21435,7 @@
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="29"/>
-      <c r="I142" s="34"/>
+      <c r="I142" s="25"/>
     </row>
     <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
@@ -21283,7 +21458,7 @@
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="29"/>
-      <c r="I143" s="34"/>
+      <c r="I143" s="25"/>
     </row>
     <row r="144" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -21306,7 +21481,7 @@
       </c>
       <c r="G144" s="21"/>
       <c r="H144" s="29"/>
-      <c r="I144" s="34"/>
+      <c r="I144" s="25"/>
     </row>
     <row r="145" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
@@ -21327,7 +21502,7 @@
       </c>
       <c r="G145" s="21"/>
       <c r="H145" s="29"/>
-      <c r="I145" s="34"/>
+      <c r="I145" s="25"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -21348,7 +21523,7 @@
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="29"/>
-      <c r="I146" s="34"/>
+      <c r="I146" s="25"/>
     </row>
     <row r="147" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -21371,7 +21546,7 @@
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="29"/>
-      <c r="I147" s="34"/>
+      <c r="I147" s="25"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -21394,7 +21569,7 @@
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="29"/>
-      <c r="I148" s="34"/>
+      <c r="I148" s="25"/>
     </row>
     <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
@@ -21417,7 +21592,7 @@
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="29"/>
-      <c r="I149" s="34"/>
+      <c r="I149" s="25"/>
     </row>
     <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -21438,7 +21613,7 @@
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="29"/>
-      <c r="I150" s="34"/>
+      <c r="I150" s="25"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
@@ -21459,7 +21634,7 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="29"/>
-      <c r="I151" s="34"/>
+      <c r="I151" s="25"/>
     </row>
     <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -21480,7 +21655,7 @@
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="29"/>
-      <c r="I152" s="34"/>
+      <c r="I152" s="25"/>
     </row>
     <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
@@ -21503,7 +21678,7 @@
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="29"/>
-      <c r="I153" s="34"/>
+      <c r="I153" s="25"/>
     </row>
     <row r="154" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -21526,7 +21701,7 @@
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="29"/>
-      <c r="I154" s="34"/>
+      <c r="I154" s="25"/>
     </row>
     <row r="155" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
@@ -21549,7 +21724,7 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="29"/>
-      <c r="I155" s="34"/>
+      <c r="I155" s="25"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -21570,7 +21745,7 @@
       </c>
       <c r="G156" s="21"/>
       <c r="H156" s="29"/>
-      <c r="I156" s="34"/>
+      <c r="I156" s="25"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
@@ -21589,7 +21764,7 @@
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="29"/>
-      <c r="I157" s="34"/>
+      <c r="I157" s="25"/>
     </row>
     <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -21610,7 +21785,7 @@
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="29"/>
-      <c r="I158" s="34"/>
+      <c r="I158" s="25"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
@@ -21633,7 +21808,7 @@
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="29"/>
-      <c r="I159" s="34"/>
+      <c r="I159" s="25"/>
     </row>
     <row r="160" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -21656,7 +21831,7 @@
       </c>
       <c r="G160" s="21"/>
       <c r="H160" s="29"/>
-      <c r="I160" s="34"/>
+      <c r="I160" s="25"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
@@ -21679,7 +21854,7 @@
       </c>
       <c r="G161" s="21"/>
       <c r="H161" s="29"/>
-      <c r="I161" s="34"/>
+      <c r="I161" s="25"/>
     </row>
     <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -21702,7 +21877,7 @@
       </c>
       <c r="G162" s="21"/>
       <c r="H162" s="29"/>
-      <c r="I162" s="34"/>
+      <c r="I162" s="25"/>
     </row>
     <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
@@ -21725,7 +21900,7 @@
       </c>
       <c r="G163" s="21"/>
       <c r="H163" s="29"/>
-      <c r="I163" s="34"/>
+      <c r="I163" s="25"/>
     </row>
     <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -21748,7 +21923,7 @@
       </c>
       <c r="G164" s="21"/>
       <c r="H164" s="29"/>
-      <c r="I164" s="34"/>
+      <c r="I164" s="25"/>
     </row>
     <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
@@ -21767,7 +21942,7 @@
       </c>
       <c r="G165" s="21"/>
       <c r="H165" s="29"/>
-      <c r="I165" s="34"/>
+      <c r="I165" s="25"/>
     </row>
     <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -21788,7 +21963,7 @@
       </c>
       <c r="G166" s="21"/>
       <c r="H166" s="29"/>
-      <c r="I166" s="34"/>
+      <c r="I166" s="25"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
@@ -21809,7 +21984,7 @@
       </c>
       <c r="G167" s="21"/>
       <c r="H167" s="29"/>
-      <c r="I167" s="34"/>
+      <c r="I167" s="25"/>
     </row>
     <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -21830,7 +22005,7 @@
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="29"/>
-      <c r="I168" s="34"/>
+      <c r="I168" s="25"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
@@ -21851,7 +22026,7 @@
       </c>
       <c r="G169" s="21"/>
       <c r="H169" s="29"/>
-      <c r="I169" s="34"/>
+      <c r="I169" s="25"/>
     </row>
     <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -21874,7 +22049,7 @@
       </c>
       <c r="G170" s="21"/>
       <c r="H170" s="29"/>
-      <c r="I170" s="32"/>
+      <c r="I170" s="22"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
@@ -21895,31 +22070,30 @@
       </c>
       <c r="G171" s="21"/>
       <c r="H171" s="29"/>
-      <c r="I171" s="33"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G172" s="17"/>
       <c r="H172" s="25"/>
-      <c r="I172" s="34"/>
+      <c r="I172" s="25"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G173" s="17"/>
-      <c r="I173" s="35"/>
+      <c r="I173" s="32"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I174" s="34"/>
+      <c r="I174" s="25"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I175" s="34"/>
+      <c r="I175" s="25"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I176" s="34"/>
+      <c r="I176" s="25"/>
     </row>
     <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" s="34"/>
+      <c r="I177" s="25"/>
     </row>
     <row r="178" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I178" s="34"/>
+      <c r="I178" s="25"/>
     </row>
     <row r="179" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I179" s="25"/>
@@ -41703,18 +41877,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41886,14 +42060,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C52EAF15-DD86-4DD5-86D1-CADFF684AD6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -41906,6 +42072,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="bc8b5dd5-fdb2-4c58-bdf9-99d56aed9473"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HW8/NIST controls baselines.xlsx
+++ b/HW8/NIST controls baselines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\System Security\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F78E9E0-8224-4383-9B07-A24DE3FEAFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA904F-4018-4237-9C80-C4A6284BB932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF0359E-8923-4E23-A0F3-A24CEB3062AA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6622" uniqueCount="5394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6667" uniqueCount="5438">
   <si>
     <t>No.</t>
   </si>
@@ -17356,12 +17356,198 @@
   <si>
     <t>Processo in cui un esperto di sicurezza (chiamato anche "ethical hacker") esegue attacchi simulati al sistema per identificare vulnerabilità e debolezze che potrebbero essere sfruttate da attaccanti malintenzionati.</t>
   </si>
+  <si>
+    <t>Le connessioni interne tra sistemi devono essere autorizzate e documentate. Si devono implementare misure per garantire che la comunicazione interna sia sicura e che i sistemi non autorizzati non possano accedere alle risorse.</t>
+  </si>
+  <si>
+    <t>Le connessioni tra i sistemi sono protette da un livello di crittografia in quanto fanno uso di HTTPS, tuttavia non c'è un documento specifico che tratta dettagliatamente di come i sistemi si connettono e qual è lo scopo della connessione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richiede che l'organizzazione sviluppi, documenti e implementi politiche e procedure per gestire la configurazione dei sistemi informativi. </t>
+  </si>
+  <si>
+    <t>Non essendoci degli utenti reali, questo controllo non è stato effettuato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creazione, documentazione e gestione di una configurazione di base per ogni sistema informativo. </t>
+  </si>
+  <si>
+    <t>Gestione delle modifiche alla configurazione del sistema informativo che siano: autorizzate, tracciate e sicure.</t>
+  </si>
+  <si>
+    <t>Garantire che le modifiche non introducano vulnerabilità o compromettano i controlli esistenti.</t>
+  </si>
+  <si>
+    <t>L'accesso per apportare modifiche al sistema informativo deve essere rigorosamente limitato a personale autorizzato.</t>
+  </si>
+  <si>
+    <t>Richiede che un’organizzazione definisca, documenti e applica impostazioni di configurazione sicure per i suoi sistemi informativi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richiede che un’organizzazione configuri i sistemi informativi per fornire solo le funzionalità, i servizi e le applicazioni strettamente necessari per svolgere le attività previste. </t>
+  </si>
+  <si>
+    <t>Sono stati disabilitati tutti i moduli di Apache non utilizzati per la configurazione, analogamente Flask include solo le librerie utilizzate. Vault ha metodi di authentication abilitati, ma non utilizzati per la versione dell'app che si sta analizzando.</t>
+  </si>
+  <si>
+    <t>Richiede che un'organizzazione mantenga un inventario accurato e completo di tutti i componenti del sistema informativo, inclusi hardware, software, firmware e altri elementi chiave.</t>
+  </si>
+  <si>
+    <t>Ogni versione dell'applicazione ha un file dei componenti necessari, ma il sistema non è automatizzato né particolarmente accurato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richiede che l'organizzazione sviluppi un piano di gestione della configurazione che definisca i processi, le procedure e le risorse necessarie per gestire la configurazione del sistema informativo. </t>
+  </si>
+  <si>
+    <t>Richiede che l'organizzazione stabilisca restrizioni sull'uso del software per prevenire l'installazione e l'uso di software non autorizzato, che potrebbe compromettere la sicurezza o il funzionamento del sistema.</t>
+  </si>
+  <si>
+    <t>Le librerie Python utilizzate sono tutte aggiornate all'ultima versione disponibile, ma le loro vulnerabilità non sono monitorate.</t>
+  </si>
+  <si>
+    <t>Richiede che le organizzazioni stabiliscano politiche che limitino o regolino l'installazione di software da parte degli utenti, al fine di prevenire l'introduzione di software non autorizzato o potenzialmente pericoloso.</t>
+  </si>
+  <si>
+    <t>Riguarda l'implementazione di politiche e procedure che stabiliscono le linee guida per affrontare eventi imprevisti o situazioni di emergenza che possono compromettere la continuità operativa di un sistema informatico.</t>
+  </si>
+  <si>
+    <t>Richiede lo sviluppo, la documentazione, l'implementazione e il test di un piano di contingenza. Questo piano deve definire come il sistema può continuare a operare, o essere rapidamente ripristinato, in caso di interruzioni significative.</t>
+  </si>
+  <si>
+    <t>Richiede di fornire formazione ai membri del team su come eseguire il piano di contingenza. L'obiettivo è assicurarsi che chiunque sia coinvolto nelle operazioni critiche durante un'emergenza comprenda le procedure, i ruoli e le responsabilità per garantire una risposta efficace.</t>
+  </si>
+  <si>
+    <t>Richiede di testare il piano di contingenza per verificarne l’efficacia e l’adeguatezza.</t>
+  </si>
+  <si>
+    <t>Disponibilità di un sito alternativo per l'archiviazione dei dati.</t>
+  </si>
+  <si>
+    <t>I dati sono salvati esclusivamente in locale.</t>
+  </si>
+  <si>
+    <t>Non esiste un sistema di backup.</t>
+  </si>
+  <si>
+    <t>Si concentra sull'assicurare che i servizi di telecomunicazione, essenziali per il funzionamento del sistema informativo, rimangano disponibili e resilienti in caso di interruzioni.</t>
+  </si>
+  <si>
+    <t>Richiede che l'organizzazione identifichi e mantenga un sito alternativo di elaborazione per garantire la continuità delle operazioni in caso di indisponibilità del sito principale.</t>
+  </si>
+  <si>
+    <t>L'applicazione non è esposta sulla rete, ma è tutto in locale.</t>
+  </si>
+  <si>
+    <t>Riguarda la creazione di backup regolari dei sistemi informativi per garantire la disponibilità dei dati in caso di guasti hardware, software o altre emergenze. I backup devono essere sicuri, testati e accessibili in modo tempestivo.</t>
+  </si>
+  <si>
+    <t>Non c'è un sistema di backup.</t>
+  </si>
+  <si>
+    <t>Capacità di recuperare e ripristinare rapidamente un sistema informativo dopo un'interruzione o un guasto, garantendo che il sistema possa tornare alla piena operatività in modo sicuro e tempestivo. Questo include sia il recupero dei dati che la riconfigurazione del sistema per il corretto funzionamento.</t>
+  </si>
+  <si>
+    <t>Definizione e l'adozione di politiche e procedure per garantire che i sistemi informativi identifichino e autentichino correttamente gli utenti e i dispositivi che accedono alle risorse.</t>
+  </si>
+  <si>
+    <t>Vault gestisce le credenziali e si appoggia a LDAP per l'autenticazione tramite username e password, che a sua volta utilizza SSHA per l'hashing di quest'ultima. Inoltre, dopo 5 tentativi errati, Vault stesso blocca temporaneamente l'account dell'utente. Tuttavia, non sono state implementate politiche più restrittive come autenticazione a due fattori.</t>
+  </si>
+  <si>
+    <t>Politiche e le procedure per identificare e autenticare gli utenti all'interno di un'organizzazione.</t>
+  </si>
+  <si>
+    <t>LDAP si occupa di crittografare le password mediante l'hashing, mentre i log di audit tracciano i tentativi di accesso (successo/fallimento) alla webapp. Le password sono state scelte staticamente, per cui non sono stati implementati metodi per la definizione della password da parte degli utenti.</t>
+  </si>
+  <si>
+    <t>Autenticazione e identificazione dei dispositivi che accedono al sistema informatico. L'intento è garantire che solo i dispositivi autorizzati possano connettersi alla rete o ai sistemi.</t>
+  </si>
+  <si>
+    <t>L'unica forma di autenticazione avviene mediante l'uso del certificato, tuttavia non ci sono controlli per limitare l'accesso al sistema.</t>
+  </si>
+  <si>
+    <t>Gestione degli identificatori utilizzati per identificare in modo univoco gli utenti o i dispositivi nel sistema. Gli identificatori devono essere univoci, protetti e gestiti correttamente per evitare conflitti o usi non autorizzati.</t>
+  </si>
+  <si>
+    <t>Gli identificatori per gli utenti (ad esempio, username) sono gestiti da LDAP, progettato per gestire identificatori univoci per gli utenti in modo sicuro. I dati nel sistema (username, ruoli, e permessi) sono protetti attraverso un accesso sicuro e crittografato: Vault protegge i dati sensibili e le credenziali, mentre LDAP gestisce gli identificatori in modo sicuro.</t>
+  </si>
+  <si>
+    <t>Gestione degli "autenticatori", che sono i metodi utilizzati per autenticare un utente o un dispositivo (ad esempio, password, smart card, token, biometria, etc.).</t>
+  </si>
+  <si>
+    <r>
+      <t>Vault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LDAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gestiscono gli autenticatori (come password o credenziali)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LDAP gestisce le password degli utenti utilizzando il metodo di hashing SSHA. Vault, d'altra parte, integra Vault, verificando l'autenticazione tramite LDAP. Per il monitoraggio e registrazione dell'uso degli autenticatori si registrano azioni di accesso tramite i log di audit. Non c'è revoca degli autenticatori, né una distribuzione sicura.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Come viene fornita una risposta o feedback all'utente durante il processo di autenticazione.  quando un utente tenta di autenticarsi (ad esempio, inserendo una password o un altro tipo di autenticatore), il sistema deve fornire informazioni su ciò che è successo, sia che l'autenticazione sia riuscita o fallita. </t>
+  </si>
+  <si>
+    <t>Il sistema fornisce un feedback generico sul processo di autenticazione. In particolare, in caso di credenziali corrette, il sistema reindirizza l'utente direttamente alla dashboard dell'applicazione. Viceversa, se le credenziali sono errate, il sistema non dà informazioni specifiche su cosa fosse errato (se username o password), ma si limita a stampare sulla pagina il seguente messaggio "Credenziali non valide. Riprova.". L'idea è di non dare informazioni specifiche su quale identificatore sia errato.</t>
+  </si>
+  <si>
+    <t>Autenticazione dei moduli crittografici utilizzati per proteggere le credenziali e i dati durante i processi di identificazione e autenticazione.</t>
+  </si>
+  <si>
+    <t>Vault gestisce le credenziali in modo sicuro, utilizzando moduli crittografici per proteggere i dati sensibili. In particolare, quando interagisce con LDAP per autenticare gli utenti, utilizza la crittografia per proteggere le credenziali. Vault memorizza le credenziali in modo cifrato e le decifra solo quando necessario. I moduli crittografici non sono compatibili con gli standard di sicurezza (come FIPS 140-2). Infatti, la versione gratuita di Vault utilizzata non mette a disposizione i moduli compatabili, messi a disposizione dalla versione Enterprise (a valle di una corretta configurazione).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17389,11 +17575,6 @@
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Source Sans Pro"/>
     </font>
     <font>
       <b/>
@@ -17540,7 +17721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -17572,22 +17753,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -17605,7 +17786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -17630,31 +17811,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -17663,13 +17841,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17677,6 +17855,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18104,8 +18291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752914C7-115F-4905-A8A7-15F56CC9E2E7}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18144,7 +18331,7 @@
       <c r="H1" s="22" t="s">
         <v>5319</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>5330</v>
       </c>
     </row>
@@ -18169,7 +18356,7 @@
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="29"/>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>5331</v>
       </c>
     </row>
@@ -18183,7 +18370,7 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -18192,13 +18379,13 @@
       <c r="F3" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>5324</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>5323</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>5332</v>
       </c>
     </row>
@@ -18212,7 +18399,7 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -18221,13 +18408,13 @@
       <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>5326</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>5322</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>5333</v>
       </c>
     </row>
@@ -18242,19 +18429,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>5321</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>5320</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>5345</v>
       </c>
     </row>
@@ -18269,13 +18456,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>5327</v>
       </c>
       <c r="H6" s="30" t="s">
@@ -18294,13 +18481,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>5334</v>
       </c>
       <c r="H7" s="30" t="s">
@@ -18318,7 +18505,7 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -18327,7 +18514,7 @@
       <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>5329</v>
       </c>
       <c r="H8" s="30" t="s">
@@ -18342,16 +18529,16 @@
       <c r="B9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -18374,10 +18561,10 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>5339</v>
       </c>
       <c r="H10" s="30" t="s">
@@ -18419,16 +18606,16 @@
         <v>21</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>5342</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="42" t="s">
         <v>5341</v>
       </c>
       <c r="I12" s="25"/>
@@ -18452,7 +18639,7 @@
       <c r="F13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>5344</v>
       </c>
       <c r="H13" s="30" t="s">
@@ -18464,7 +18651,7 @@
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -18489,7 +18676,7 @@
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -18514,7 +18701,7 @@
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -18539,7 +18726,7 @@
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -18564,7 +18751,7 @@
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -18589,7 +18776,7 @@
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -18605,7 +18792,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="30" t="s">
         <v>5352</v>
       </c>
       <c r="I19" s="25"/>
@@ -18614,7 +18801,7 @@
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -18630,7 +18817,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="21"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="30" t="s">
         <v>5353</v>
       </c>
       <c r="I20" s="25"/>
@@ -18639,7 +18826,7 @@
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -18655,7 +18842,7 @@
         <v>52</v>
       </c>
       <c r="G21" s="21"/>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="30" t="s">
         <v>5354</v>
       </c>
       <c r="I21" s="25"/>
@@ -18664,7 +18851,7 @@
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -18689,7 +18876,7 @@
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -18729,10 +18916,10 @@
       <c r="F24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="41" t="s">
         <v>5359</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="41" t="s">
         <v>5357</v>
       </c>
       <c r="I24" s="25"/>
@@ -18943,7 +19130,7 @@
       <c r="F32" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="45" t="s">
         <v>5374</v>
       </c>
       <c r="H32" s="30" t="s">
@@ -19194,7 +19381,7 @@
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="44" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -19206,16 +19393,16 @@
         <v>101</v>
       </c>
       <c r="G42" s="21"/>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="30" t="s">
         <v>5393</v>
       </c>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -19230,15 +19417,19 @@
       <c r="F43" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="29"/>
+      <c r="G43" s="30" t="s">
+        <v>5395</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>5394</v>
+      </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="44" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -19253,15 +19444,19 @@
       <c r="F44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="29"/>
+      <c r="G44" s="30" t="s">
+        <v>5397</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>5396</v>
+      </c>
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -19277,14 +19472,16 @@
         <v>408</v>
       </c>
       <c r="G45" s="21"/>
-      <c r="H45" s="29"/>
+      <c r="H45" s="30" t="s">
+        <v>5398</v>
+      </c>
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="44" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -19298,14 +19495,16 @@
         <v>409</v>
       </c>
       <c r="G46" s="21"/>
-      <c r="H46" s="29"/>
+      <c r="H46" s="30" t="s">
+        <v>5399</v>
+      </c>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -19321,14 +19520,16 @@
         <v>114</v>
       </c>
       <c r="G47" s="21"/>
-      <c r="H47" s="29"/>
+      <c r="H47" s="30" t="s">
+        <v>5400</v>
+      </c>
       <c r="I47" s="25"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="44" t="s">
         <v>116</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -19342,14 +19543,16 @@
         <v>410</v>
       </c>
       <c r="G48" s="21"/>
-      <c r="H48" s="29"/>
+      <c r="H48" s="30" t="s">
+        <v>5401</v>
+      </c>
       <c r="I48" s="25"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="44" t="s">
         <v>118</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -19365,14 +19568,16 @@
         <v>411</v>
       </c>
       <c r="G49" s="21"/>
-      <c r="H49" s="29"/>
+      <c r="H49" s="30" t="s">
+        <v>5402</v>
+      </c>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="23" t="s">
         <v>120</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -19387,15 +19592,19 @@
       <c r="F50" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="29"/>
+      <c r="G50" s="30" t="s">
+        <v>5404</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>5403</v>
+      </c>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -19410,15 +19619,19 @@
       <c r="F51" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="29"/>
+      <c r="G51" s="30" t="s">
+        <v>5406</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>5405</v>
+      </c>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="44" t="s">
         <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -19432,14 +19645,16 @@
         <v>123</v>
       </c>
       <c r="G52" s="21"/>
-      <c r="H52" s="29"/>
+      <c r="H52" s="30" t="s">
+        <v>5407</v>
+      </c>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -19454,15 +19669,19 @@
       <c r="F53" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="29"/>
+      <c r="G53" s="30" t="s">
+        <v>5409</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>5408</v>
+      </c>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="44" t="s">
         <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -19478,14 +19697,16 @@
         <v>127</v>
       </c>
       <c r="G54" s="21"/>
-      <c r="H54" s="29"/>
+      <c r="H54" s="30" t="s">
+        <v>5410</v>
+      </c>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="44" t="s">
         <v>130</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -19501,14 +19722,16 @@
         <v>129</v>
       </c>
       <c r="G55" s="21"/>
-      <c r="H55" s="29"/>
+      <c r="H55" s="30" t="s">
+        <v>5411</v>
+      </c>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="44" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -19524,14 +19747,16 @@
         <v>417</v>
       </c>
       <c r="G56" s="21"/>
-      <c r="H56" s="29"/>
+      <c r="H56" s="30" t="s">
+        <v>5412</v>
+      </c>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="44" t="s">
         <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -19547,14 +19772,16 @@
         <v>135</v>
       </c>
       <c r="G57" s="21"/>
-      <c r="H57" s="29"/>
+      <c r="H57" s="30" t="s">
+        <v>5413</v>
+      </c>
       <c r="I57" s="25"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="44" t="s">
         <v>137</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -19570,14 +19797,16 @@
         <v>418</v>
       </c>
       <c r="G58" s="21"/>
-      <c r="H58" s="29"/>
+      <c r="H58" s="30" t="s">
+        <v>5414</v>
+      </c>
       <c r="I58" s="25"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="26" t="s">
         <v>140</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -19590,15 +19819,19 @@
       <c r="F59" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="29"/>
+      <c r="G59" s="46" t="s">
+        <v>5416</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>5415</v>
+      </c>
       <c r="I59" s="25"/>
     </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="26" t="s">
         <v>142</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -19611,15 +19844,19 @@
       <c r="F60" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="29"/>
+      <c r="G60" s="30" t="s">
+        <v>5417</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>5419</v>
+      </c>
       <c r="I60" s="25"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="44" t="s">
         <v>144</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -19632,15 +19869,19 @@
       <c r="F61" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="29"/>
+      <c r="G61" s="30" t="s">
+        <v>5420</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>5418</v>
+      </c>
       <c r="I61" s="25"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="26" t="s">
         <v>146</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -19655,15 +19896,19 @@
       <c r="F62" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="29"/>
+      <c r="G62" s="30" t="s">
+        <v>5422</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>5421</v>
+      </c>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="26" t="s">
         <v>149</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -19678,15 +19923,19 @@
       <c r="F63" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="29"/>
+      <c r="G63" s="30" t="s">
+        <v>5422</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>5423</v>
+      </c>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="23" t="s">
         <v>152</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -19701,15 +19950,19 @@
       <c r="F64" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="29"/>
+      <c r="G64" s="40" t="s">
+        <v>5425</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>5424</v>
+      </c>
       <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="23" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -19724,15 +19977,19 @@
       <c r="F65" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="29"/>
+      <c r="G65" s="36" t="s">
+        <v>5427</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>5426</v>
+      </c>
       <c r="I65" s="25"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="26" t="s">
         <v>156</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -19745,15 +20002,19 @@
       <c r="F66" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="29"/>
+      <c r="G66" s="40" t="s">
+        <v>5429</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>5428</v>
+      </c>
       <c r="I66" s="25"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="24" t="s">
         <v>158</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -19768,15 +20029,19 @@
       <c r="F67" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="29"/>
+      <c r="G67" s="36" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>5430</v>
+      </c>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="23" t="s">
         <v>160</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -19791,15 +20056,19 @@
       <c r="F68" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="29"/>
+      <c r="G68" s="48" t="s">
+        <v>5433</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>5432</v>
+      </c>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="24" t="s">
         <v>162</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -19814,15 +20083,19 @@
       <c r="F69" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="29"/>
+      <c r="G69" s="36" t="s">
+        <v>5435</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>5434</v>
+      </c>
       <c r="I69" s="25"/>
     </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="23" t="s">
         <v>164</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -19837,8 +20110,12 @@
       <c r="F70" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="29"/>
+      <c r="G70" s="47" t="s">
+        <v>5437</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>5436</v>
+      </c>
       <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -22078,7 +22355,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G173" s="17"/>
-      <c r="I173" s="32"/>
+      <c r="I173" s="31"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I174" s="25"/>
@@ -22355,8 +22632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4708F80-B780-42F4-ABB3-67BB6E155344}">
   <dimension ref="A1:E1190"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A343" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41877,18 +42154,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42060,6 +42337,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C52EAF15-DD86-4DD5-86D1-CADFF684AD6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -42072,14 +42357,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="bc8b5dd5-fdb2-4c58-bdf9-99d56aed9473"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HW8/NIST controls baselines.xlsx
+++ b/HW8/NIST controls baselines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\System Security\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B41679-AE80-4D37-A5FA-A478B207CD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9D441-830B-48E0-8167-3A9B738A6E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF0359E-8923-4E23-A0F3-A24CEB3062AA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6792" uniqueCount="5562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6793" uniqueCount="5563">
   <si>
     <t>No.</t>
   </si>
@@ -17106,9 +17106,6 @@
     <t>Non coperto a pieno</t>
   </si>
   <si>
-    <t>Coperto in parte (dipende dai related controls)</t>
-  </si>
-  <si>
     <t>Le policy di Vault sono state configurate in modo tale che gli utenti standard possano accedere e gestire solo le proprie risorse a differenza degli amministratori. Questo è stato possibile mediante la definizione di ruoli e permessi, assegnati al momento dell'accesso al sistema dell'utente sulla base del ruolo stesso. AC(9) non rispettato.</t>
   </si>
   <si>
@@ -17245,6 +17242,556 @@
   </si>
   <si>
     <t>Capacità di generare registri di audit per eventi significativi all'interno di un sistema.</t>
+  </si>
+  <si>
+    <t>Garantire che siano adottati processi e procedure formali per garantire che un sistema sia sicuro e conforme agli standard di sicurezza richiesti.</t>
+  </si>
+  <si>
+    <t>Processo di esecuzione di una valutazione della sicurezza per identificare vulnerabilità, lacune nei controlli e per confermare che il sistema soddisfi i requisiti di sicurezza definiti.</t>
+  </si>
+  <si>
+    <t>Il software è stato testato durante l'implementazione numerose volte, apportando diverse modifiche affinché si adattasse quanto possibile agli standard di sicurezza. Il processo è stato eseguito, ma non documentato.</t>
+  </si>
+  <si>
+    <t>Non è stato definito un processo preciso di valutazione della sicurezza.</t>
+  </si>
+  <si>
+    <t>Garantire che le connessioni tra i sistemi siano sicure, siano tracciabili e che siano protette contro eventuali rischi legati alla comunicazione tra sistemi diversi.</t>
+  </si>
+  <si>
+    <t>Il sistema integra Vault, Apache e LDAP, considerabili sistemi esterni alla webapp principale, con cui comunicano. Tutte le connessioni sono state effettuate mediante HTTPS e l'uso di chiavi private e certificato (autofirmato), la cui validità è garantita.</t>
+  </si>
+  <si>
+    <t>I problemi nati durante l'implementazione erano noti, ma nessuno di essi è stato documentato. Non è stato redatto un documento per la loro risoluzione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Plan of Action and Milestones - POA&amp;M), un documento che descrive le azioni necessarie per correggere le vulnerabilità di sicurezza identificate e i progressi relativi a tali azioni. </t>
+  </si>
+  <si>
+    <t>Processo attraverso il quale un sistema informatico ottiene l'autorizzazione ufficiale per operare, garantendo che sia stato adeguatamente testato e che soddisfi tutti i requisiti di sicurezza.</t>
+  </si>
+  <si>
+    <t>L'approccio di autorizzazione alla sicurezza è stato applicato come una best practice per garantire che il sistema soddisfi adeguatamente i requisiti di sicurezza prima di essere utilizzato.</t>
+  </si>
+  <si>
+    <t>Processo volto a garantire che la sicurezza di un sistema venga costantemente monitorata durante tutto il suo ciclo di vita operativo per rilevare, rispondere e mitigare eventuali vulnerabilità e minacce.</t>
+  </si>
+  <si>
+    <t>Sono stati usati sistemi di monitoraggio base quali log audit, monitoraggio delle configurazioni delle applicazioni in esecuzione e monitoraggio degli eventi di sicurezza.</t>
+  </si>
+  <si>
+    <t>Processo in cui un esperto di sicurezza (chiamato anche "ethical hacker") esegue attacchi simulati al sistema per identificare vulnerabilità e debolezze che potrebbero essere sfruttate da attaccanti malintenzionati.</t>
+  </si>
+  <si>
+    <t>Le connessioni interne tra sistemi devono essere autorizzate e documentate. Si devono implementare misure per garantire che la comunicazione interna sia sicura e che i sistemi non autorizzati non possano accedere alle risorse.</t>
+  </si>
+  <si>
+    <t>Le connessioni tra i sistemi sono protette da un livello di crittografia in quanto fanno uso di HTTPS, tuttavia non c'è un documento specifico che tratta dettagliatamente di come i sistemi si connettono e qual è lo scopo della connessione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richiede che l'organizzazione sviluppi, documenti e implementi politiche e procedure per gestire la configurazione dei sistemi informativi. </t>
+  </si>
+  <si>
+    <t>Non essendoci degli utenti reali, questo controllo non è stato effettuato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creazione, documentazione e gestione di una configurazione di base per ogni sistema informativo. </t>
+  </si>
+  <si>
+    <t>Gestione delle modifiche alla configurazione del sistema informativo che siano: autorizzate, tracciate e sicure.</t>
+  </si>
+  <si>
+    <t>Garantire che le modifiche non introducano vulnerabilità o compromettano i controlli esistenti.</t>
+  </si>
+  <si>
+    <t>L'accesso per apportare modifiche al sistema informativo deve essere rigorosamente limitato a personale autorizzato.</t>
+  </si>
+  <si>
+    <t>Richiede che un’organizzazione definisca, documenti e applica impostazioni di configurazione sicure per i suoi sistemi informativi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richiede che un’organizzazione configuri i sistemi informativi per fornire solo le funzionalità, i servizi e le applicazioni strettamente necessari per svolgere le attività previste. </t>
+  </si>
+  <si>
+    <t>Sono stati disabilitati tutti i moduli di Apache non utilizzati per la configurazione, analogamente Flask include solo le librerie utilizzate. Vault ha metodi di authentication abilitati, ma non utilizzati per la versione dell'app che si sta analizzando.</t>
+  </si>
+  <si>
+    <t>Richiede che un'organizzazione mantenga un inventario accurato e completo di tutti i componenti del sistema informativo, inclusi hardware, software, firmware e altri elementi chiave.</t>
+  </si>
+  <si>
+    <t>Ogni versione dell'applicazione ha un file dei componenti necessari, ma il sistema non è automatizzato né particolarmente accurato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richiede che l'organizzazione sviluppi un piano di gestione della configurazione che definisca i processi, le procedure e le risorse necessarie per gestire la configurazione del sistema informativo. </t>
+  </si>
+  <si>
+    <t>Richiede che l'organizzazione stabilisca restrizioni sull'uso del software per prevenire l'installazione e l'uso di software non autorizzato, che potrebbe compromettere la sicurezza o il funzionamento del sistema.</t>
+  </si>
+  <si>
+    <t>Le librerie Python utilizzate sono tutte aggiornate all'ultima versione disponibile, ma le loro vulnerabilità non sono monitorate.</t>
+  </si>
+  <si>
+    <t>Richiede che le organizzazioni stabiliscano politiche che limitino o regolino l'installazione di software da parte degli utenti, al fine di prevenire l'introduzione di software non autorizzato o potenzialmente pericoloso.</t>
+  </si>
+  <si>
+    <t>Riguarda l'implementazione di politiche e procedure che stabiliscono le linee guida per affrontare eventi imprevisti o situazioni di emergenza che possono compromettere la continuità operativa di un sistema informatico.</t>
+  </si>
+  <si>
+    <t>Richiede lo sviluppo, la documentazione, l'implementazione e il test di un piano di contingenza. Questo piano deve definire come il sistema può continuare a operare, o essere rapidamente ripristinato, in caso di interruzioni significative.</t>
+  </si>
+  <si>
+    <t>Richiede di fornire formazione ai membri del team su come eseguire il piano di contingenza. L'obiettivo è assicurarsi che chiunque sia coinvolto nelle operazioni critiche durante un'emergenza comprenda le procedure, i ruoli e le responsabilità per garantire una risposta efficace.</t>
+  </si>
+  <si>
+    <t>Richiede di testare il piano di contingenza per verificarne l’efficacia e l’adeguatezza.</t>
+  </si>
+  <si>
+    <t>Disponibilità di un sito alternativo per l'archiviazione dei dati.</t>
+  </si>
+  <si>
+    <t>I dati sono salvati esclusivamente in locale.</t>
+  </si>
+  <si>
+    <t>Non esiste un sistema di backup.</t>
+  </si>
+  <si>
+    <t>Si concentra sull'assicurare che i servizi di telecomunicazione, essenziali per il funzionamento del sistema informativo, rimangano disponibili e resilienti in caso di interruzioni.</t>
+  </si>
+  <si>
+    <t>Richiede che l'organizzazione identifichi e mantenga un sito alternativo di elaborazione per garantire la continuità delle operazioni in caso di indisponibilità del sito principale.</t>
+  </si>
+  <si>
+    <t>L'applicazione non è esposta sulla rete, ma è tutto in locale.</t>
+  </si>
+  <si>
+    <t>Riguarda la creazione di backup regolari dei sistemi informativi per garantire la disponibilità dei dati in caso di guasti hardware, software o altre emergenze. I backup devono essere sicuri, testati e accessibili in modo tempestivo.</t>
+  </si>
+  <si>
+    <t>Non c'è un sistema di backup.</t>
+  </si>
+  <si>
+    <t>Capacità di recuperare e ripristinare rapidamente un sistema informativo dopo un'interruzione o un guasto, garantendo che il sistema possa tornare alla piena operatività in modo sicuro e tempestivo. Questo include sia il recupero dei dati che la riconfigurazione del sistema per il corretto funzionamento.</t>
+  </si>
+  <si>
+    <t>Definizione e l'adozione di politiche e procedure per garantire che i sistemi informativi identifichino e autentichino correttamente gli utenti e i dispositivi che accedono alle risorse.</t>
+  </si>
+  <si>
+    <t>Vault gestisce le credenziali e si appoggia a LDAP per l'autenticazione tramite username e password, che a sua volta utilizza SSHA per l'hashing di quest'ultima. Inoltre, dopo 5 tentativi errati, Vault stesso blocca temporaneamente l'account dell'utente. Tuttavia, non sono state implementate politiche più restrittive come autenticazione a due fattori.</t>
+  </si>
+  <si>
+    <t>Politiche e le procedure per identificare e autenticare gli utenti all'interno di un'organizzazione.</t>
+  </si>
+  <si>
+    <t>LDAP si occupa di crittografare le password mediante l'hashing, mentre i log di audit tracciano i tentativi di accesso (successo/fallimento) alla webapp. Le password sono state scelte staticamente, per cui non sono stati implementati metodi per la definizione della password da parte degli utenti.</t>
+  </si>
+  <si>
+    <t>Autenticazione e identificazione dei dispositivi che accedono al sistema informatico. L'intento è garantire che solo i dispositivi autorizzati possano connettersi alla rete o ai sistemi.</t>
+  </si>
+  <si>
+    <t>L'unica forma di autenticazione avviene mediante l'uso del certificato, tuttavia non ci sono controlli per limitare l'accesso al sistema.</t>
+  </si>
+  <si>
+    <t>Gestione degli identificatori utilizzati per identificare in modo univoco gli utenti o i dispositivi nel sistema. Gli identificatori devono essere univoci, protetti e gestiti correttamente per evitare conflitti o usi non autorizzati.</t>
+  </si>
+  <si>
+    <t>Gli identificatori per gli utenti (ad esempio, username) sono gestiti da LDAP, progettato per gestire identificatori univoci per gli utenti in modo sicuro. I dati nel sistema (username, ruoli, e permessi) sono protetti attraverso un accesso sicuro e crittografato: Vault protegge i dati sensibili e le credenziali, mentre LDAP gestisce gli identificatori in modo sicuro.</t>
+  </si>
+  <si>
+    <t>Gestione degli "autenticatori", che sono i metodi utilizzati per autenticare un utente o un dispositivo (ad esempio, password, smart card, token, biometria, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come viene fornita una risposta o feedback all'utente durante il processo di autenticazione.  quando un utente tenta di autenticarsi (ad esempio, inserendo una password o un altro tipo di autenticatore), il sistema deve fornire informazioni su ciò che è successo, sia che l'autenticazione sia riuscita o fallita. </t>
+  </si>
+  <si>
+    <t>Il sistema fornisce un feedback generico sul processo di autenticazione. In particolare, in caso di credenziali corrette, il sistema reindirizza l'utente direttamente alla dashboard dell'applicazione. Viceversa, se le credenziali sono errate, il sistema non dà informazioni specifiche su cosa fosse errato (se username o password), ma si limita a stampare sulla pagina il seguente messaggio "Credenziali non valide. Riprova.". L'idea è di non dare informazioni specifiche su quale identificatore sia errato.</t>
+  </si>
+  <si>
+    <t>Autenticazione dei moduli crittografici utilizzati per proteggere le credenziali e i dati durante i processi di identificazione e autenticazione.</t>
+  </si>
+  <si>
+    <t>Vault gestisce le credenziali in modo sicuro, utilizzando moduli crittografici per proteggere i dati sensibili. In particolare, quando interagisce con LDAP per autenticare gli utenti, utilizza la crittografia per proteggere le credenziali. Vault memorizza le credenziali in modo cifrato e le decifra solo quando necessario. I moduli crittografici non sono compatibili con gli standard di sicurezza (come FIPS 140-2). Infatti, la versione gratuita di Vault utilizzata non mette a disposizione i moduli compatabili, messi a disposizione dalla versione Enterprise (a valle di una corretta configurazione).</t>
+  </si>
+  <si>
+    <t>Richiede che i sistemi identificano e autenticano gli utenti che non fanno parte dell'organizzazione (ad esempio, utenti esterni, clienti, o partner) prima di consentire loro di accedere a risorse organizzative.</t>
+  </si>
+  <si>
+    <t>L'uso dell'applicazione è ristretto a utenti autenticati.</t>
+  </si>
+  <si>
+    <t>Necessità di stabilire e documentare politiche e procedure per la gestione degli incidenti di sicurezza.</t>
+  </si>
+  <si>
+    <t>Il progetto si limita al monitoraggio delle attività, ma non ci sono documentazioni relativamente a incidenti di sicurezza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessità di addestrare il personale a riconoscere e gestire incidenti di sicurezza in linea con le politiche e procedure definite. </t>
+  </si>
+  <si>
+    <t>Verifica l'efficacia delle politiche e procedure di risposta agli incidenti attraverso test regolari. In particolare, i test devono essere coordinati con altri piani rilevanti, come la continuità operativa e la gestione del rischio.</t>
+  </si>
+  <si>
+    <t>Implementazione di processi per gestire gli incidenti in modo efficace, dalla rilevazione al ripristino, mediante strumenti automatici e la rilevazione di uno schema di attacco ricorrente.</t>
+  </si>
+  <si>
+    <t>Implementazione di un sistema di monitoraggio costante e centralizzato del sistema per individuare incidenti di sicurezza.</t>
+  </si>
+  <si>
+    <t>Stabilisce processi per segnalare gli incidenti in modo tempestivo e automatizzato.</t>
+  </si>
+  <si>
+    <t>Supporto agli utenti e al personale durante la gestione degli incidenti.</t>
+  </si>
+  <si>
+    <t>Piano formale per la risposta agli incidenti, che deve essere aggiornato regolarmente.</t>
+  </si>
+  <si>
+    <t>Sviluppare, implementare e mantenere una politica formale e procedure operative per garantire la manutenzione continua dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Tutte le attività di manutenzione sui sistemi informativi devono essere gestite in modo controllato e documentato per garantire sicurezza, affidabilità e tracciabilità.</t>
+  </si>
+  <si>
+    <t>Garantire che gli strumenti utilizzati per la manutenzione dei sistemi siano gestiti in modo sicuro e autorizzato, specialmente quando possono avere un impatto sui dati sensibili o sulla funzionalità del sistema.</t>
+  </si>
+  <si>
+    <t>La manutenzione effettuata da remoto sui sistemi informativi deve essere gestita in maniera sicura.</t>
+  </si>
+  <si>
+    <t>Definisce requisiti di sicurezza per il personale autorizzato a eseguire la manutenzione sui sistemi.</t>
+  </si>
+  <si>
+    <t>Richiede che la manutenzione dei sistemi sia condotta in modo tempestivo per evitare interruzioni o vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Deve essere sviluppata e mantenuta una politica e procedure per la protezione dei supporti (media) che contengono informazioni sensibili. La politica deve coprire tutti i tipi di supporti utilizzati, inclusi dischi, dispositivi di memorizzazione e supporti fisici.</t>
+  </si>
+  <si>
+    <t>Controlla l'accesso ai supporti fisici che contengono dati sensibili. L'accesso deve essere limitato a personale autorizzato e monitorato.</t>
+  </si>
+  <si>
+    <t>Richiede che i supporti che contengono informazioni sensibili siano marcati in modo da identificarli come tali e gestirli di conseguenza.</t>
+  </si>
+  <si>
+    <t>Definisce come i supporti contenenti dati sensibili debbano essere immagazzinati in modo sicuro. Ciò include la protezione contro l'accesso non autorizzato e i danni fisici.</t>
+  </si>
+  <si>
+    <t>Riguarda la protezione dei supporti durante il trasporto, per evitare la perdita o l'accesso non autorizzato ai dati sensibili.</t>
+  </si>
+  <si>
+    <t>Richiede che i supporti vengano adeguatamente sanificati prima di essere dismessi o riutilizzati, in modo da prevenire la fuoriuscita di dati sensibili.</t>
+  </si>
+  <si>
+    <t>Controlla l'uso dei supporti da parte degli utenti e del personale, limitando l'accesso e l'uso di supporti contenenti dati sensibili.</t>
+  </si>
+  <si>
+    <t>Richiede l'esistenza di politiche e procedure per proteggere fisicamente e ambientalmente i sistemi informativi, inclusi il controllo degli accessi, la protezione contro danni fisici e la gestione degli ambienti di lavoro.</t>
+  </si>
+  <si>
+    <t>Definisce la necessità di autorizzazioni per l'accesso fisico ai sistemi che ospitano i dati sensibili. Solo il personale autorizzato può accedere a tali sistemi.</t>
+  </si>
+  <si>
+    <t>Richiede il controllo dell'accesso fisico per impedire che persone non autorizzate accedano ai sistemi. Le aree protette devono essere adeguatamente sorvegliate, e l'accesso deve essere monitorato.</t>
+  </si>
+  <si>
+    <t>Richiede la protezione dei mezzi di trasmissione per evitare che dati sensibili possano essere intercettati o modificati da persone non autorizzate. I mezzi di trasmissione includono reti di comunicazione, connessioni wireless, e qualsiasi altro mezzo utilizzato per trasmettere dati.</t>
+  </si>
+  <si>
+    <t>Riguarda l'accesso e l'uso sicuro dei dispositivi di output (come stampanti, display, o altri dispositivi che mostrano dati sensibili), per evitare che persone non autorizzate possano visualizzare o copiare informazioni riservate.</t>
+  </si>
+  <si>
+    <t>Richiede di monitorare e registrare l'accesso fisico alle aree sensibili, per garantire che chiunque acceda a queste aree sia autorizzato e per mantenere traccia degli accessi.</t>
+  </si>
+  <si>
+    <t>Richiede di tenere un registro degli accessi dei visitatori nelle aree protette, inclusi i dettagli di chi visita e per quanto tempo, al fine di monitorare e auditare gli accessi fisici alle strutture sensibili.</t>
+  </si>
+  <si>
+    <t>L'alimentazione elettrica e i cavi di connessione devono essere protetti contro il danneggiamento fisico o accessi non autorizzati, per prevenire interruzioni del servizio o compromissioni dei dati.</t>
+  </si>
+  <si>
+    <t>Richiede che siano presenti meccanismi di arresto di emergenza per interrompere rapidamente il funzionamento di sistemi critici in caso di situazioni di emergenza, per prevenire danni ai dati, alle apparecchiature o alle persone.</t>
+  </si>
+  <si>
+    <t>Richiede che siano presenti sistemi di alimentazione di emergenza (ad esempio, gruppi elettrogeni o UPS) per garantire che i sistemi critici possano continuare a funzionare durante un'interruzione dell'alimentazione principale.</t>
+  </si>
+  <si>
+    <t>Richiede l'installazione di un'illuminazione di emergenza per garantire la visibilità nelle aree sensibili in caso di guasto del sistema di illuminazione principale, permettendo così al personale di agire in sicurezza durante situazioni di emergenza.</t>
+  </si>
+  <si>
+    <t>Richiede l'implementazione di misure di protezione contro incendi per proteggere le risorse informatiche e i dati. Tali misure includono rilevatori di fumo, estintori e sistemi di spegnimento automatico.</t>
+  </si>
+  <si>
+    <t>Richiede che le aree che ospitano sistemi critici siano dotate di controlli per mantenere la temperatura e l'umidità entro livelli sicuri per evitare danni fisici alle apparecchiature.</t>
+  </si>
+  <si>
+    <t>Richiede l'implementazione di misure per proteggere le apparecchiature critiche dai danni causati dall'acqua, come allagamenti o perdite da impianti idraulici.</t>
+  </si>
+  <si>
+    <t>Richiede che la consegna e la rimozione di hardware, software e supporti informatici siano gestite in modo sicuro per prevenire perdite, danneggiamenti o compromissioni.</t>
+  </si>
+  <si>
+    <t>Richiede che vengano definite politiche e procedure per garantire la sicurezza dei sistemi e delle informazioni anche in siti di lavoro alternativi (es. telelavoro, uffici secondari).</t>
+  </si>
+  <si>
+    <t>Richiede di valutare attentamente la posizione fisica dei componenti del sistema informativo per minimizzare i rischi (ad esempio, accesso non autorizzato, disastri naturali, sabotaggio).</t>
+  </si>
+  <si>
+    <t>Richiede che l'organizzazione sviluppi e documenti politiche e procedure per la pianificazione della sicurezza, specificando ruoli, responsabilità e modalità di attuazione.</t>
+  </si>
+  <si>
+    <t>Richiede la creazione di un piano di sicurezza del sistema (SSP) che descriva le modalità di implementazione delle misure di sicurezza, gli obiettivi e i requisiti del sistema.</t>
+  </si>
+  <si>
+    <t>Definisce le regole di comportamento che gli utenti devono seguire per accedere e utilizzare il sistema informativo, specificando le responsabilità e i limiti accettabili.</t>
+  </si>
+  <si>
+    <t>Richiede che l'architettura del sistema informativo integri i principi di sicurezza con il design generale, affrontando protezione, resilienza e affidabilità.</t>
+  </si>
+  <si>
+    <t>Richiede politiche e procedure per garantire che il personale con accesso ai sistemi informativi rispetti i requisiti di sicurezza.</t>
+  </si>
+  <si>
+    <t>Richiede che vengano identificate le posizioni lavorative e il relativo livello di rischio, assegnando adeguate misure di sicurezza in base ai ruoli.</t>
+  </si>
+  <si>
+    <t>Richiede controlli preliminari (es. background check) sul personale che avrà accesso ai sistemi critici.</t>
+  </si>
+  <si>
+    <t>Richiede procedure per revocare l'accesso a un sistema informativo quando un dipendente lascia l’organizzazione.</t>
+  </si>
+  <si>
+    <t>Richiede procedure per modificare i permessi quando il personale cambia ruolo all'interno dell'organizzazione.</t>
+  </si>
+  <si>
+    <t>Richiede accordi scritti che documentino le responsabilità e i requisiti di sicurezza per l'accesso ai sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Richiede misure per garantire che il personale di terze parti rispetti gli stessi requisiti di sicurezza applicati al personale interno.</t>
+  </si>
+  <si>
+    <t>Richiede l'implementazione di sanzioni per i dipendenti che violano le politiche di sicurezza dell'organizzazione, per garantire la responsabilità e il rispetto delle regole.</t>
+  </si>
+  <si>
+    <t>Richiede l'implementazione di politiche e procedure per identificare, valutare e gestire i rischi per il sistema informativo.</t>
+  </si>
+  <si>
+    <t>L'unico processo effettuato è stato l'utilizzo di Microsoft Threat Modelling Tool per definire i threat esistenti una volta applicati i controlli di sicurezza.</t>
+  </si>
+  <si>
+    <t>Richiede la categorizzazione dei sistemi informativi in base alla sensibilità dei dati e alle potenziali conseguenze di una violazione.</t>
+  </si>
+  <si>
+    <t>Richiede l'esecuzione di una valutazione del rischio per identificare minacce e vulnerabilità e sviluppare strategie di mitigazione.</t>
+  </si>
+  <si>
+    <t>Richiede scansioni regolari per identificare vulnerabilità nei sistemi e nei componenti, con priorità di mitigazione per le vulnerabilità critiche.</t>
+  </si>
+  <si>
+    <t>Richiede politiche e procedure per acquisire, sviluppare e gestire sistemi e servizi in modo sicuro.</t>
+  </si>
+  <si>
+    <t>Richiede che siano allocati risorse adeguate per implementare e mantenere controlli di sicurezza efficaci.</t>
+  </si>
+  <si>
+    <t>Richiede l'integrazione della sicurezza in tutte le fasi del ciclo di vita di sviluppo del sistema.</t>
+  </si>
+  <si>
+    <t>Durante i diversi homework sono sempre state implementate delle misure di sicurezza ove possibile.</t>
+  </si>
+  <si>
+    <t>Richiede che le specifiche di sicurezza siano incluse nei contratti e nei processi di acquisizione.</t>
+  </si>
+  <si>
+    <t>Richiede che la documentazione del sistema copra configurazione, sicurezza e manutenzione.</t>
+  </si>
+  <si>
+    <t>Richiede l'applicazione di principi di ingegneria della sicurezza durante la progettazione e lo sviluppo del sistema per garantire resilienza e protezione contro le minacce.</t>
+  </si>
+  <si>
+    <t>Non tutti i componenti sono stati separati, ma tutti gli utenti hanno privilegio minimo rispetto al ruolo che ricoprono.</t>
+  </si>
+  <si>
+    <t>Richiede che l'organizzazione garantisca che i servizi esterni soddisfino requisiti di sicurezza adeguati.</t>
+  </si>
+  <si>
+    <t>Richiede che gli sviluppatori implementino un sistema di gestione della configurazione per tracciare e controllare i cambiamenti.</t>
+  </si>
+  <si>
+    <t>Richiede che gli sviluppatori conducano test di sicurezza durante lo sviluppo per identificare vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Sono stati effettuati test esclusivamente sul rispetto delle policy di Vault, ma non sono stati utilizzati strumenti automatizzati per rilevare eventuali vulnerabilità nelle librerie utilizzate.</t>
+  </si>
+  <si>
+    <t>Richiede che l'organizzazione protegga la catena di approvvigionamento per prevenire compromissioni nei componenti del sistema.</t>
+  </si>
+  <si>
+    <t>Richiede che gli sviluppatori seguano standard e processi definiti, utilizzando strumenti approvati per garantire la sicurezza.</t>
+  </si>
+  <si>
+    <t>Richiede che i sviluppatori ricevano formazione adeguata sulla sicurezza per migliorare le competenze.</t>
+  </si>
+  <si>
+    <t>Richiede che gli sviluppatori progettino l'architettura del sistema tenendo conto della sicurezza.</t>
+  </si>
+  <si>
+    <t>Richiede politiche e procedure per proteggere i sistemi e le comunicazioni contro accessi non autorizzati o manomissioni.</t>
+  </si>
+  <si>
+    <t>Richiede la separazione di funzioni e dati dell'applicazione in diverse parti logiche o fisiche per migliorare la sicurezza.</t>
+  </si>
+  <si>
+    <t>Tutti i sistemi fondamentali dell'applicazione (Flask, Vault, LDAP, Apache) sono separati tra loro ed eseguono in maniera indipendente, tuttavia il database è integrato con Flask.</t>
+  </si>
+  <si>
+    <t>Richiede l'isolamento delle funzioni di sicurezza dagli altri componenti per prevenire accessi non autorizzati.</t>
+  </si>
+  <si>
+    <t>Garantisce che l'accesso a risorse condivise (come memoria o storage) non esponga informazioni sensibili non autorizzate.</t>
+  </si>
+  <si>
+    <t>Richiede che il sistema implementi misure per proteggersi contro attacchi Denial of Service (DoS).</t>
+  </si>
+  <si>
+    <t>Richiede protezione nei punti di confine della rete per prevenire accessi non autorizzati e attacchi.</t>
+  </si>
+  <si>
+    <t>Applicazione non esposta verso l'esterno.</t>
+  </si>
+  <si>
+    <t>Richiede protezione della riservatezza e integrità delle informazioni trasmesse.</t>
+  </si>
+  <si>
+    <t>Apache è stato configurato con HTTPS, così come il resto delle componenti. Tutte le comunicazioni sfruttano un certificato di sicurezza.</t>
+  </si>
+  <si>
+    <t>Richiede la capacità di interrompere connessioni di rete non necessarie o inattive.</t>
+  </si>
+  <si>
+    <t>Il sistema effettua il log out dell'utente e quindi la terminazione della sessione dopo un tempo massimo di inattività, tuttavia questo è applicato solo in remoto.</t>
+  </si>
+  <si>
+    <t>Richiede procedure sicure per la generazione, distribuzione e gestione delle chiavi crittografiche.</t>
+  </si>
+  <si>
+    <t>La chiave privata utilizzata per generare il certificato è stata creata mediante openssl.</t>
+  </si>
+  <si>
+    <t>Richiede che le informazioni siano protette con tecniche crittografiche appropriate.</t>
+  </si>
+  <si>
+    <t>Le informazioni maggiormente sensibili (password/username) sono conservate mediante Vault ed LDAP, ma il database non ha nessuna protezione.</t>
+  </si>
+  <si>
+    <t>Richiede controlli per dispositivi di calcolo collaborativi (ad esempio webcam o microfoni) per prevenire abusi.</t>
+  </si>
+  <si>
+    <t>Richiede l'uso di certificati PKI validi per autenticare l'identità dei sistemi.</t>
+  </si>
+  <si>
+    <t>Il certificato è autofirmato.</t>
+  </si>
+  <si>
+    <t>Le componenti chiave sono fisicamente separate, ma non c'è una separazione logica di tutte le componenti.</t>
+  </si>
+  <si>
+    <t>L'intera applicazione utilizza un unico file python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riguarda la gestione e la sicurezza del codice eseguibile che può essere scaricato e eseguito da fonti esterne, come app mobili o script. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si concentra sulla sicurezza della comunicazione vocale su IP (VoIP), proteggendo la trasmissione dei dati vocali su reti non sicure.</t>
+  </si>
+  <si>
+    <t>Riguarda la protezione del servizio di risoluzione dei nomi (DNS).</t>
+  </si>
+  <si>
+    <t>Specificamente per i risolutori DNS ricorsivi o di cache.</t>
+  </si>
+  <si>
+    <t>Riguarda la progettazione e l'implementazione sicura dei servizi DNS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riguarda la protezione dell'integrità e dell'autenticità delle sessioni utente, evitando attacchi come il hijacking. </t>
+  </si>
+  <si>
+    <t>Garantisce che, in caso di errore o malfunzionamento, il sistema entri in uno stato sicuro noto.</t>
+  </si>
+  <si>
+    <t>Si concentra sulla protezione dei dati quando sono immagazzinati, assicurando che siano crittografati o protetti in altro modo.</t>
+  </si>
+  <si>
+    <t>Configurando Vault, i dati sensibili sono protetti a riposo tramite crittografia.</t>
+  </si>
+  <si>
+    <t>Riguarda l'isolamento sicuro dei processi per prevenire che un processo compromesso influenzi altri processi.</t>
+  </si>
+  <si>
+    <t>Non è stata sfruttata la virtualizzazione, ma i processi erano divisi poiché eseguiti da terminali diversi.</t>
+  </si>
+  <si>
+    <t>Riguarda la creazione e l'implementazione di politiche e procedure per garantire che il sistema rimanga integro e protetto da modifiche non autorizzate.</t>
+  </si>
+  <si>
+    <t>Riguarda la gestione delle vulnerabilità del sistema, assicurando che vengano corrette tempestivamente.</t>
+  </si>
+  <si>
+    <t>La secret key di Flask viene generata tramite secrets.token_hex(32), che viene utilizzato per firmare i dati della sessione e garantire che non possano essere alterati da un attaccante. L'uso di CSRFProtect previene che richieste non autorizzate vengano inviate da un'altra pagina web. Il timeout della sessione impedisce che una sessione rimanga attiva indefinitamente, riducendo la finestra di opportunità per gli attaccanti che potrebbero cercare di sfruttare una sessione non utilizzata. L'uso di HTTPS per tutte le comunicazioni tra client e server evita attacchi di tipo Man-in-the-Middle (MITM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riguarda la protezione contro il codice dannoso, per esempio, virus o malware che potrebbero compromettere il sistema. </t>
+  </si>
+  <si>
+    <t>Si riferisce alla necessità di monitorare continuamente il sistema per rilevare attività sospette.</t>
+  </si>
+  <si>
+    <t>Vault fornisce dei log dettagliati sulle attività eseguite, così come la stessa applicazione Flask.</t>
+  </si>
+  <si>
+    <t>Implica che il sistema debba ricevere avvisi di sicurezza, raccomandazioni e direttive da fonti ufficiali, come le organizzazioni di sicurezza e i fornitori.</t>
+  </si>
+  <si>
+    <t>Implica che la funzionalità di sicurezza del sistema deve essere verificata regolarmente per garantirne l'efficacia.</t>
+  </si>
+  <si>
+    <t>Riguarda la protezione dell'integrità del software, del firmware e delle informazioni, per evitare che vengano modificati in modo non autorizzato.</t>
+  </si>
+  <si>
+    <t>Si riferisce alla protezione contro lo spam, ma in un contesto di un'applicazione web, si riferisce a protezioni come CAPTCHA, filtri di spam per l'input dell'utente, ecc..</t>
+  </si>
+  <si>
+    <t>Si riferisce alla validazione dell'input per evitare attacchi come SQL Injection o Cross-Site Scripting (XSS).</t>
+  </si>
+  <si>
+    <t>Si occupa della gestione degli errori in quanto un errore non gestito correttamente può esporre informazioni sensibili.</t>
+  </si>
+  <si>
+    <t>I log di errore dettagliati sono visibili solo agli sviluppatori.</t>
+  </si>
+  <si>
+    <t>Riguarda il trattamento e la conservazione delle informazioni sensibili. È importante implementare politiche di conservazione dei dati per garantire che i dati sensibili vengano trattati e distrutti correttamente.</t>
+  </si>
+  <si>
+    <t>Si riferisce alla protezione della memoria per evitare che informazioni sensibili vengano rivelate attraverso attacchi come buffer overflow o accesso non autorizzato alla memoria.</t>
+  </si>
+  <si>
+    <t>L'applicazione sfrutta SQLAlchemy che usa query parametrizzate, le quali prevengono attacchi come la SQL Injection, mentre l'XSS si previene mediante l'uso del filtro |e in Jinja2 (il motore di template usato da Flask) nel template HTML per l'escaping del contenuto. Jinja2 converte i caratteri speciali in entità HTML sicure, in modo che non vengano interpretati come codice HTML o JavaScript. Questo problema è stato risolto in seguito all'homework 7.</t>
+  </si>
+  <si>
+    <t>LDAP conserva le credenziali proteggendole mediante un meccanismo di hashing, mentre la comunicazione avviene solo attraverso Vault, che sfrutta moduli per la crittografia. Il database non conserva informazioni sensibili non autorizzate.</t>
+  </si>
+  <si>
+    <t>L'organizzazione deve stabilire e documentare una politica di controllo degli accessi completa. Questa politica dovrebbe definire:
+Chi è autorizzato ad accedere a quali sistemi e dati.
+Come l'accesso viene concesso, modificato o revocato.
+In quali condizioni l'accesso è concesso (ad esempio, in base a ruoli, autorizzazioni, necessità di conoscenza).
+Come vengono applicate le decisioni di controllo degli accessi.</t>
+  </si>
+  <si>
+    <t>CRYPTOGRAPHIC MODULE AUTHENTICATION</t>
+  </si>
+  <si>
+    <t>Non è stato effettuato un penetration test poiché non siamo riusciti a far funzionare la configurazione del tool ZAP.</t>
   </si>
   <si>
     <r>
@@ -17255,9 +17802,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> login/logout</t>
     </r>
@@ -17265,9 +17811,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (ogni volta che un utente effettua il login o il logout dal sistema), </t>
     </r>
@@ -17276,9 +17821,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>modifiche ai dati</t>
     </r>
@@ -17286,9 +17830,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (ogni volta che un utente crea, modifica o elimina una risorsa), </t>
     </r>
@@ -17297,9 +17840,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>eventuali errori o anomalie</t>
     </r>
@@ -17307,168 +17849,11 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (ad esempio, tentativi di accesso non riusciti).</t>
     </r>
-  </si>
-  <si>
-    <t>Garantire che siano adottati processi e procedure formali per garantire che un sistema sia sicuro e conforme agli standard di sicurezza richiesti.</t>
-  </si>
-  <si>
-    <t>Processo di esecuzione di una valutazione della sicurezza per identificare vulnerabilità, lacune nei controlli e per confermare che il sistema soddisfi i requisiti di sicurezza definiti.</t>
-  </si>
-  <si>
-    <t>Il software è stato testato durante l'implementazione numerose volte, apportando diverse modifiche affinché si adattasse quanto possibile agli standard di sicurezza. Il processo è stato eseguito, ma non documentato.</t>
-  </si>
-  <si>
-    <t>Non è stato definito un processo preciso di valutazione della sicurezza.</t>
-  </si>
-  <si>
-    <t>Garantire che le connessioni tra i sistemi siano sicure, siano tracciabili e che siano protette contro eventuali rischi legati alla comunicazione tra sistemi diversi.</t>
-  </si>
-  <si>
-    <t>Il sistema integra Vault, Apache e LDAP, considerabili sistemi esterni alla webapp principale, con cui comunicano. Tutte le connessioni sono state effettuate mediante HTTPS e l'uso di chiavi private e certificato (autofirmato), la cui validità è garantita.</t>
-  </si>
-  <si>
-    <t>I problemi nati durante l'implementazione erano noti, ma nessuno di essi è stato documentato. Non è stato redatto un documento per la loro risoluzione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Plan of Action and Milestones - POA&amp;M), un documento che descrive le azioni necessarie per correggere le vulnerabilità di sicurezza identificate e i progressi relativi a tali azioni. </t>
-  </si>
-  <si>
-    <t>Processo attraverso il quale un sistema informatico ottiene l'autorizzazione ufficiale per operare, garantendo che sia stato adeguatamente testato e che soddisfi tutti i requisiti di sicurezza.</t>
-  </si>
-  <si>
-    <t>L'approccio di autorizzazione alla sicurezza è stato applicato come una best practice per garantire che il sistema soddisfi adeguatamente i requisiti di sicurezza prima di essere utilizzato.</t>
-  </si>
-  <si>
-    <t>Processo volto a garantire che la sicurezza di un sistema venga costantemente monitorata durante tutto il suo ciclo di vita operativo per rilevare, rispondere e mitigare eventuali vulnerabilità e minacce.</t>
-  </si>
-  <si>
-    <t>Sono stati usati sistemi di monitoraggio base quali log audit, monitoraggio delle configurazioni delle applicazioni in esecuzione e monitoraggio degli eventi di sicurezza.</t>
-  </si>
-  <si>
-    <t>Processo in cui un esperto di sicurezza (chiamato anche "ethical hacker") esegue attacchi simulati al sistema per identificare vulnerabilità e debolezze che potrebbero essere sfruttate da attaccanti malintenzionati.</t>
-  </si>
-  <si>
-    <t>Le connessioni interne tra sistemi devono essere autorizzate e documentate. Si devono implementare misure per garantire che la comunicazione interna sia sicura e che i sistemi non autorizzati non possano accedere alle risorse.</t>
-  </si>
-  <si>
-    <t>Le connessioni tra i sistemi sono protette da un livello di crittografia in quanto fanno uso di HTTPS, tuttavia non c'è un documento specifico che tratta dettagliatamente di come i sistemi si connettono e qual è lo scopo della connessione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richiede che l'organizzazione sviluppi, documenti e implementi politiche e procedure per gestire la configurazione dei sistemi informativi. </t>
-  </si>
-  <si>
-    <t>Non essendoci degli utenti reali, questo controllo non è stato effettuato.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creazione, documentazione e gestione di una configurazione di base per ogni sistema informativo. </t>
-  </si>
-  <si>
-    <t>Gestione delle modifiche alla configurazione del sistema informativo che siano: autorizzate, tracciate e sicure.</t>
-  </si>
-  <si>
-    <t>Garantire che le modifiche non introducano vulnerabilità o compromettano i controlli esistenti.</t>
-  </si>
-  <si>
-    <t>L'accesso per apportare modifiche al sistema informativo deve essere rigorosamente limitato a personale autorizzato.</t>
-  </si>
-  <si>
-    <t>Richiede che un’organizzazione definisca, documenti e applica impostazioni di configurazione sicure per i suoi sistemi informativi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richiede che un’organizzazione configuri i sistemi informativi per fornire solo le funzionalità, i servizi e le applicazioni strettamente necessari per svolgere le attività previste. </t>
-  </si>
-  <si>
-    <t>Sono stati disabilitati tutti i moduli di Apache non utilizzati per la configurazione, analogamente Flask include solo le librerie utilizzate. Vault ha metodi di authentication abilitati, ma non utilizzati per la versione dell'app che si sta analizzando.</t>
-  </si>
-  <si>
-    <t>Richiede che un'organizzazione mantenga un inventario accurato e completo di tutti i componenti del sistema informativo, inclusi hardware, software, firmware e altri elementi chiave.</t>
-  </si>
-  <si>
-    <t>Ogni versione dell'applicazione ha un file dei componenti necessari, ma il sistema non è automatizzato né particolarmente accurato.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richiede che l'organizzazione sviluppi un piano di gestione della configurazione che definisca i processi, le procedure e le risorse necessarie per gestire la configurazione del sistema informativo. </t>
-  </si>
-  <si>
-    <t>Richiede che l'organizzazione stabilisca restrizioni sull'uso del software per prevenire l'installazione e l'uso di software non autorizzato, che potrebbe compromettere la sicurezza o il funzionamento del sistema.</t>
-  </si>
-  <si>
-    <t>Le librerie Python utilizzate sono tutte aggiornate all'ultima versione disponibile, ma le loro vulnerabilità non sono monitorate.</t>
-  </si>
-  <si>
-    <t>Richiede che le organizzazioni stabiliscano politiche che limitino o regolino l'installazione di software da parte degli utenti, al fine di prevenire l'introduzione di software non autorizzato o potenzialmente pericoloso.</t>
-  </si>
-  <si>
-    <t>Riguarda l'implementazione di politiche e procedure che stabiliscono le linee guida per affrontare eventi imprevisti o situazioni di emergenza che possono compromettere la continuità operativa di un sistema informatico.</t>
-  </si>
-  <si>
-    <t>Richiede lo sviluppo, la documentazione, l'implementazione e il test di un piano di contingenza. Questo piano deve definire come il sistema può continuare a operare, o essere rapidamente ripristinato, in caso di interruzioni significative.</t>
-  </si>
-  <si>
-    <t>Richiede di fornire formazione ai membri del team su come eseguire il piano di contingenza. L'obiettivo è assicurarsi che chiunque sia coinvolto nelle operazioni critiche durante un'emergenza comprenda le procedure, i ruoli e le responsabilità per garantire una risposta efficace.</t>
-  </si>
-  <si>
-    <t>Richiede di testare il piano di contingenza per verificarne l’efficacia e l’adeguatezza.</t>
-  </si>
-  <si>
-    <t>Disponibilità di un sito alternativo per l'archiviazione dei dati.</t>
-  </si>
-  <si>
-    <t>I dati sono salvati esclusivamente in locale.</t>
-  </si>
-  <si>
-    <t>Non esiste un sistema di backup.</t>
-  </si>
-  <si>
-    <t>Si concentra sull'assicurare che i servizi di telecomunicazione, essenziali per il funzionamento del sistema informativo, rimangano disponibili e resilienti in caso di interruzioni.</t>
-  </si>
-  <si>
-    <t>Richiede che l'organizzazione identifichi e mantenga un sito alternativo di elaborazione per garantire la continuità delle operazioni in caso di indisponibilità del sito principale.</t>
-  </si>
-  <si>
-    <t>L'applicazione non è esposta sulla rete, ma è tutto in locale.</t>
-  </si>
-  <si>
-    <t>Riguarda la creazione di backup regolari dei sistemi informativi per garantire la disponibilità dei dati in caso di guasti hardware, software o altre emergenze. I backup devono essere sicuri, testati e accessibili in modo tempestivo.</t>
-  </si>
-  <si>
-    <t>Non c'è un sistema di backup.</t>
-  </si>
-  <si>
-    <t>Capacità di recuperare e ripristinare rapidamente un sistema informativo dopo un'interruzione o un guasto, garantendo che il sistema possa tornare alla piena operatività in modo sicuro e tempestivo. Questo include sia il recupero dei dati che la riconfigurazione del sistema per il corretto funzionamento.</t>
-  </si>
-  <si>
-    <t>Definizione e l'adozione di politiche e procedure per garantire che i sistemi informativi identifichino e autentichino correttamente gli utenti e i dispositivi che accedono alle risorse.</t>
-  </si>
-  <si>
-    <t>Vault gestisce le credenziali e si appoggia a LDAP per l'autenticazione tramite username e password, che a sua volta utilizza SSHA per l'hashing di quest'ultima. Inoltre, dopo 5 tentativi errati, Vault stesso blocca temporaneamente l'account dell'utente. Tuttavia, non sono state implementate politiche più restrittive come autenticazione a due fattori.</t>
-  </si>
-  <si>
-    <t>Politiche e le procedure per identificare e autenticare gli utenti all'interno di un'organizzazione.</t>
-  </si>
-  <si>
-    <t>LDAP si occupa di crittografare le password mediante l'hashing, mentre i log di audit tracciano i tentativi di accesso (successo/fallimento) alla webapp. Le password sono state scelte staticamente, per cui non sono stati implementati metodi per la definizione della password da parte degli utenti.</t>
-  </si>
-  <si>
-    <t>Autenticazione e identificazione dei dispositivi che accedono al sistema informatico. L'intento è garantire che solo i dispositivi autorizzati possano connettersi alla rete o ai sistemi.</t>
-  </si>
-  <si>
-    <t>L'unica forma di autenticazione avviene mediante l'uso del certificato, tuttavia non ci sono controlli per limitare l'accesso al sistema.</t>
-  </si>
-  <si>
-    <t>Gestione degli identificatori utilizzati per identificare in modo univoco gli utenti o i dispositivi nel sistema. Gli identificatori devono essere univoci, protetti e gestiti correttamente per evitare conflitti o usi non autorizzati.</t>
-  </si>
-  <si>
-    <t>Gli identificatori per gli utenti (ad esempio, username) sono gestiti da LDAP, progettato per gestire identificatori univoci per gli utenti in modo sicuro. I dati nel sistema (username, ruoli, e permessi) sono protetti attraverso un accesso sicuro e crittografato: Vault protegge i dati sensibili e le credenziali, mentre LDAP gestisce gli identificatori in modo sicuro.</t>
-  </si>
-  <si>
-    <t>Gestione degli "autenticatori", che sono i metodi utilizzati per autenticare un utente o un dispositivo (ad esempio, password, smart card, token, biometria, etc.).</t>
   </si>
   <si>
     <r>
@@ -17478,9 +17863,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> e </t>
     </r>
@@ -17489,9 +17873,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>LDAP</t>
     </r>
@@ -17499,9 +17882,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> gestiscono gli autenticatori (come password o credenziali)</t>
     </r>
@@ -17510,9 +17892,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
@@ -17520,403 +17901,14 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Source Sans Pro"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>LDAP gestisce le password degli utenti utilizzando il metodo di hashing SSHA. Vault, d'altra parte, integra Vault, verificando l'autenticazione tramite LDAP. Per il monitoraggio e registrazione dell'uso degli autenticatori si registrano azioni di accesso tramite i log di audit. Non c'è revoca degli autenticatori, né una distribuzione sicura.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Come viene fornita una risposta o feedback all'utente durante il processo di autenticazione.  quando un utente tenta di autenticarsi (ad esempio, inserendo una password o un altro tipo di autenticatore), il sistema deve fornire informazioni su ciò che è successo, sia che l'autenticazione sia riuscita o fallita. </t>
-  </si>
-  <si>
-    <t>Il sistema fornisce un feedback generico sul processo di autenticazione. In particolare, in caso di credenziali corrette, il sistema reindirizza l'utente direttamente alla dashboard dell'applicazione. Viceversa, se le credenziali sono errate, il sistema non dà informazioni specifiche su cosa fosse errato (se username o password), ma si limita a stampare sulla pagina il seguente messaggio "Credenziali non valide. Riprova.". L'idea è di non dare informazioni specifiche su quale identificatore sia errato.</t>
-  </si>
-  <si>
-    <t>Autenticazione dei moduli crittografici utilizzati per proteggere le credenziali e i dati durante i processi di identificazione e autenticazione.</t>
-  </si>
-  <si>
-    <t>Vault gestisce le credenziali in modo sicuro, utilizzando moduli crittografici per proteggere i dati sensibili. In particolare, quando interagisce con LDAP per autenticare gli utenti, utilizza la crittografia per proteggere le credenziali. Vault memorizza le credenziali in modo cifrato e le decifra solo quando necessario. I moduli crittografici non sono compatibili con gli standard di sicurezza (come FIPS 140-2). Infatti, la versione gratuita di Vault utilizzata non mette a disposizione i moduli compatabili, messi a disposizione dalla versione Enterprise (a valle di una corretta configurazione).</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>Richiede che i sistemi identificano e autenticano gli utenti che non fanno parte dell'organizzazione (ad esempio, utenti esterni, clienti, o partner) prima di consentire loro di accedere a risorse organizzative.</t>
-  </si>
-  <si>
-    <t>L'uso dell'applicazione è ristretto a utenti autenticati.</t>
-  </si>
-  <si>
-    <t>Necessità di stabilire e documentare politiche e procedure per la gestione degli incidenti di sicurezza.</t>
-  </si>
-  <si>
-    <t>Il progetto si limita al monitoraggio delle attività, ma non ci sono documentazioni relativamente a incidenti di sicurezza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necessità di addestrare il personale a riconoscere e gestire incidenti di sicurezza in linea con le politiche e procedure definite. </t>
-  </si>
-  <si>
-    <t>Verifica l'efficacia delle politiche e procedure di risposta agli incidenti attraverso test regolari. In particolare, i test devono essere coordinati con altri piani rilevanti, come la continuità operativa e la gestione del rischio.</t>
-  </si>
-  <si>
-    <t>Implementazione di processi per gestire gli incidenti in modo efficace, dalla rilevazione al ripristino, mediante strumenti automatici e la rilevazione di uno schema di attacco ricorrente.</t>
-  </si>
-  <si>
-    <t>Implementazione di un sistema di monitoraggio costante e centralizzato del sistema per individuare incidenti di sicurezza.</t>
-  </si>
-  <si>
-    <t>Stabilisce processi per segnalare gli incidenti in modo tempestivo e automatizzato.</t>
-  </si>
-  <si>
-    <t>Supporto agli utenti e al personale durante la gestione degli incidenti.</t>
-  </si>
-  <si>
-    <t>Piano formale per la risposta agli incidenti, che deve essere aggiornato regolarmente.</t>
-  </si>
-  <si>
-    <t>Sviluppare, implementare e mantenere una politica formale e procedure operative per garantire la manutenzione continua dei sistemi informativi.</t>
-  </si>
-  <si>
-    <t>Tutte le attività di manutenzione sui sistemi informativi devono essere gestite in modo controllato e documentato per garantire sicurezza, affidabilità e tracciabilità.</t>
-  </si>
-  <si>
-    <t>Garantire che gli strumenti utilizzati per la manutenzione dei sistemi siano gestiti in modo sicuro e autorizzato, specialmente quando possono avere un impatto sui dati sensibili o sulla funzionalità del sistema.</t>
-  </si>
-  <si>
-    <t>La manutenzione effettuata da remoto sui sistemi informativi deve essere gestita in maniera sicura.</t>
-  </si>
-  <si>
-    <t>Definisce requisiti di sicurezza per il personale autorizzato a eseguire la manutenzione sui sistemi.</t>
-  </si>
-  <si>
-    <t>Richiede che la manutenzione dei sistemi sia condotta in modo tempestivo per evitare interruzioni o vulnerabilità.</t>
-  </si>
-  <si>
-    <t>Deve essere sviluppata e mantenuta una politica e procedure per la protezione dei supporti (media) che contengono informazioni sensibili. La politica deve coprire tutti i tipi di supporti utilizzati, inclusi dischi, dispositivi di memorizzazione e supporti fisici.</t>
-  </si>
-  <si>
-    <t>Controlla l'accesso ai supporti fisici che contengono dati sensibili. L'accesso deve essere limitato a personale autorizzato e monitorato.</t>
-  </si>
-  <si>
-    <t>Richiede che i supporti che contengono informazioni sensibili siano marcati in modo da identificarli come tali e gestirli di conseguenza.</t>
-  </si>
-  <si>
-    <t>Definisce come i supporti contenenti dati sensibili debbano essere immagazzinati in modo sicuro. Ciò include la protezione contro l'accesso non autorizzato e i danni fisici.</t>
-  </si>
-  <si>
-    <t>Riguarda la protezione dei supporti durante il trasporto, per evitare la perdita o l'accesso non autorizzato ai dati sensibili.</t>
-  </si>
-  <si>
-    <t>Richiede che i supporti vengano adeguatamente sanificati prima di essere dismessi o riutilizzati, in modo da prevenire la fuoriuscita di dati sensibili.</t>
-  </si>
-  <si>
-    <t>Controlla l'uso dei supporti da parte degli utenti e del personale, limitando l'accesso e l'uso di supporti contenenti dati sensibili.</t>
-  </si>
-  <si>
-    <t>Richiede l'esistenza di politiche e procedure per proteggere fisicamente e ambientalmente i sistemi informativi, inclusi il controllo degli accessi, la protezione contro danni fisici e la gestione degli ambienti di lavoro.</t>
-  </si>
-  <si>
-    <t>Definisce la necessità di autorizzazioni per l'accesso fisico ai sistemi che ospitano i dati sensibili. Solo il personale autorizzato può accedere a tali sistemi.</t>
-  </si>
-  <si>
-    <t>Richiede il controllo dell'accesso fisico per impedire che persone non autorizzate accedano ai sistemi. Le aree protette devono essere adeguatamente sorvegliate, e l'accesso deve essere monitorato.</t>
-  </si>
-  <si>
-    <t>Richiede la protezione dei mezzi di trasmissione per evitare che dati sensibili possano essere intercettati o modificati da persone non autorizzate. I mezzi di trasmissione includono reti di comunicazione, connessioni wireless, e qualsiasi altro mezzo utilizzato per trasmettere dati.</t>
-  </si>
-  <si>
-    <t>Riguarda l'accesso e l'uso sicuro dei dispositivi di output (come stampanti, display, o altri dispositivi che mostrano dati sensibili), per evitare che persone non autorizzate possano visualizzare o copiare informazioni riservate.</t>
-  </si>
-  <si>
-    <t>Richiede di monitorare e registrare l'accesso fisico alle aree sensibili, per garantire che chiunque acceda a queste aree sia autorizzato e per mantenere traccia degli accessi.</t>
-  </si>
-  <si>
-    <t>Richiede di tenere un registro degli accessi dei visitatori nelle aree protette, inclusi i dettagli di chi visita e per quanto tempo, al fine di monitorare e auditare gli accessi fisici alle strutture sensibili.</t>
-  </si>
-  <si>
-    <t>L'alimentazione elettrica e i cavi di connessione devono essere protetti contro il danneggiamento fisico o accessi non autorizzati, per prevenire interruzioni del servizio o compromissioni dei dati.</t>
-  </si>
-  <si>
-    <t>Richiede che siano presenti meccanismi di arresto di emergenza per interrompere rapidamente il funzionamento di sistemi critici in caso di situazioni di emergenza, per prevenire danni ai dati, alle apparecchiature o alle persone.</t>
-  </si>
-  <si>
-    <t>Richiede che siano presenti sistemi di alimentazione di emergenza (ad esempio, gruppi elettrogeni o UPS) per garantire che i sistemi critici possano continuare a funzionare durante un'interruzione dell'alimentazione principale.</t>
-  </si>
-  <si>
-    <t>Richiede l'installazione di un'illuminazione di emergenza per garantire la visibilità nelle aree sensibili in caso di guasto del sistema di illuminazione principale, permettendo così al personale di agire in sicurezza durante situazioni di emergenza.</t>
-  </si>
-  <si>
-    <t>Richiede l'implementazione di misure di protezione contro incendi per proteggere le risorse informatiche e i dati. Tali misure includono rilevatori di fumo, estintori e sistemi di spegnimento automatico.</t>
-  </si>
-  <si>
-    <t>Richiede che le aree che ospitano sistemi critici siano dotate di controlli per mantenere la temperatura e l'umidità entro livelli sicuri per evitare danni fisici alle apparecchiature.</t>
-  </si>
-  <si>
-    <t>Richiede l'implementazione di misure per proteggere le apparecchiature critiche dai danni causati dall'acqua, come allagamenti o perdite da impianti idraulici.</t>
-  </si>
-  <si>
-    <t>Richiede che la consegna e la rimozione di hardware, software e supporti informatici siano gestite in modo sicuro per prevenire perdite, danneggiamenti o compromissioni.</t>
-  </si>
-  <si>
-    <t>Richiede che vengano definite politiche e procedure per garantire la sicurezza dei sistemi e delle informazioni anche in siti di lavoro alternativi (es. telelavoro, uffici secondari).</t>
-  </si>
-  <si>
-    <t>Richiede di valutare attentamente la posizione fisica dei componenti del sistema informativo per minimizzare i rischi (ad esempio, accesso non autorizzato, disastri naturali, sabotaggio).</t>
-  </si>
-  <si>
-    <t>Richiede che l'organizzazione sviluppi e documenti politiche e procedure per la pianificazione della sicurezza, specificando ruoli, responsabilità e modalità di attuazione.</t>
-  </si>
-  <si>
-    <t>Richiede la creazione di un piano di sicurezza del sistema (SSP) che descriva le modalità di implementazione delle misure di sicurezza, gli obiettivi e i requisiti del sistema.</t>
-  </si>
-  <si>
-    <t>Definisce le regole di comportamento che gli utenti devono seguire per accedere e utilizzare il sistema informativo, specificando le responsabilità e i limiti accettabili.</t>
-  </si>
-  <si>
-    <t>Richiede che l'architettura del sistema informativo integri i principi di sicurezza con il design generale, affrontando protezione, resilienza e affidabilità.</t>
-  </si>
-  <si>
-    <t>Richiede politiche e procedure per garantire che il personale con accesso ai sistemi informativi rispetti i requisiti di sicurezza.</t>
-  </si>
-  <si>
-    <t>Richiede che vengano identificate le posizioni lavorative e il relativo livello di rischio, assegnando adeguate misure di sicurezza in base ai ruoli.</t>
-  </si>
-  <si>
-    <t>Richiede controlli preliminari (es. background check) sul personale che avrà accesso ai sistemi critici.</t>
-  </si>
-  <si>
-    <t>Richiede procedure per revocare l'accesso a un sistema informativo quando un dipendente lascia l’organizzazione.</t>
-  </si>
-  <si>
-    <t>Richiede procedure per modificare i permessi quando il personale cambia ruolo all'interno dell'organizzazione.</t>
-  </si>
-  <si>
-    <t>Richiede accordi scritti che documentino le responsabilità e i requisiti di sicurezza per l'accesso ai sistemi informativi.</t>
-  </si>
-  <si>
-    <t>Richiede misure per garantire che il personale di terze parti rispetti gli stessi requisiti di sicurezza applicati al personale interno.</t>
-  </si>
-  <si>
-    <t>Richiede l'implementazione di sanzioni per i dipendenti che violano le politiche di sicurezza dell'organizzazione, per garantire la responsabilità e il rispetto delle regole.</t>
-  </si>
-  <si>
-    <t>Richiede l'implementazione di politiche e procedure per identificare, valutare e gestire i rischi per il sistema informativo.</t>
-  </si>
-  <si>
-    <t>L'unico processo effettuato è stato l'utilizzo di Microsoft Threat Modelling Tool per definire i threat esistenti una volta applicati i controlli di sicurezza.</t>
-  </si>
-  <si>
-    <t>Richiede la categorizzazione dei sistemi informativi in base alla sensibilità dei dati e alle potenziali conseguenze di una violazione.</t>
-  </si>
-  <si>
-    <t>Richiede l'esecuzione di una valutazione del rischio per identificare minacce e vulnerabilità e sviluppare strategie di mitigazione.</t>
-  </si>
-  <si>
-    <t>Richiede scansioni regolari per identificare vulnerabilità nei sistemi e nei componenti, con priorità di mitigazione per le vulnerabilità critiche.</t>
-  </si>
-  <si>
-    <t>Richiede politiche e procedure per acquisire, sviluppare e gestire sistemi e servizi in modo sicuro.</t>
-  </si>
-  <si>
-    <t>Richiede che siano allocati risorse adeguate per implementare e mantenere controlli di sicurezza efficaci.</t>
-  </si>
-  <si>
-    <t>Richiede l'integrazione della sicurezza in tutte le fasi del ciclo di vita di sviluppo del sistema.</t>
-  </si>
-  <si>
-    <t>Durante i diversi homework sono sempre state implementate delle misure di sicurezza ove possibile.</t>
-  </si>
-  <si>
-    <t>Richiede che le specifiche di sicurezza siano incluse nei contratti e nei processi di acquisizione.</t>
-  </si>
-  <si>
-    <t>Richiede che la documentazione del sistema copra configurazione, sicurezza e manutenzione.</t>
-  </si>
-  <si>
-    <t>Richiede l'applicazione di principi di ingegneria della sicurezza durante la progettazione e lo sviluppo del sistema per garantire resilienza e protezione contro le minacce.</t>
-  </si>
-  <si>
-    <t>Non tutti i componenti sono stati separati, ma tutti gli utenti hanno privilegio minimo rispetto al ruolo che ricoprono.</t>
-  </si>
-  <si>
-    <t>Richiede che l'organizzazione garantisca che i servizi esterni soddisfino requisiti di sicurezza adeguati.</t>
-  </si>
-  <si>
-    <t>Richiede che gli sviluppatori implementino un sistema di gestione della configurazione per tracciare e controllare i cambiamenti.</t>
-  </si>
-  <si>
-    <t>Richiede che gli sviluppatori conducano test di sicurezza durante lo sviluppo per identificare vulnerabilità.</t>
-  </si>
-  <si>
-    <t>Sono stati effettuati test esclusivamente sul rispetto delle policy di Vault, ma non sono stati utilizzati strumenti automatizzati per rilevare eventuali vulnerabilità nelle librerie utilizzate.</t>
-  </si>
-  <si>
-    <t>Richiede che l'organizzazione protegga la catena di approvvigionamento per prevenire compromissioni nei componenti del sistema.</t>
-  </si>
-  <si>
-    <t>Richiede che gli sviluppatori seguano standard e processi definiti, utilizzando strumenti approvati per garantire la sicurezza.</t>
-  </si>
-  <si>
-    <t>Richiede che i sviluppatori ricevano formazione adeguata sulla sicurezza per migliorare le competenze.</t>
-  </si>
-  <si>
-    <t>Richiede che gli sviluppatori progettino l'architettura del sistema tenendo conto della sicurezza.</t>
-  </si>
-  <si>
-    <t>Richiede politiche e procedure per proteggere i sistemi e le comunicazioni contro accessi non autorizzati o manomissioni.</t>
-  </si>
-  <si>
-    <t>Richiede la separazione di funzioni e dati dell'applicazione in diverse parti logiche o fisiche per migliorare la sicurezza.</t>
-  </si>
-  <si>
-    <t>Tutti i sistemi fondamentali dell'applicazione (Flask, Vault, LDAP, Apache) sono separati tra loro ed eseguono in maniera indipendente, tuttavia il database è integrato con Flask.</t>
-  </si>
-  <si>
-    <t>Richiede l'isolamento delle funzioni di sicurezza dagli altri componenti per prevenire accessi non autorizzati.</t>
-  </si>
-  <si>
-    <t>Garantisce che l'accesso a risorse condivise (come memoria o storage) non esponga informazioni sensibili non autorizzate.</t>
-  </si>
-  <si>
-    <t>Richiede che il sistema implementi misure per proteggersi contro attacchi Denial of Service (DoS).</t>
-  </si>
-  <si>
-    <t>Richiede protezione nei punti di confine della rete per prevenire accessi non autorizzati e attacchi.</t>
-  </si>
-  <si>
-    <t>Applicazione non esposta verso l'esterno.</t>
-  </si>
-  <si>
-    <t>Richiede protezione della riservatezza e integrità delle informazioni trasmesse.</t>
-  </si>
-  <si>
-    <t>Apache è stato configurato con HTTPS, così come il resto delle componenti. Tutte le comunicazioni sfruttano un certificato di sicurezza.</t>
-  </si>
-  <si>
-    <t>Richiede la capacità di interrompere connessioni di rete non necessarie o inattive.</t>
-  </si>
-  <si>
-    <t>Il sistema effettua il log out dell'utente e quindi la terminazione della sessione dopo un tempo massimo di inattività, tuttavia questo è applicato solo in remoto.</t>
-  </si>
-  <si>
-    <t>Richiede procedure sicure per la generazione, distribuzione e gestione delle chiavi crittografiche.</t>
-  </si>
-  <si>
-    <t>La chiave privata utilizzata per generare il certificato è stata creata mediante openssl.</t>
-  </si>
-  <si>
-    <t>Richiede che le informazioni siano protette con tecniche crittografiche appropriate.</t>
-  </si>
-  <si>
-    <t>Le informazioni maggiormente sensibili (password/username) sono conservate mediante Vault ed LDAP, ma il database non ha nessuna protezione.</t>
-  </si>
-  <si>
-    <t>Richiede controlli per dispositivi di calcolo collaborativi (ad esempio webcam o microfoni) per prevenire abusi.</t>
-  </si>
-  <si>
-    <t>Richiede l'uso di certificati PKI validi per autenticare l'identità dei sistemi.</t>
-  </si>
-  <si>
-    <t>Il certificato è autofirmato.</t>
-  </si>
-  <si>
-    <t>Le componenti chiave sono fisicamente separate, ma non c'è una separazione logica di tutte le componenti.</t>
-  </si>
-  <si>
-    <t>L'intera applicazione utilizza un unico file python.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riguarda la gestione e la sicurezza del codice eseguibile che può essere scaricato e eseguito da fonti esterne, come app mobili o script. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si concentra sulla sicurezza della comunicazione vocale su IP (VoIP), proteggendo la trasmissione dei dati vocali su reti non sicure.</t>
-  </si>
-  <si>
-    <t>Riguarda la protezione del servizio di risoluzione dei nomi (DNS).</t>
-  </si>
-  <si>
-    <t>Specificamente per i risolutori DNS ricorsivi o di cache.</t>
-  </si>
-  <si>
-    <t>Riguarda la progettazione e l'implementazione sicura dei servizi DNS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riguarda la protezione dell'integrità e dell'autenticità delle sessioni utente, evitando attacchi come il hijacking. </t>
-  </si>
-  <si>
-    <t>Garantisce che, in caso di errore o malfunzionamento, il sistema entri in uno stato sicuro noto.</t>
-  </si>
-  <si>
-    <t>Si concentra sulla protezione dei dati quando sono immagazzinati, assicurando che siano crittografati o protetti in altro modo.</t>
-  </si>
-  <si>
-    <t>Configurando Vault, i dati sensibili sono protetti a riposo tramite crittografia.</t>
-  </si>
-  <si>
-    <t>Riguarda l'isolamento sicuro dei processi per prevenire che un processo compromesso influenzi altri processi.</t>
-  </si>
-  <si>
-    <t>Non è stata sfruttata la virtualizzazione, ma i processi erano divisi poiché eseguiti da terminali diversi.</t>
-  </si>
-  <si>
-    <t>Riguarda la creazione e l'implementazione di politiche e procedure per garantire che il sistema rimanga integro e protetto da modifiche non autorizzate.</t>
-  </si>
-  <si>
-    <t>Riguarda la gestione delle vulnerabilità del sistema, assicurando che vengano corrette tempestivamente.</t>
-  </si>
-  <si>
-    <t>La secret key di Flask viene generata tramite secrets.token_hex(32), che viene utilizzato per firmare i dati della sessione e garantire che non possano essere alterati da un attaccante. L'uso di CSRFProtect previene che richieste non autorizzate vengano inviate da un'altra pagina web. Il timeout della sessione impedisce che una sessione rimanga attiva indefinitamente, riducendo la finestra di opportunità per gli attaccanti che potrebbero cercare di sfruttare una sessione non utilizzata. L'uso di HTTPS per tutte le comunicazioni tra client e server evita attacchi di tipo Man-in-the-Middle (MITM).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riguarda la protezione contro il codice dannoso, per esempio, virus o malware che potrebbero compromettere il sistema. </t>
-  </si>
-  <si>
-    <t>Si riferisce alla necessità di monitorare continuamente il sistema per rilevare attività sospette.</t>
-  </si>
-  <si>
-    <t>Vault fornisce dei log dettagliati sulle attività eseguite, così come la stessa applicazione Flask.</t>
-  </si>
-  <si>
-    <t>Implica che il sistema debba ricevere avvisi di sicurezza, raccomandazioni e direttive da fonti ufficiali, come le organizzazioni di sicurezza e i fornitori.</t>
-  </si>
-  <si>
-    <t>Implica che la funzionalità di sicurezza del sistema deve essere verificata regolarmente per garantirne l'efficacia.</t>
-  </si>
-  <si>
-    <t>Riguarda la protezione dell'integrità del software, del firmware e delle informazioni, per evitare che vengano modificati in modo non autorizzato.</t>
-  </si>
-  <si>
-    <t>Si riferisce alla protezione contro lo spam, ma in un contesto di un'applicazione web, si riferisce a protezioni come CAPTCHA, filtri di spam per l'input dell'utente, ecc..</t>
-  </si>
-  <si>
-    <t>Si riferisce alla validazione dell'input per evitare attacchi come SQL Injection o Cross-Site Scripting (XSS).</t>
-  </si>
-  <si>
-    <t>Si occupa della gestione degli errori in quanto un errore non gestito correttamente può esporre informazioni sensibili.</t>
-  </si>
-  <si>
-    <t>I log di errore dettagliati sono visibili solo agli sviluppatori.</t>
-  </si>
-  <si>
-    <t>Riguarda il trattamento e la conservazione delle informazioni sensibili. È importante implementare politiche di conservazione dei dati per garantire che i dati sensibili vengano trattati e distrutti correttamente.</t>
-  </si>
-  <si>
-    <t>Si riferisce alla protezione della memoria per evitare che informazioni sensibili vengano rivelate attraverso attacchi come buffer overflow o accesso non autorizzato alla memoria.</t>
-  </si>
-  <si>
-    <t>L'applicazione sfrutta SQLAlchemy che usa query parametrizzate, le quali prevengono attacchi come la SQL Injection, mentre l'XSS si previene mediante l'uso del filtro |e in Jinja2 (il motore di template usato da Flask) nel template HTML per l'escaping del contenuto. Jinja2 converte i caratteri speciali in entità HTML sicure, in modo che non vengano interpretati come codice HTML o JavaScript. Questo problema è stato risolto in seguito all'homework 7.</t>
-  </si>
-  <si>
-    <t>LDAP conserva le credenziali proteggendole mediante un meccanismo di hashing, mentre la comunicazione avviene solo attraverso Vault, che sfrutta moduli per la crittografia. Il database non conserva informazioni sensibili non autorizzate.</t>
-  </si>
-  <si>
-    <t>L'organizzazione deve stabilire e documentare una politica di controllo degli accessi completa. Questa politica dovrebbe definire:
-Chi è autorizzato ad accedere a quali sistemi e dati.
-Come l'accesso viene concesso, modificato o revocato.
-In quali condizioni l'accesso è concesso (ad esempio, in base a ruoli, autorizzazioni, necessità di conoscenza).
-Come vengono applicate le decisioni di controllo degli accessi.</t>
+    <t>Coperto (check related controls)</t>
   </si>
 </sst>
 </file>
@@ -18097,7 +18089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -18175,12 +18167,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18190,17 +18176,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -18214,31 +18191,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18667,8 +18650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752914C7-115F-4905-A8A7-15F56CC9E2E7}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18707,7 +18690,7 @@
       <c r="H1" s="21" t="s">
         <v>5318</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>5329</v>
       </c>
     </row>
@@ -18731,10 +18714,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="39" t="s">
-        <v>5561</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="34" t="s">
+        <v>5557</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>5330</v>
       </c>
     </row>
@@ -18748,7 +18731,7 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -18757,13 +18740,13 @@
       <c r="F3" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>5323</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="34" t="s">
         <v>5322</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="43" t="s">
         <v>5331</v>
       </c>
     </row>
@@ -18777,7 +18760,7 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -18786,14 +18769,14 @@
       <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="33" t="s">
         <v>5325</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="34" t="s">
         <v>5321</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>5332</v>
+      <c r="I4" s="44" t="s">
+        <v>5562</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -18807,20 +18790,20 @@
         <v>8</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="34" t="s">
         <v>5320</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="34" t="s">
         <v>5319</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>5344</v>
+      <c r="I5" s="45" t="s">
+        <v>5343</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -18834,16 +18817,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="33" t="s">
         <v>5326</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="34" t="s">
         <v>5324</v>
       </c>
       <c r="I6" s="24"/>
@@ -18859,16 +18842,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="31" t="s">
         <v>394</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>5333</v>
-      </c>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="30" t="s">
+        <v>5332</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>5327</v>
       </c>
       <c r="I7" s="24"/>
@@ -18883,7 +18866,7 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -18892,11 +18875,11 @@
       <c r="F8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="38" t="s">
         <v>5328</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>5334</v>
+      <c r="H8" s="34" t="s">
+        <v>5333</v>
       </c>
       <c r="I8" s="24"/>
     </row>
@@ -18907,23 +18890,23 @@
       <c r="B9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="30" t="s">
+        <v>5334</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>5335</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>5336</v>
       </c>
       <c r="I9" s="24"/>
     </row>
@@ -18939,14 +18922,14 @@
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>5338</v>
-      </c>
-      <c r="H10" s="39" t="s">
+      <c r="G10" s="33" t="s">
         <v>5337</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>5336</v>
       </c>
       <c r="I10" s="24"/>
     </row>
@@ -18967,9 +18950,9 @@
       <c r="F11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="39" t="s">
-        <v>5339</v>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34" t="s">
+        <v>5338</v>
       </c>
       <c r="I11" s="24"/>
     </row>
@@ -18984,17 +18967,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="31" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>5341</v>
-      </c>
-      <c r="H12" s="47" t="s">
+      <c r="G12" s="33" t="s">
         <v>5340</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>5339</v>
       </c>
       <c r="I12" s="24"/>
     </row>
@@ -19017,11 +19000,11 @@
       <c r="F13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>5343</v>
-      </c>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="30" t="s">
         <v>5342</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>5341</v>
       </c>
       <c r="I13" s="24"/>
     </row>
@@ -19029,7 +19012,7 @@
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -19045,8 +19028,8 @@
         <v>396</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="39" t="s">
-        <v>5345</v>
+      <c r="H14" s="34" t="s">
+        <v>5344</v>
       </c>
       <c r="I14" s="24"/>
     </row>
@@ -19054,7 +19037,7 @@
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -19070,8 +19053,8 @@
         <v>397</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="39" t="s">
-        <v>5346</v>
+      <c r="H15" s="34" t="s">
+        <v>5345</v>
       </c>
       <c r="I15" s="24"/>
     </row>
@@ -19079,7 +19062,7 @@
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -19095,8 +19078,8 @@
         <v>41</v>
       </c>
       <c r="G16" s="20"/>
-      <c r="H16" s="39" t="s">
-        <v>5347</v>
+      <c r="H16" s="34" t="s">
+        <v>5346</v>
       </c>
       <c r="I16" s="24"/>
     </row>
@@ -19104,7 +19087,7 @@
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -19120,8 +19103,8 @@
         <v>398</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="39" t="s">
-        <v>5348</v>
+      <c r="H17" s="34" t="s">
+        <v>5347</v>
       </c>
       <c r="I17" s="24"/>
     </row>
@@ -19129,7 +19112,7 @@
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -19142,11 +19125,11 @@
       <c r="F18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>5350</v>
-      </c>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="33" t="s">
         <v>5349</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>5348</v>
       </c>
       <c r="I18" s="24"/>
     </row>
@@ -19154,7 +19137,7 @@
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -19170,8 +19153,8 @@
         <v>46</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="39" t="s">
-        <v>5351</v>
+      <c r="H19" s="34" t="s">
+        <v>5350</v>
       </c>
       <c r="I19" s="24"/>
     </row>
@@ -19179,7 +19162,7 @@
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -19195,8 +19178,8 @@
         <v>48</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="39" t="s">
-        <v>5352</v>
+      <c r="H20" s="34" t="s">
+        <v>5351</v>
       </c>
       <c r="I20" s="24"/>
     </row>
@@ -19204,7 +19187,7 @@
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -19220,8 +19203,8 @@
         <v>52</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="39" t="s">
-        <v>5353</v>
+      <c r="H21" s="34" t="s">
+        <v>5352</v>
       </c>
       <c r="I21" s="24"/>
     </row>
@@ -19229,7 +19212,7 @@
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -19245,8 +19228,8 @@
         <v>53</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="H22" s="39" t="s">
-        <v>5354</v>
+      <c r="H22" s="34" t="s">
+        <v>5353</v>
       </c>
       <c r="I22" s="24"/>
     </row>
@@ -19254,7 +19237,7 @@
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -19270,8 +19253,8 @@
         <v>55</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="39" t="s">
-        <v>5355</v>
+      <c r="H23" s="34" t="s">
+        <v>5354</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -19294,11 +19277,11 @@
       <c r="F24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>5358</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>5356</v>
+      <c r="G24" s="34" t="s">
+        <v>5357</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>5355</v>
       </c>
       <c r="I24" s="24"/>
     </row>
@@ -19321,11 +19304,11 @@
       <c r="F25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>5357</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>5359</v>
+      <c r="G25" s="34" t="s">
+        <v>5356</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>5358</v>
       </c>
       <c r="I25" s="24"/>
     </row>
@@ -19348,11 +19331,11 @@
       <c r="F26" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>5361</v>
-      </c>
-      <c r="H26" s="39" t="s">
+      <c r="G26" s="34" t="s">
         <v>5360</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>5359</v>
       </c>
       <c r="I26" s="24"/>
     </row>
@@ -19375,11 +19358,11 @@
       <c r="F27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>5363</v>
-      </c>
-      <c r="H27" s="39" t="s">
+      <c r="G27" s="34" t="s">
         <v>5362</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>5361</v>
       </c>
       <c r="I27" s="24"/>
     </row>
@@ -19402,11 +19385,11 @@
       <c r="F28" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="34" t="s">
+        <v>5363</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>5364</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>5365</v>
       </c>
       <c r="I28" s="24"/>
     </row>
@@ -19429,11 +19412,11 @@
       <c r="F29" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>5367</v>
-      </c>
-      <c r="H29" s="39" t="s">
+      <c r="G29" s="34" t="s">
         <v>5366</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>5365</v>
       </c>
       <c r="I29" s="24"/>
     </row>
@@ -19454,11 +19437,11 @@
       <c r="F30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>5369</v>
-      </c>
-      <c r="H30" s="39" t="s">
+      <c r="G30" s="34" t="s">
         <v>5368</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>5367</v>
       </c>
       <c r="I30" s="24"/>
     </row>
@@ -19481,11 +19464,11 @@
       <c r="F31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>5371</v>
-      </c>
-      <c r="H31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>5370</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>5369</v>
       </c>
       <c r="I31" s="24"/>
     </row>
@@ -19508,15 +19491,15 @@
       <c r="F32" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="G32" s="42" t="s">
-        <v>5373</v>
-      </c>
-      <c r="H32" s="39" t="s">
+      <c r="G32" s="39" t="s">
         <v>5372</v>
       </c>
+      <c r="H32" s="34" t="s">
+        <v>5371</v>
+      </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -19531,11 +19514,11 @@
       <c r="F33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>5375</v>
-      </c>
-      <c r="H33" s="39" t="s">
+      <c r="G33" s="34" t="s">
         <v>5374</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>5373</v>
       </c>
       <c r="I33" s="24"/>
     </row>
@@ -19558,11 +19541,11 @@
       <c r="F34" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>5377</v>
-      </c>
-      <c r="H34" s="39" t="s">
+      <c r="G34" s="34" t="s">
         <v>5376</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>5375</v>
       </c>
       <c r="I34" s="24"/>
     </row>
@@ -19585,11 +19568,11 @@
       <c r="F35" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="G35" s="28" t="s">
-        <v>5379</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>5378</v>
+      <c r="G35" s="34" t="s">
+        <v>5560</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>5377</v>
       </c>
       <c r="I35" s="24"/>
     </row>
@@ -19612,11 +19595,11 @@
       <c r="F36" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>5383</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>5380</v>
+      <c r="G36" s="34" t="s">
+        <v>5381</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>5378</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -19639,11 +19622,11 @@
       <c r="F37" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="G37" s="28" t="s">
-        <v>5382</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>5381</v>
+      <c r="G37" s="34" t="s">
+        <v>5380</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>5379</v>
       </c>
       <c r="I37" s="24"/>
     </row>
@@ -19666,11 +19649,11 @@
       <c r="F38" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>5385</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>5384</v>
+      <c r="G38" s="34" t="s">
+        <v>5383</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>5382</v>
       </c>
       <c r="I38" s="24"/>
     </row>
@@ -19693,11 +19676,11 @@
       <c r="F39" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>5386</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>5387</v>
+      <c r="G39" s="34" t="s">
+        <v>5384</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>5385</v>
       </c>
       <c r="I39" s="24"/>
     </row>
@@ -19720,11 +19703,11 @@
       <c r="F40" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>5389</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>5388</v>
+      <c r="G40" s="34" t="s">
+        <v>5387</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>5386</v>
       </c>
       <c r="I40" s="24"/>
     </row>
@@ -19747,11 +19730,11 @@
       <c r="F41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>5391</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>5390</v>
+      <c r="G41" s="34" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>5388</v>
       </c>
       <c r="I41" s="24"/>
     </row>
@@ -19759,7 +19742,7 @@
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -19770,9 +19753,11 @@
       <c r="F42" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="39" t="s">
-        <v>5392</v>
+      <c r="G42" s="34" t="s">
+        <v>5559</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>5390</v>
       </c>
       <c r="I42" s="24"/>
     </row>
@@ -19795,11 +19780,11 @@
       <c r="F43" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>5394</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>5393</v>
+      <c r="G43" s="34" t="s">
+        <v>5392</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>5391</v>
       </c>
       <c r="I43" s="24"/>
     </row>
@@ -19807,7 +19792,7 @@
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="35" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -19822,11 +19807,11 @@
       <c r="F44" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="28" t="s">
-        <v>5396</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>5395</v>
+      <c r="G44" s="34" t="s">
+        <v>5394</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>5393</v>
       </c>
       <c r="I44" s="24"/>
     </row>
@@ -19834,7 +19819,7 @@
       <c r="A45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="35" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -19850,8 +19835,8 @@
         <v>407</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="39" t="s">
-        <v>5397</v>
+      <c r="H45" s="34" t="s">
+        <v>5395</v>
       </c>
       <c r="I45" s="24"/>
     </row>
@@ -19859,7 +19844,7 @@
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -19873,8 +19858,8 @@
         <v>408</v>
       </c>
       <c r="G46" s="20"/>
-      <c r="H46" s="39" t="s">
-        <v>5398</v>
+      <c r="H46" s="34" t="s">
+        <v>5396</v>
       </c>
       <c r="I46" s="24"/>
     </row>
@@ -19882,7 +19867,7 @@
       <c r="A47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -19898,8 +19883,8 @@
         <v>114</v>
       </c>
       <c r="G47" s="20"/>
-      <c r="H47" s="39" t="s">
-        <v>5399</v>
+      <c r="H47" s="34" t="s">
+        <v>5397</v>
       </c>
       <c r="I47" s="24"/>
     </row>
@@ -19907,7 +19892,7 @@
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -19921,8 +19906,8 @@
         <v>409</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="39" t="s">
-        <v>5400</v>
+      <c r="H48" s="34" t="s">
+        <v>5398</v>
       </c>
       <c r="I48" s="24"/>
     </row>
@@ -19930,7 +19915,7 @@
       <c r="A49" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="35" t="s">
         <v>118</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -19946,8 +19931,8 @@
         <v>410</v>
       </c>
       <c r="G49" s="20"/>
-      <c r="H49" s="39" t="s">
-        <v>5401</v>
+      <c r="H49" s="34" t="s">
+        <v>5399</v>
       </c>
       <c r="I49" s="24"/>
     </row>
@@ -19970,11 +19955,11 @@
       <c r="F50" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="G50" s="28" t="s">
-        <v>5403</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>5402</v>
+      <c r="G50" s="34" t="s">
+        <v>5401</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>5400</v>
       </c>
       <c r="I50" s="24"/>
     </row>
@@ -19997,11 +19982,11 @@
       <c r="F51" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="G51" s="28" t="s">
-        <v>5405</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>5404</v>
+      <c r="G51" s="34" t="s">
+        <v>5403</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>5402</v>
       </c>
       <c r="I51" s="24"/>
     </row>
@@ -20009,7 +19994,7 @@
       <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="35" t="s">
         <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -20023,8 +20008,8 @@
         <v>123</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="39" t="s">
-        <v>5406</v>
+      <c r="H52" s="34" t="s">
+        <v>5404</v>
       </c>
       <c r="I52" s="24"/>
     </row>
@@ -20047,11 +20032,11 @@
       <c r="F53" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="28" t="s">
-        <v>5408</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>5407</v>
+      <c r="G53" s="34" t="s">
+        <v>5406</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>5405</v>
       </c>
       <c r="I53" s="24"/>
     </row>
@@ -20059,7 +20044,7 @@
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="35" t="s">
         <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -20075,8 +20060,8 @@
         <v>127</v>
       </c>
       <c r="G54" s="20"/>
-      <c r="H54" s="39" t="s">
-        <v>5409</v>
+      <c r="H54" s="34" t="s">
+        <v>5407</v>
       </c>
       <c r="I54" s="24"/>
     </row>
@@ -20084,7 +20069,7 @@
       <c r="A55" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="35" t="s">
         <v>130</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -20100,8 +20085,8 @@
         <v>129</v>
       </c>
       <c r="G55" s="20"/>
-      <c r="H55" s="39" t="s">
-        <v>5410</v>
+      <c r="H55" s="34" t="s">
+        <v>5408</v>
       </c>
       <c r="I55" s="24"/>
     </row>
@@ -20109,7 +20094,7 @@
       <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -20125,8 +20110,8 @@
         <v>416</v>
       </c>
       <c r="G56" s="20"/>
-      <c r="H56" s="39" t="s">
-        <v>5411</v>
+      <c r="H56" s="34" t="s">
+        <v>5409</v>
       </c>
       <c r="I56" s="24"/>
     </row>
@@ -20134,7 +20119,7 @@
       <c r="A57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="35" t="s">
         <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -20150,8 +20135,8 @@
         <v>135</v>
       </c>
       <c r="G57" s="20"/>
-      <c r="H57" s="39" t="s">
-        <v>5412</v>
+      <c r="H57" s="34" t="s">
+        <v>5410</v>
       </c>
       <c r="I57" s="24"/>
     </row>
@@ -20159,7 +20144,7 @@
       <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="35" t="s">
         <v>137</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -20175,8 +20160,8 @@
         <v>417</v>
       </c>
       <c r="G58" s="20"/>
-      <c r="H58" s="39" t="s">
-        <v>5413</v>
+      <c r="H58" s="34" t="s">
+        <v>5411</v>
       </c>
       <c r="I58" s="24"/>
     </row>
@@ -20197,11 +20182,11 @@
       <c r="F59" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="G59" s="43" t="s">
-        <v>5415</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>5414</v>
+      <c r="G59" s="40" t="s">
+        <v>5413</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>5412</v>
       </c>
       <c r="I59" s="24"/>
     </row>
@@ -20222,11 +20207,11 @@
       <c r="F60" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="34" t="s">
+        <v>5414</v>
+      </c>
+      <c r="H60" s="34" t="s">
         <v>5416</v>
-      </c>
-      <c r="H60" s="39" t="s">
-        <v>5418</v>
       </c>
       <c r="I60" s="24"/>
     </row>
@@ -20234,7 +20219,7 @@
       <c r="A61" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="35" t="s">
         <v>144</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -20247,11 +20232,11 @@
       <c r="F61" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="G61" s="28" t="s">
-        <v>5419</v>
-      </c>
-      <c r="H61" s="39" t="s">
+      <c r="G61" s="34" t="s">
         <v>5417</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>5415</v>
       </c>
       <c r="I61" s="24"/>
     </row>
@@ -20274,11 +20259,11 @@
       <c r="F62" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="G62" s="28" t="s">
-        <v>5421</v>
-      </c>
-      <c r="H62" s="39" t="s">
-        <v>5420</v>
+      <c r="G62" s="34" t="s">
+        <v>5419</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>5418</v>
       </c>
       <c r="I62" s="24"/>
     </row>
@@ -20301,11 +20286,11 @@
       <c r="F63" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="G63" s="28" t="s">
-        <v>5421</v>
-      </c>
-      <c r="H63" s="39" t="s">
-        <v>5422</v>
+      <c r="G63" s="34" t="s">
+        <v>5419</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>5420</v>
       </c>
       <c r="I63" s="24"/>
     </row>
@@ -20328,11 +20313,11 @@
       <c r="F64" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G64" s="38" t="s">
-        <v>5424</v>
-      </c>
-      <c r="H64" s="39" t="s">
-        <v>5423</v>
+      <c r="G64" s="33" t="s">
+        <v>5422</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>5421</v>
       </c>
       <c r="I64" s="24"/>
     </row>
@@ -20355,11 +20340,11 @@
       <c r="F65" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="G65" s="34" t="s">
-        <v>5426</v>
-      </c>
-      <c r="H65" s="39" t="s">
-        <v>5425</v>
+      <c r="G65" s="30" t="s">
+        <v>5424</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>5423</v>
       </c>
       <c r="I65" s="24"/>
     </row>
@@ -20380,11 +20365,11 @@
       <c r="F66" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="38" t="s">
-        <v>5428</v>
-      </c>
-      <c r="H66" s="39" t="s">
-        <v>5427</v>
+      <c r="G66" s="33" t="s">
+        <v>5426</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>5425</v>
       </c>
       <c r="I66" s="24"/>
     </row>
@@ -20407,11 +20392,11 @@
       <c r="F67" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="34" t="s">
-        <v>5430</v>
-      </c>
-      <c r="H67" s="39" t="s">
-        <v>5429</v>
+      <c r="G67" s="30" t="s">
+        <v>5428</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>5427</v>
       </c>
       <c r="I67" s="24"/>
     </row>
@@ -20434,11 +20419,11 @@
       <c r="F68" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="G68" s="45" t="s">
-        <v>5432</v>
-      </c>
-      <c r="H68" s="39" t="s">
-        <v>5431</v>
+      <c r="G68" s="41" t="s">
+        <v>5561</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>5429</v>
       </c>
       <c r="I68" s="24"/>
     </row>
@@ -20461,11 +20446,11 @@
       <c r="F69" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G69" s="34" t="s">
-        <v>5434</v>
-      </c>
-      <c r="H69" s="39" t="s">
-        <v>5433</v>
+      <c r="G69" s="30" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>5430</v>
       </c>
       <c r="I69" s="24"/>
     </row>
@@ -20474,7 +20459,7 @@
         <v>163</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>5437</v>
+        <v>5558</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>8</v>
@@ -20488,11 +20473,11 @@
       <c r="F70" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G70" s="44" t="s">
-        <v>5436</v>
-      </c>
-      <c r="H70" s="39" t="s">
-        <v>5435</v>
+      <c r="G70" s="38" t="s">
+        <v>5433</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>5432</v>
       </c>
       <c r="I70" s="24"/>
     </row>
@@ -20500,7 +20485,7 @@
       <c r="A71" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="35" t="s">
         <v>165</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -20515,11 +20500,11 @@
       <c r="F71" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="G71" s="34" t="s">
-        <v>5439</v>
-      </c>
-      <c r="H71" s="39" t="s">
-        <v>5438</v>
+      <c r="G71" s="30" t="s">
+        <v>5435</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>5434</v>
       </c>
       <c r="I71" s="24"/>
     </row>
@@ -20542,11 +20527,11 @@
       <c r="F72" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="28" t="s">
-        <v>5441</v>
-      </c>
-      <c r="H72" s="47" t="s">
-        <v>5440</v>
+      <c r="G72" s="34" t="s">
+        <v>5437</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>5436</v>
       </c>
       <c r="I72" s="24"/>
     </row>
@@ -20554,7 +20539,7 @@
       <c r="A73" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="35" t="s">
         <v>169</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -20570,8 +20555,8 @@
         <v>432</v>
       </c>
       <c r="G73" s="20"/>
-      <c r="H73" s="39" t="s">
-        <v>5442</v>
+      <c r="H73" s="34" t="s">
+        <v>5438</v>
       </c>
       <c r="I73" s="24"/>
     </row>
@@ -20579,7 +20564,7 @@
       <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="35" t="s">
         <v>171</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -20593,8 +20578,8 @@
         <v>172</v>
       </c>
       <c r="G74" s="20"/>
-      <c r="H74" s="39" t="s">
-        <v>5443</v>
+      <c r="H74" s="34" t="s">
+        <v>5439</v>
       </c>
       <c r="I74" s="24"/>
     </row>
@@ -20602,7 +20587,7 @@
       <c r="A75" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="35" t="s">
         <v>174</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -20618,8 +20603,8 @@
         <v>433</v>
       </c>
       <c r="G75" s="20"/>
-      <c r="H75" s="39" t="s">
-        <v>5444</v>
+      <c r="H75" s="34" t="s">
+        <v>5440</v>
       </c>
       <c r="I75" s="24"/>
     </row>
@@ -20627,7 +20612,7 @@
       <c r="A76" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="35" t="s">
         <v>177</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -20643,8 +20628,8 @@
         <v>178</v>
       </c>
       <c r="G76" s="20"/>
-      <c r="H76" s="39" t="s">
-        <v>5445</v>
+      <c r="H76" s="34" t="s">
+        <v>5441</v>
       </c>
       <c r="I76" s="24"/>
     </row>
@@ -20652,7 +20637,7 @@
       <c r="A77" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="35" t="s">
         <v>180</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -20668,8 +20653,8 @@
         <v>181</v>
       </c>
       <c r="G77" s="20"/>
-      <c r="H77" s="39" t="s">
-        <v>5446</v>
+      <c r="H77" s="34" t="s">
+        <v>5442</v>
       </c>
       <c r="I77" s="24"/>
     </row>
@@ -20677,7 +20662,7 @@
       <c r="A78" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="35" t="s">
         <v>183</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -20693,8 +20678,8 @@
         <v>184</v>
       </c>
       <c r="G78" s="20"/>
-      <c r="H78" s="39" t="s">
-        <v>5447</v>
+      <c r="H78" s="34" t="s">
+        <v>5443</v>
       </c>
       <c r="I78" s="24"/>
     </row>
@@ -20702,7 +20687,7 @@
       <c r="A79" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -20718,8 +20703,8 @@
         <v>185</v>
       </c>
       <c r="G79" s="20"/>
-      <c r="H79" s="39" t="s">
-        <v>5448</v>
+      <c r="H79" s="34" t="s">
+        <v>5444</v>
       </c>
       <c r="I79" s="24"/>
     </row>
@@ -20727,7 +20712,7 @@
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="35" t="s">
         <v>188</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -20743,8 +20728,8 @@
         <v>187</v>
       </c>
       <c r="G80" s="20"/>
-      <c r="H80" s="39" t="s">
-        <v>5449</v>
+      <c r="H80" s="34" t="s">
+        <v>5445</v>
       </c>
       <c r="I80" s="24"/>
     </row>
@@ -20752,7 +20737,7 @@
       <c r="A81" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="35" t="s">
         <v>190</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -20768,8 +20753,8 @@
         <v>191</v>
       </c>
       <c r="G81" s="20"/>
-      <c r="H81" s="39" t="s">
-        <v>5450</v>
+      <c r="H81" s="34" t="s">
+        <v>5446</v>
       </c>
       <c r="I81" s="24"/>
     </row>
@@ -20777,7 +20762,7 @@
       <c r="A82" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="35" t="s">
         <v>193</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -20791,8 +20776,8 @@
         <v>435</v>
       </c>
       <c r="G82" s="20"/>
-      <c r="H82" s="39" t="s">
-        <v>5451</v>
+      <c r="H82" s="34" t="s">
+        <v>5447</v>
       </c>
       <c r="I82" s="24"/>
     </row>
@@ -20800,7 +20785,7 @@
       <c r="A83" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="35" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -20816,8 +20801,8 @@
         <v>436</v>
       </c>
       <c r="G83" s="20"/>
-      <c r="H83" s="39" t="s">
-        <v>5452</v>
+      <c r="H83" s="34" t="s">
+        <v>5448</v>
       </c>
       <c r="I83" s="24"/>
     </row>
@@ -20825,7 +20810,7 @@
       <c r="A84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="35" t="s">
         <v>198</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -20841,8 +20826,8 @@
         <v>199</v>
       </c>
       <c r="G84" s="20"/>
-      <c r="H84" s="47" t="s">
-        <v>5453</v>
+      <c r="H84" s="36" t="s">
+        <v>5449</v>
       </c>
       <c r="I84" s="24"/>
     </row>
@@ -20850,7 +20835,7 @@
       <c r="A85" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="35" t="s">
         <v>201</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -20864,8 +20849,8 @@
         <v>200</v>
       </c>
       <c r="G85" s="20"/>
-      <c r="H85" s="47" t="s">
-        <v>5454</v>
+      <c r="H85" s="36" t="s">
+        <v>5450</v>
       </c>
       <c r="I85" s="24"/>
     </row>
@@ -20873,7 +20858,7 @@
       <c r="A86" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="35" t="s">
         <v>203</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -20889,8 +20874,8 @@
         <v>202</v>
       </c>
       <c r="G86" s="20"/>
-      <c r="H86" s="39" t="s">
-        <v>5455</v>
+      <c r="H86" s="34" t="s">
+        <v>5451</v>
       </c>
       <c r="I86" s="24"/>
     </row>
@@ -20898,7 +20883,7 @@
       <c r="A87" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="35" t="s">
         <v>205</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -20914,8 +20899,8 @@
         <v>204</v>
       </c>
       <c r="G87" s="20"/>
-      <c r="H87" s="39" t="s">
-        <v>5456</v>
+      <c r="H87" s="34" t="s">
+        <v>5452</v>
       </c>
       <c r="I87" s="24"/>
     </row>
@@ -20923,7 +20908,7 @@
       <c r="A88" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="35" t="s">
         <v>207</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -20937,8 +20922,8 @@
         <v>206</v>
       </c>
       <c r="G88" s="20"/>
-      <c r="H88" s="39" t="s">
-        <v>5457</v>
+      <c r="H88" s="34" t="s">
+        <v>5453</v>
       </c>
       <c r="I88" s="24"/>
     </row>
@@ -20946,7 +20931,7 @@
       <c r="A89" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="35" t="s">
         <v>209</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -20960,8 +20945,8 @@
         <v>208</v>
       </c>
       <c r="G89" s="20"/>
-      <c r="H89" s="39" t="s">
-        <v>5458</v>
+      <c r="H89" s="34" t="s">
+        <v>5454</v>
       </c>
       <c r="I89" s="24"/>
     </row>
@@ -20969,7 +20954,7 @@
       <c r="A90" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="35" t="s">
         <v>211</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -20983,8 +20968,8 @@
         <v>212</v>
       </c>
       <c r="G90" s="20"/>
-      <c r="H90" s="39" t="s">
-        <v>5459</v>
+      <c r="H90" s="34" t="s">
+        <v>5455</v>
       </c>
       <c r="I90" s="24"/>
     </row>
@@ -20992,7 +20977,7 @@
       <c r="A91" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -21008,8 +20993,8 @@
         <v>437</v>
       </c>
       <c r="G91" s="20"/>
-      <c r="H91" s="47" t="s">
-        <v>5460</v>
+      <c r="H91" s="36" t="s">
+        <v>5456</v>
       </c>
       <c r="I91" s="24"/>
     </row>
@@ -21017,7 +21002,7 @@
       <c r="A92" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="35" t="s">
         <v>216</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -21033,8 +21018,8 @@
         <v>217</v>
       </c>
       <c r="G92" s="20"/>
-      <c r="H92" s="39" t="s">
-        <v>5461</v>
+      <c r="H92" s="34" t="s">
+        <v>5457</v>
       </c>
       <c r="I92" s="24"/>
     </row>
@@ -21042,7 +21027,7 @@
       <c r="A93" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="35" t="s">
         <v>219</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -21058,8 +21043,8 @@
         <v>218</v>
       </c>
       <c r="G93" s="20"/>
-      <c r="H93" s="39" t="s">
-        <v>5462</v>
+      <c r="H93" s="34" t="s">
+        <v>5458</v>
       </c>
       <c r="I93" s="24"/>
     </row>
@@ -21067,7 +21052,7 @@
       <c r="A94" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="35" t="s">
         <v>221</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -21083,8 +21068,8 @@
         <v>220</v>
       </c>
       <c r="G94" s="20"/>
-      <c r="H94" s="48" t="s">
-        <v>5463</v>
+      <c r="H94" s="37" t="s">
+        <v>5459</v>
       </c>
       <c r="I94" s="24"/>
     </row>
@@ -21092,7 +21077,7 @@
       <c r="A95" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="35" t="s">
         <v>223</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -21108,8 +21093,8 @@
         <v>224</v>
       </c>
       <c r="G95" s="20"/>
-      <c r="H95" s="39" t="s">
-        <v>5464</v>
+      <c r="H95" s="34" t="s">
+        <v>5460</v>
       </c>
       <c r="I95" s="24"/>
     </row>
@@ -21117,7 +21102,7 @@
       <c r="A96" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -21131,8 +21116,8 @@
         <v>225</v>
       </c>
       <c r="G96" s="20"/>
-      <c r="H96" s="39" t="s">
-        <v>5465</v>
+      <c r="H96" s="34" t="s">
+        <v>5461</v>
       </c>
       <c r="I96" s="24"/>
     </row>
@@ -21140,7 +21125,7 @@
       <c r="A97" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="35" t="s">
         <v>228</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -21154,8 +21139,8 @@
         <v>227</v>
       </c>
       <c r="G97" s="20"/>
-      <c r="H97" s="39" t="s">
-        <v>5466</v>
+      <c r="H97" s="34" t="s">
+        <v>5462</v>
       </c>
       <c r="I97" s="24"/>
     </row>
@@ -21163,7 +21148,7 @@
       <c r="A98" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="35" t="s">
         <v>230</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -21179,8 +21164,8 @@
         <v>438</v>
       </c>
       <c r="G98" s="20"/>
-      <c r="H98" s="39" t="s">
-        <v>5467</v>
+      <c r="H98" s="34" t="s">
+        <v>5463</v>
       </c>
       <c r="I98" s="24"/>
     </row>
@@ -21188,7 +21173,7 @@
       <c r="A99" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="35" t="s">
         <v>233</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -21204,8 +21189,8 @@
         <v>234</v>
       </c>
       <c r="G99" s="20"/>
-      <c r="H99" s="39" t="s">
-        <v>5468</v>
+      <c r="H99" s="34" t="s">
+        <v>5464</v>
       </c>
       <c r="I99" s="24"/>
     </row>
@@ -21213,7 +21198,7 @@
       <c r="A100" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="35" t="s">
         <v>236</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -21227,8 +21212,8 @@
         <v>235</v>
       </c>
       <c r="G100" s="20"/>
-      <c r="H100" s="39" t="s">
-        <v>5469</v>
+      <c r="H100" s="34" t="s">
+        <v>5465</v>
       </c>
       <c r="I100" s="24"/>
     </row>
@@ -21236,7 +21221,7 @@
       <c r="A101" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="35" t="s">
         <v>238</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -21250,8 +21235,8 @@
         <v>237</v>
       </c>
       <c r="G101" s="20"/>
-      <c r="H101" s="39" t="s">
-        <v>5470</v>
+      <c r="H101" s="34" t="s">
+        <v>5466</v>
       </c>
       <c r="I101" s="24"/>
     </row>
@@ -21259,7 +21244,7 @@
       <c r="A102" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="35" t="s">
         <v>240</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -21273,8 +21258,8 @@
         <v>241</v>
       </c>
       <c r="G102" s="20"/>
-      <c r="H102" s="39" t="s">
-        <v>5471</v>
+      <c r="H102" s="34" t="s">
+        <v>5467</v>
       </c>
       <c r="I102" s="24"/>
     </row>
@@ -21282,7 +21267,7 @@
       <c r="A103" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="35" t="s">
         <v>243</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -21298,8 +21283,8 @@
         <v>242</v>
       </c>
       <c r="G103" s="20"/>
-      <c r="H103" s="39" t="s">
-        <v>5472</v>
+      <c r="H103" s="34" t="s">
+        <v>5468</v>
       </c>
       <c r="I103" s="24"/>
     </row>
@@ -21307,7 +21292,7 @@
       <c r="A104" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="35" t="s">
         <v>245</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -21323,8 +21308,8 @@
         <v>439</v>
       </c>
       <c r="G104" s="20"/>
-      <c r="H104" s="39" t="s">
-        <v>5473</v>
+      <c r="H104" s="34" t="s">
+        <v>5469</v>
       </c>
       <c r="I104" s="24"/>
     </row>
@@ -21332,7 +21317,7 @@
       <c r="A105" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="35" t="s">
         <v>248</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -21348,8 +21333,8 @@
         <v>247</v>
       </c>
       <c r="G105" s="20"/>
-      <c r="H105" s="39" t="s">
-        <v>5474</v>
+      <c r="H105" s="34" t="s">
+        <v>5470</v>
       </c>
       <c r="I105" s="24"/>
     </row>
@@ -21357,7 +21342,7 @@
       <c r="A106" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="35" t="s">
         <v>250</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -21373,8 +21358,8 @@
         <v>251</v>
       </c>
       <c r="G106" s="20"/>
-      <c r="H106" s="39" t="s">
-        <v>5475</v>
+      <c r="H106" s="34" t="s">
+        <v>5471</v>
       </c>
       <c r="I106" s="24"/>
     </row>
@@ -21382,7 +21367,7 @@
       <c r="A107" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="35" t="s">
         <v>253</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -21398,8 +21383,8 @@
         <v>252</v>
       </c>
       <c r="G107" s="20"/>
-      <c r="H107" s="39" t="s">
-        <v>5476</v>
+      <c r="H107" s="34" t="s">
+        <v>5472</v>
       </c>
       <c r="I107" s="24"/>
     </row>
@@ -21407,7 +21392,7 @@
       <c r="A108" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="35" t="s">
         <v>255</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -21421,8 +21406,8 @@
         <v>254</v>
       </c>
       <c r="G108" s="20"/>
-      <c r="H108" s="39" t="s">
-        <v>5477</v>
+      <c r="H108" s="34" t="s">
+        <v>5473</v>
       </c>
       <c r="I108" s="24"/>
     </row>
@@ -21430,7 +21415,7 @@
       <c r="A109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="35" t="s">
         <v>257</v>
       </c>
       <c r="C109" s="6" t="s">
@@ -21442,8 +21427,8 @@
         <v>256</v>
       </c>
       <c r="G109" s="20"/>
-      <c r="H109" s="39" t="s">
-        <v>5478</v>
+      <c r="H109" s="34" t="s">
+        <v>5474</v>
       </c>
       <c r="I109" s="24"/>
     </row>
@@ -21451,7 +21436,7 @@
       <c r="A110" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="35" t="s">
         <v>259</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -21467,8 +21452,8 @@
         <v>258</v>
       </c>
       <c r="G110" s="20"/>
-      <c r="H110" s="39" t="s">
-        <v>5479</v>
+      <c r="H110" s="34" t="s">
+        <v>5475</v>
       </c>
       <c r="I110" s="24"/>
     </row>
@@ -21476,7 +21461,7 @@
       <c r="A111" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="35" t="s">
         <v>261</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -21492,8 +21477,8 @@
         <v>262</v>
       </c>
       <c r="G111" s="20"/>
-      <c r="H111" s="39" t="s">
-        <v>5480</v>
+      <c r="H111" s="34" t="s">
+        <v>5476</v>
       </c>
       <c r="I111" s="24"/>
     </row>
@@ -21501,7 +21486,7 @@
       <c r="A112" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="35" t="s">
         <v>264</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -21517,8 +21502,8 @@
         <v>265</v>
       </c>
       <c r="G112" s="20"/>
-      <c r="H112" s="39" t="s">
-        <v>5481</v>
+      <c r="H112" s="34" t="s">
+        <v>5477</v>
       </c>
       <c r="I112" s="24"/>
     </row>
@@ -21526,7 +21511,7 @@
       <c r="A113" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="35" t="s">
         <v>267</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -21540,8 +21525,8 @@
         <v>266</v>
       </c>
       <c r="G113" s="20"/>
-      <c r="H113" s="39" t="s">
-        <v>5482</v>
+      <c r="H113" s="34" t="s">
+        <v>5478</v>
       </c>
       <c r="I113" s="24"/>
     </row>
@@ -21549,7 +21534,7 @@
       <c r="A114" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="35" t="s">
         <v>269</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -21565,8 +21550,8 @@
         <v>268</v>
       </c>
       <c r="G114" s="20"/>
-      <c r="H114" s="39" t="s">
-        <v>5483</v>
+      <c r="H114" s="34" t="s">
+        <v>5479</v>
       </c>
       <c r="I114" s="24"/>
     </row>
@@ -21574,7 +21559,7 @@
       <c r="A115" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="35" t="s">
         <v>271</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -21590,8 +21575,8 @@
         <v>270</v>
       </c>
       <c r="G115" s="20"/>
-      <c r="H115" s="39" t="s">
-        <v>5484</v>
+      <c r="H115" s="34" t="s">
+        <v>5480</v>
       </c>
       <c r="I115" s="24"/>
     </row>
@@ -21599,7 +21584,7 @@
       <c r="A116" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -21615,8 +21600,8 @@
         <v>272</v>
       </c>
       <c r="G116" s="20"/>
-      <c r="H116" s="39" t="s">
-        <v>5485</v>
+      <c r="H116" s="34" t="s">
+        <v>5481</v>
       </c>
       <c r="I116" s="24"/>
     </row>
@@ -21624,7 +21609,7 @@
       <c r="A117" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="35" t="s">
         <v>275</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -21640,8 +21625,8 @@
         <v>276</v>
       </c>
       <c r="G117" s="20"/>
-      <c r="H117" s="39" t="s">
-        <v>5486</v>
+      <c r="H117" s="34" t="s">
+        <v>5482</v>
       </c>
       <c r="I117" s="24"/>
     </row>
@@ -21649,7 +21634,7 @@
       <c r="A118" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B118" s="41" t="s">
+      <c r="B118" s="35" t="s">
         <v>278</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -21665,8 +21650,8 @@
         <v>277</v>
       </c>
       <c r="G118" s="20"/>
-      <c r="H118" s="39" t="s">
-        <v>5487</v>
+      <c r="H118" s="34" t="s">
+        <v>5483</v>
       </c>
       <c r="I118" s="24"/>
     </row>
@@ -21674,7 +21659,7 @@
       <c r="A119" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B119" s="41" t="s">
+      <c r="B119" s="35" t="s">
         <v>280</v>
       </c>
       <c r="C119" s="6" t="s">
@@ -21690,8 +21675,8 @@
         <v>279</v>
       </c>
       <c r="G119" s="20"/>
-      <c r="H119" s="39" t="s">
-        <v>5488</v>
+      <c r="H119" s="34" t="s">
+        <v>5484</v>
       </c>
       <c r="I119" s="24"/>
     </row>
@@ -21699,7 +21684,7 @@
       <c r="A120" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B120" s="41" t="s">
+      <c r="B120" s="35" t="s">
         <v>282</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -21715,8 +21700,8 @@
         <v>281</v>
       </c>
       <c r="G120" s="20"/>
-      <c r="H120" s="47" t="s">
-        <v>5489</v>
+      <c r="H120" s="36" t="s">
+        <v>5485</v>
       </c>
       <c r="I120" s="24"/>
     </row>
@@ -21724,7 +21709,7 @@
       <c r="A121" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B121" s="41" t="s">
+      <c r="B121" s="35" t="s">
         <v>284</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -21740,8 +21725,8 @@
         <v>283</v>
       </c>
       <c r="G121" s="20"/>
-      <c r="H121" s="39" t="s">
-        <v>5490</v>
+      <c r="H121" s="34" t="s">
+        <v>5486</v>
       </c>
       <c r="I121" s="24"/>
     </row>
@@ -21749,7 +21734,7 @@
       <c r="A122" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="35" t="s">
         <v>286</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -21764,8 +21749,8 @@
       <c r="F122" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="H122" s="39" t="s">
-        <v>5491</v>
+      <c r="H122" s="34" t="s">
+        <v>5487</v>
       </c>
       <c r="I122" s="24"/>
     </row>
@@ -21773,7 +21758,7 @@
       <c r="A123" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B123" s="41" t="s">
+      <c r="B123" s="35" t="s">
         <v>288</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -21789,8 +21774,8 @@
         <v>287</v>
       </c>
       <c r="G123" s="20"/>
-      <c r="H123" s="39" t="s">
-        <v>5493</v>
+      <c r="H123" s="34" t="s">
+        <v>5489</v>
       </c>
       <c r="I123" s="24"/>
     </row>
@@ -21813,11 +21798,11 @@
       <c r="F124" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G124" s="28" t="s">
-        <v>5492</v>
-      </c>
-      <c r="H124" s="39" t="s">
-        <v>5494</v>
+      <c r="G124" s="34" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H124" s="34" t="s">
+        <v>5490</v>
       </c>
       <c r="I124" s="24"/>
     </row>
@@ -21825,7 +21810,7 @@
       <c r="A125" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B125" s="41" t="s">
+      <c r="B125" s="35" t="s">
         <v>292</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -21841,8 +21826,8 @@
         <v>441</v>
       </c>
       <c r="G125" s="20"/>
-      <c r="H125" s="39" t="s">
-        <v>5495</v>
+      <c r="H125" s="34" t="s">
+        <v>5491</v>
       </c>
       <c r="I125" s="24"/>
     </row>
@@ -21850,7 +21835,7 @@
       <c r="A126" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="35" t="s">
         <v>294</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -21866,8 +21851,8 @@
         <v>293</v>
       </c>
       <c r="G126" s="20"/>
-      <c r="H126" s="39" t="s">
-        <v>5496</v>
+      <c r="H126" s="34" t="s">
+        <v>5492</v>
       </c>
       <c r="I126" s="24"/>
     </row>
@@ -21875,7 +21860,7 @@
       <c r="A127" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -21891,8 +21876,8 @@
         <v>295</v>
       </c>
       <c r="G127" s="20"/>
-      <c r="H127" s="39" t="s">
-        <v>5497</v>
+      <c r="H127" s="34" t="s">
+        <v>5493</v>
       </c>
       <c r="I127" s="24"/>
     </row>
@@ -21915,11 +21900,11 @@
       <c r="F128" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="G128" s="28" t="s">
-        <v>5499</v>
-      </c>
-      <c r="H128" s="39" t="s">
-        <v>5498</v>
+      <c r="G128" s="34" t="s">
+        <v>5495</v>
+      </c>
+      <c r="H128" s="34" t="s">
+        <v>5494</v>
       </c>
       <c r="I128" s="24"/>
     </row>
@@ -21927,7 +21912,7 @@
       <c r="A129" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="35" t="s">
         <v>300</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -21943,8 +21928,8 @@
         <v>442</v>
       </c>
       <c r="G129" s="20"/>
-      <c r="H129" s="39" t="s">
-        <v>5500</v>
+      <c r="H129" s="34" t="s">
+        <v>5496</v>
       </c>
       <c r="I129" s="24"/>
     </row>
@@ -21952,7 +21937,7 @@
       <c r="A130" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B130" s="41" t="s">
+      <c r="B130" s="35" t="s">
         <v>303</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -21968,8 +21953,8 @@
         <v>302</v>
       </c>
       <c r="G130" s="20"/>
-      <c r="H130" s="39" t="s">
-        <v>5501</v>
+      <c r="H130" s="34" t="s">
+        <v>5497</v>
       </c>
       <c r="I130" s="24"/>
     </row>
@@ -21990,11 +21975,11 @@
       <c r="F131" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="G131" s="28" t="s">
-        <v>5503</v>
-      </c>
-      <c r="H131" s="39" t="s">
-        <v>5502</v>
+      <c r="G131" s="34" t="s">
+        <v>5499</v>
+      </c>
+      <c r="H131" s="34" t="s">
+        <v>5498</v>
       </c>
       <c r="I131" s="24"/>
     </row>
@@ -22002,7 +21987,7 @@
       <c r="A132" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B132" s="41" t="s">
+      <c r="B132" s="35" t="s">
         <v>307</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -22018,8 +22003,8 @@
         <v>308</v>
       </c>
       <c r="G132" s="20"/>
-      <c r="H132" s="39" t="s">
-        <v>5504</v>
+      <c r="H132" s="34" t="s">
+        <v>5500</v>
       </c>
       <c r="I132" s="24"/>
     </row>
@@ -22027,7 +22012,7 @@
       <c r="A133" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B133" s="41" t="s">
+      <c r="B133" s="35" t="s">
         <v>310</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -22041,8 +22026,8 @@
         <v>309</v>
       </c>
       <c r="G133" s="20"/>
-      <c r="H133" s="39" t="s">
-        <v>5505</v>
+      <c r="H133" s="34" t="s">
+        <v>5501</v>
       </c>
       <c r="I133" s="24"/>
     </row>
@@ -22063,11 +22048,11 @@
       <c r="F134" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="G134" s="28" t="s">
-        <v>5507</v>
-      </c>
-      <c r="H134" s="39" t="s">
-        <v>5506</v>
+      <c r="G134" s="34" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H134" s="34" t="s">
+        <v>5502</v>
       </c>
       <c r="I134" s="24"/>
     </row>
@@ -22075,7 +22060,7 @@
       <c r="A135" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B135" s="41" t="s">
+      <c r="B135" s="35" t="s">
         <v>314</v>
       </c>
       <c r="C135" s="6" t="s">
@@ -22087,8 +22072,8 @@
         <v>313</v>
       </c>
       <c r="G135" s="20"/>
-      <c r="H135" s="39" t="s">
-        <v>5508</v>
+      <c r="H135" s="34" t="s">
+        <v>5504</v>
       </c>
       <c r="I135" s="24"/>
     </row>
@@ -22096,7 +22081,7 @@
       <c r="A136" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B136" s="41" t="s">
+      <c r="B136" s="35" t="s">
         <v>316</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -22108,8 +22093,8 @@
         <v>315</v>
       </c>
       <c r="G136" s="20"/>
-      <c r="H136" s="39" t="s">
-        <v>5509</v>
+      <c r="H136" s="34" t="s">
+        <v>5505</v>
       </c>
       <c r="I136" s="24"/>
     </row>
@@ -22117,7 +22102,7 @@
       <c r="A137" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B137" s="41" t="s">
+      <c r="B137" s="35" t="s">
         <v>318</v>
       </c>
       <c r="C137" s="6" t="s">
@@ -22129,8 +22114,8 @@
         <v>317</v>
       </c>
       <c r="G137" s="20"/>
-      <c r="H137" s="39" t="s">
-        <v>5510</v>
+      <c r="H137" s="34" t="s">
+        <v>5506</v>
       </c>
       <c r="I137" s="24"/>
     </row>
@@ -22149,11 +22134,11 @@
       <c r="F138" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="G138" s="28" t="s">
-        <v>5514</v>
-      </c>
-      <c r="H138" s="39" t="s">
-        <v>5511</v>
+      <c r="G138" s="34" t="s">
+        <v>5510</v>
+      </c>
+      <c r="H138" s="34" t="s">
+        <v>5507</v>
       </c>
       <c r="I138" s="24"/>
     </row>
@@ -22161,7 +22146,7 @@
       <c r="A139" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B139" s="41" t="s">
+      <c r="B139" s="35" t="s">
         <v>322</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -22177,8 +22162,8 @@
         <v>321</v>
       </c>
       <c r="G139" s="5"/>
-      <c r="H139" s="39" t="s">
-        <v>5512</v>
+      <c r="H139" s="34" t="s">
+        <v>5508</v>
       </c>
       <c r="I139" s="24"/>
     </row>
@@ -22199,11 +22184,11 @@
       <c r="F140" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="G140" s="38" t="s">
-        <v>5531</v>
-      </c>
-      <c r="H140" s="39" t="s">
-        <v>5513</v>
+      <c r="G140" s="33" t="s">
+        <v>5527</v>
+      </c>
+      <c r="H140" s="34" t="s">
+        <v>5509</v>
       </c>
       <c r="I140" s="24"/>
     </row>
@@ -22222,11 +22207,11 @@
       <c r="F141" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="G141" s="34" t="s">
-        <v>5532</v>
-      </c>
-      <c r="H141" s="39" t="s">
-        <v>5515</v>
+      <c r="G141" s="30" t="s">
+        <v>5528</v>
+      </c>
+      <c r="H141" s="34" t="s">
+        <v>5511</v>
       </c>
       <c r="I141" s="24"/>
     </row>
@@ -22247,11 +22232,11 @@
       <c r="F142" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="G142" s="38" t="s">
-        <v>5560</v>
-      </c>
-      <c r="H142" s="39" t="s">
-        <v>5516</v>
+      <c r="G142" s="33" t="s">
+        <v>5556</v>
+      </c>
+      <c r="H142" s="34" t="s">
+        <v>5512</v>
       </c>
       <c r="I142" s="24"/>
     </row>
@@ -22259,7 +22244,7 @@
       <c r="A143" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B143" s="41" t="s">
+      <c r="B143" s="35" t="s">
         <v>330</v>
       </c>
       <c r="C143" s="6" t="s">
@@ -22274,11 +22259,11 @@
       <c r="F143" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="G143" s="28" t="s">
-        <v>5519</v>
-      </c>
-      <c r="H143" s="39" t="s">
-        <v>5517</v>
+      <c r="G143" s="34" t="s">
+        <v>5515</v>
+      </c>
+      <c r="H143" s="34" t="s">
+        <v>5513</v>
       </c>
       <c r="I143" s="24"/>
     </row>
@@ -22286,7 +22271,7 @@
       <c r="A144" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B144" s="41" t="s">
+      <c r="B144" s="35" t="s">
         <v>332</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -22301,11 +22286,11 @@
       <c r="F144" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="G144" s="28" t="s">
-        <v>5519</v>
-      </c>
-      <c r="H144" s="39" t="s">
-        <v>5518</v>
+      <c r="G144" s="34" t="s">
+        <v>5515</v>
+      </c>
+      <c r="H144" s="34" t="s">
+        <v>5514</v>
       </c>
       <c r="I144" s="24"/>
     </row>
@@ -22326,11 +22311,11 @@
       <c r="F145" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G145" s="28" t="s">
-        <v>5521</v>
-      </c>
-      <c r="H145" s="39" t="s">
-        <v>5520</v>
+      <c r="G145" s="34" t="s">
+        <v>5517</v>
+      </c>
+      <c r="H145" s="34" t="s">
+        <v>5516</v>
       </c>
       <c r="I145" s="24"/>
     </row>
@@ -22338,7 +22323,7 @@
       <c r="A146" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B146" s="41" t="s">
+      <c r="B146" s="35" t="s">
         <v>337</v>
       </c>
       <c r="C146" s="3" t="s">
@@ -22351,11 +22336,11 @@
       <c r="F146" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="G146" s="28" t="s">
-        <v>5523</v>
-      </c>
-      <c r="H146" s="39" t="s">
-        <v>5522</v>
+      <c r="G146" s="34" t="s">
+        <v>5519</v>
+      </c>
+      <c r="H146" s="34" t="s">
+        <v>5518</v>
       </c>
       <c r="I146" s="24"/>
     </row>
@@ -22378,11 +22363,11 @@
       <c r="F147" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="G147" s="46" t="s">
-        <v>5525</v>
-      </c>
-      <c r="H147" s="39" t="s">
-        <v>5524</v>
+      <c r="G147" s="42" t="s">
+        <v>5521</v>
+      </c>
+      <c r="H147" s="34" t="s">
+        <v>5520</v>
       </c>
       <c r="I147" s="24"/>
     </row>
@@ -22405,11 +22390,11 @@
       <c r="F148" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="G148" s="38" t="s">
-        <v>5527</v>
-      </c>
-      <c r="H148" s="39" t="s">
-        <v>5526</v>
+      <c r="G148" s="33" t="s">
+        <v>5523</v>
+      </c>
+      <c r="H148" s="34" t="s">
+        <v>5522</v>
       </c>
       <c r="I148" s="24"/>
     </row>
@@ -22417,7 +22402,7 @@
       <c r="A149" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B149" s="41" t="s">
+      <c r="B149" s="35" t="s">
         <v>344</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -22433,8 +22418,8 @@
         <v>343</v>
       </c>
       <c r="G149" s="5"/>
-      <c r="H149" s="39" t="s">
-        <v>5528</v>
+      <c r="H149" s="34" t="s">
+        <v>5524</v>
       </c>
       <c r="I149" s="24"/>
     </row>
@@ -22455,11 +22440,11 @@
       <c r="F150" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="G150" s="38" t="s">
-        <v>5530</v>
-      </c>
-      <c r="H150" s="39" t="s">
-        <v>5529</v>
+      <c r="G150" s="33" t="s">
+        <v>5526</v>
+      </c>
+      <c r="H150" s="34" t="s">
+        <v>5525</v>
       </c>
       <c r="I150" s="24"/>
     </row>
@@ -22467,7 +22452,7 @@
       <c r="A151" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B151" s="41" t="s">
+      <c r="B151" s="35" t="s">
         <v>348</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -22481,8 +22466,8 @@
         <v>347</v>
       </c>
       <c r="G151" s="5"/>
-      <c r="H151" s="39" t="s">
-        <v>5533</v>
+      <c r="H151" s="34" t="s">
+        <v>5529</v>
       </c>
       <c r="I151" s="24"/>
     </row>
@@ -22490,7 +22475,7 @@
       <c r="A152" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B152" s="41" t="s">
+      <c r="B152" s="35" t="s">
         <v>350</v>
       </c>
       <c r="C152" s="3" t="s">
@@ -22504,8 +22489,8 @@
         <v>349</v>
       </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="39" t="s">
-        <v>5534</v>
+      <c r="H152" s="34" t="s">
+        <v>5530</v>
       </c>
       <c r="I152" s="24"/>
     </row>
@@ -22513,7 +22498,7 @@
       <c r="A153" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B153" s="41" t="s">
+      <c r="B153" s="35" t="s">
         <v>352</v>
       </c>
       <c r="C153" s="6" t="s">
@@ -22529,8 +22514,8 @@
         <v>351</v>
       </c>
       <c r="G153" s="2"/>
-      <c r="H153" s="39" t="s">
-        <v>5535</v>
+      <c r="H153" s="34" t="s">
+        <v>5531</v>
       </c>
       <c r="I153" s="24"/>
     </row>
@@ -22538,7 +22523,7 @@
       <c r="A154" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B154" s="41" t="s">
+      <c r="B154" s="35" t="s">
         <v>354</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -22554,8 +22539,8 @@
         <v>353</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="39" t="s">
-        <v>5536</v>
+      <c r="H154" s="34" t="s">
+        <v>5532</v>
       </c>
       <c r="I154" s="24"/>
     </row>
@@ -22563,7 +22548,7 @@
       <c r="A155" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B155" s="41" t="s">
+      <c r="B155" s="35" t="s">
         <v>356</v>
       </c>
       <c r="C155" s="6" t="s">
@@ -22579,8 +22564,8 @@
         <v>355</v>
       </c>
       <c r="G155" s="2"/>
-      <c r="H155" s="39" t="s">
-        <v>5537</v>
+      <c r="H155" s="34" t="s">
+        <v>5533</v>
       </c>
       <c r="I155" s="24"/>
     </row>
@@ -22601,11 +22586,11 @@
       <c r="F156" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="G156" s="28" t="s">
-        <v>5546</v>
-      </c>
-      <c r="H156" s="39" t="s">
-        <v>5538</v>
+      <c r="G156" s="34" t="s">
+        <v>5542</v>
+      </c>
+      <c r="H156" s="34" t="s">
+        <v>5534</v>
       </c>
       <c r="I156" s="24"/>
     </row>
@@ -22613,7 +22598,7 @@
       <c r="A157" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B157" s="41" t="s">
+      <c r="B157" s="35" t="s">
         <v>360</v>
       </c>
       <c r="C157" s="6" t="s">
@@ -22625,8 +22610,8 @@
         <v>359</v>
       </c>
       <c r="G157" s="2"/>
-      <c r="H157" s="39" t="s">
-        <v>5539</v>
+      <c r="H157" s="34" t="s">
+        <v>5535</v>
       </c>
       <c r="I157" s="24"/>
     </row>
@@ -22647,11 +22632,11 @@
       <c r="F158" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G158" s="38" t="s">
-        <v>5541</v>
-      </c>
-      <c r="H158" s="39" t="s">
-        <v>5540</v>
+      <c r="G158" s="33" t="s">
+        <v>5537</v>
+      </c>
+      <c r="H158" s="34" t="s">
+        <v>5536</v>
       </c>
       <c r="I158" s="24"/>
     </row>
@@ -22674,11 +22659,11 @@
       <c r="F159" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="G159" s="38" t="s">
-        <v>5543</v>
-      </c>
-      <c r="H159" s="39" t="s">
-        <v>5542</v>
+      <c r="G159" s="33" t="s">
+        <v>5539</v>
+      </c>
+      <c r="H159" s="34" t="s">
+        <v>5538</v>
       </c>
       <c r="I159" s="24"/>
     </row>
@@ -22686,7 +22671,7 @@
       <c r="A160" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="35" t="s">
         <v>366</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -22702,8 +22687,8 @@
         <v>365</v>
       </c>
       <c r="G160" s="20"/>
-      <c r="H160" s="39" t="s">
-        <v>5544</v>
+      <c r="H160" s="34" t="s">
+        <v>5540</v>
       </c>
       <c r="I160" s="24"/>
     </row>
@@ -22711,7 +22696,7 @@
       <c r="A161" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B161" s="41" t="s">
+      <c r="B161" s="35" t="s">
         <v>368</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -22727,8 +22712,8 @@
         <v>445</v>
       </c>
       <c r="G161" s="20"/>
-      <c r="H161" s="39" t="s">
-        <v>5545</v>
+      <c r="H161" s="34" t="s">
+        <v>5541</v>
       </c>
       <c r="I161" s="24"/>
     </row>
@@ -22736,7 +22721,7 @@
       <c r="A162" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B162" s="41" t="s">
+      <c r="B162" s="35" t="s">
         <v>371</v>
       </c>
       <c r="C162" s="3" t="s">
@@ -22752,8 +22737,8 @@
         <v>446</v>
       </c>
       <c r="G162" s="20"/>
-      <c r="H162" s="39" t="s">
-        <v>5547</v>
+      <c r="H162" s="34" t="s">
+        <v>5543</v>
       </c>
       <c r="I162" s="24"/>
     </row>
@@ -22776,11 +22761,11 @@
       <c r="F163" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="G163" s="28" t="s">
-        <v>5549</v>
-      </c>
-      <c r="H163" s="39" t="s">
-        <v>5548</v>
+      <c r="G163" s="34" t="s">
+        <v>5545</v>
+      </c>
+      <c r="H163" s="34" t="s">
+        <v>5544</v>
       </c>
       <c r="I163" s="24"/>
     </row>
@@ -22788,7 +22773,7 @@
       <c r="A164" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="35" t="s">
         <v>375</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -22804,8 +22789,8 @@
         <v>376</v>
       </c>
       <c r="G164" s="20"/>
-      <c r="H164" s="39" t="s">
-        <v>5550</v>
+      <c r="H164" s="34" t="s">
+        <v>5546</v>
       </c>
       <c r="I164" s="24"/>
     </row>
@@ -22813,7 +22798,7 @@
       <c r="A165" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B165" s="41" t="s">
+      <c r="B165" s="35" t="s">
         <v>378</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -22825,8 +22810,8 @@
         <v>377</v>
       </c>
       <c r="G165" s="20"/>
-      <c r="H165" s="39" t="s">
-        <v>5551</v>
+      <c r="H165" s="34" t="s">
+        <v>5547</v>
       </c>
       <c r="I165" s="24"/>
     </row>
@@ -22834,7 +22819,7 @@
       <c r="A166" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B166" s="35" t="s">
         <v>380</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -22848,8 +22833,8 @@
         <v>449</v>
       </c>
       <c r="G166" s="20"/>
-      <c r="H166" s="39" t="s">
-        <v>5552</v>
+      <c r="H166" s="34" t="s">
+        <v>5548</v>
       </c>
       <c r="I166" s="24"/>
     </row>
@@ -22857,7 +22842,7 @@
       <c r="A167" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B167" s="41" t="s">
+      <c r="B167" s="35" t="s">
         <v>382</v>
       </c>
       <c r="C167" s="6" t="s">
@@ -22871,8 +22856,8 @@
         <v>450</v>
       </c>
       <c r="G167" s="20"/>
-      <c r="H167" s="39" t="s">
-        <v>5553</v>
+      <c r="H167" s="34" t="s">
+        <v>5549</v>
       </c>
       <c r="I167" s="24"/>
     </row>
@@ -22893,11 +22878,11 @@
       <c r="F168" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="G168" s="38" t="s">
-        <v>5559</v>
-      </c>
-      <c r="H168" s="39" t="s">
-        <v>5554</v>
+      <c r="G168" s="33" t="s">
+        <v>5555</v>
+      </c>
+      <c r="H168" s="34" t="s">
+        <v>5550</v>
       </c>
       <c r="I168" s="24"/>
     </row>
@@ -22918,11 +22903,11 @@
       <c r="F169" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="G169" s="28" t="s">
-        <v>5556</v>
-      </c>
-      <c r="H169" s="39" t="s">
-        <v>5555</v>
+      <c r="G169" s="34" t="s">
+        <v>5552</v>
+      </c>
+      <c r="H169" s="34" t="s">
+        <v>5551</v>
       </c>
       <c r="I169" s="24"/>
     </row>
@@ -22930,7 +22915,7 @@
       <c r="A170" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B170" s="41" t="s">
+      <c r="B170" s="35" t="s">
         <v>388</v>
       </c>
       <c r="C170" s="3" t="s">
@@ -22946,8 +22931,8 @@
         <v>387</v>
       </c>
       <c r="G170" s="20"/>
-      <c r="H170" s="39" t="s">
-        <v>5557</v>
+      <c r="H170" s="34" t="s">
+        <v>5553</v>
       </c>
       <c r="I170" s="21"/>
     </row>
@@ -22969,8 +22954,8 @@
         <v>389</v>
       </c>
       <c r="G171" s="20"/>
-      <c r="H171" s="39" t="s">
-        <v>5558</v>
+      <c r="H171" s="34" t="s">
+        <v>5554</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -22980,7 +22965,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G173" s="16"/>
-      <c r="I173" s="29"/>
+      <c r="I173" s="27"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I174" s="24"/>
@@ -42779,18 +42764,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42962,6 +42947,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C52EAF15-DD86-4DD5-86D1-CADFF684AD6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -42974,14 +42967,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="bc8b5dd5-fdb2-4c58-bdf9-99d56aed9473"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HW8/NIST controls baselines.xlsx
+++ b/HW8/NIST controls baselines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\System Security\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9D441-830B-48E0-8167-3A9B738A6E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC83BB-DED3-46BF-920F-3C4C550247D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF0359E-8923-4E23-A0F3-A24CEB3062AA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6793" uniqueCount="5563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6807" uniqueCount="5577">
   <si>
     <t>No.</t>
   </si>
@@ -17001,50 +17001,7 @@
     <t>Gestione degli account utente, assicurandosi che gli account siano creati, gestiti, monitorati e disattivati in modo sicuro.</t>
   </si>
   <si>
-    <t>La gestione degli utenti può essere fatta esclusivamente in maniera statica, per cui l'applicazione non prevede la gestione a runtime degli utenti. Ad esempio, è possibile interrompere l'esecuzione del server LDAP per modificarne il database degli utenti, ma non è stata implementata una funzionalità che permettesse di farlo con il server in esecuzione.</t>
-  </si>
-  <si>
     <t>Evitare che un singolo individuo abbia il potere di eseguire azioni che potrebbero compromettere la sicurezza o l'integrità dei dati o dei processi.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>Controllo basato sul ruolo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: gli utenti sono assegnati a ruoli specifici (ad esempio, admin o standard user) e ciascun ruolo ha accesso limitato alle risorse a seconda delle policy di Vault. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>Accesso regolato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>: le azioni che gli utenti possono intraprendere sono strettamente correlate al loro ruolo, rispettando così i principi di separazione dei privilegi e riducendo il rischio di accessi non autorizzati.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -17094,9 +17051,6 @@
     <t>Gli utenti e i processi devono essere autorizzati a eseguire solo le azioni necessarie per il completamento del loro lavoro.</t>
   </si>
   <si>
-    <t>Tutti i tentativi di login, riusciti o falliti, vengono registrati nei log di sistema e di Vault per garantire che possano essere analizzati in caso di incidenti di sicurezza. In particolare, Vault stesso blocca l'accesso per un tempo prestabilito in caso di un numero eccessivo di tentativi errati</t>
-  </si>
-  <si>
     <t>Legenda</t>
   </si>
   <si>
@@ -17106,9 +17060,6 @@
     <t>Non coperto a pieno</t>
   </si>
   <si>
-    <t>Le policy di Vault sono state configurate in modo tale che gli utenti standard possano accedere e gestire solo le proprie risorse a differenza degli amministratori. Questo è stato possibile mediante la definizione di ruoli e permessi, assegnati al momento dell'accesso al sistema dell'utente sulla base del ruolo stesso. AC(9) non rispettato.</t>
-  </si>
-  <si>
     <t>Gestire i tentativi di accesso non riusciti.</t>
   </si>
   <si>
@@ -17220,9 +17171,6 @@
     <t>Inclusione di timestamp precisi e coerenti in tutti i registri di audit.</t>
   </si>
   <si>
-    <t>Per i time stamp è stato applicato il formato ISO 8601, ma l'orario non è sincronizzato con una fonte di tempo attendibile.</t>
-  </si>
-  <si>
     <t>Protezione delle informazioni di audit per evitare che vengano modificate, cancellate o altrimenti alterate.</t>
   </si>
   <si>
@@ -17388,9 +17336,6 @@
     <t>Autenticazione e identificazione dei dispositivi che accedono al sistema informatico. L'intento è garantire che solo i dispositivi autorizzati possano connettersi alla rete o ai sistemi.</t>
   </si>
   <si>
-    <t>L'unica forma di autenticazione avviene mediante l'uso del certificato, tuttavia non ci sono controlli per limitare l'accesso al sistema.</t>
-  </si>
-  <si>
     <t>Gestione degli identificatori utilizzati per identificare in modo univoco gli utenti o i dispositivi nel sistema. Gli identificatori devono essere univoci, protetti e gestiti correttamente per evitare conflitti o usi non autorizzati.</t>
   </si>
   <si>
@@ -17667,9 +17612,6 @@
     <t>Richiede la capacità di interrompere connessioni di rete non necessarie o inattive.</t>
   </si>
   <si>
-    <t>Il sistema effettua il log out dell'utente e quindi la terminazione della sessione dopo un tempo massimo di inattività, tuttavia questo è applicato solo in remoto.</t>
-  </si>
-  <si>
     <t>Richiede procedure sicure per la generazione, distribuzione e gestione delle chiavi crittografiche.</t>
   </si>
   <si>
@@ -17689,12 +17631,6 @@
   </si>
   <si>
     <t>Il certificato è autofirmato.</t>
-  </si>
-  <si>
-    <t>Le componenti chiave sono fisicamente separate, ma non c'è una separazione logica di tutte le componenti.</t>
-  </si>
-  <si>
-    <t>L'intera applicazione utilizza un unico file python.</t>
   </si>
   <si>
     <t xml:space="preserve">Riguarda la gestione e la sicurezza del codice eseguibile che può essere scaricato e eseguito da fonti esterne, come app mobili o script. </t>
@@ -17856,6 +17792,21 @@
     </r>
   </si>
   <si>
+    <t>Coperto (check related controls)</t>
+  </si>
+  <si>
+    <t>Per i time stamp è stato applicato il formato ISO 8601, ma l'orario non è sincronizzato con una fonte di tempo attendibile diversa dall'internal system clock.</t>
+  </si>
+  <si>
+    <t>Il processo è solo manuale.</t>
+  </si>
+  <si>
+    <t>L'unica documentazione è quella fatta per la presentazione, ma non ne esiste una dettagliata.</t>
+  </si>
+  <si>
+    <t>L'unica forma di autenticazione avviene mediante l'uso del certificato, tuttavia non ci sono controlli per limitare l'accesso al sistema. Il controllo potrebbe non essere applicabile in quanto l'unico dispositivo che accede al servizio è solo ed esclusivamente la macchina.</t>
+  </si>
+  <si>
     <r>
       <t>Vault</t>
     </r>
@@ -17904,18 +17855,109 @@
         <rFont val="Source Sans Pro"/>
         <family val="2"/>
       </rPr>
-      <t>LDAP gestisce le password degli utenti utilizzando il metodo di hashing SSHA. Vault, d'altra parte, integra Vault, verificando l'autenticazione tramite LDAP. Per il monitoraggio e registrazione dell'uso degli autenticatori si registrano azioni di accesso tramite i log di audit. Non c'è revoca degli autenticatori, né una distribuzione sicura.</t>
+      <t>LDAP gestisce le password degli utenti utilizzando il metodo di hashing SSHA. Vault, d'altra parte, integra LDAP, verificando l'autenticazione. Per il monitoraggio e registrazione dell'uso degli autenticatori si registrano azioni di accesso tramite i log di audit. Non c'è revoca degli autenticatori, né una distribuzione sicura.</t>
     </r>
   </si>
   <si>
-    <t>Coperto (check related controls)</t>
+    <t>Manca un security planning,policy and procedures</t>
+  </si>
+  <si>
+    <t>Manca un system security plan</t>
+  </si>
+  <si>
+    <t>Manca un rules of behavior</t>
+  </si>
+  <si>
+    <t>Manca un information security architecture</t>
+  </si>
+  <si>
+    <t>Manca un personnel security policy and procedures</t>
+  </si>
+  <si>
+    <t>Manca un risk assessment policy and procedures</t>
+  </si>
+  <si>
+    <t>Manca un security categorization</t>
+  </si>
+  <si>
+    <t>Manca un vulnerability scanning</t>
+  </si>
+  <si>
+    <t>Manca un system and services acquisition policy and procedures</t>
+  </si>
+  <si>
+    <t>Manca un allocation of resources</t>
+  </si>
+  <si>
+    <t>Manca un information system documentation</t>
+  </si>
+  <si>
+    <t>Le componenti chiave sono fisicamente separate (diversi processi eseguiti mediante diversi terminali), ma non c'è una separazione logica di tutte le componenti.</t>
+  </si>
+  <si>
+    <t>L'intera applicazione utilizza quasi unicamente un solo file python.</t>
+  </si>
+  <si>
+    <t>Manca un denial of service protection</t>
+  </si>
+  <si>
+    <t>Manca protezione della memoria</t>
+  </si>
+  <si>
+    <t>La gestione degli utenti può essere fatta esclusivamente in maniera statica, per cui l'applicazione non prevede la gestione a runtime degli utenti. Ad esempio, è possibile interrompere l'esecuzione del server LDAP per modificarne il database degli utenti, ma non è stata implementata una funzionalità che permette di farlo con il server in esecuzione.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Controllo basato sul ruolo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: gli utenti sono assegnati a ruoli specifici (ad esempio, admin o standard user) e ciascun ruolo ha accesso limitato alle risorse a seconda delle policy di Vault. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accesso regolato</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>: le azioni che gli utenti possono intraprendere sono strettamente correlate al loro ruolo, rispettando così i principi di separazione dei privilegi e riducendo il rischio di accessi non autorizzati. Si fa uso di Vakt per gestire le risorse sulla base di determinate fasce orarie.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tutti i tentativi di login, riusciti o falliti, vengono registrati nei log di sistema e di Vault per garantire che possano essere analizzati in caso di incidenti di sicurezza. In particolare, Vault stesso blocca l'accesso per un tempo prestabilito in caso di un numero eccessivo di tentativi errati.</t>
+  </si>
+  <si>
+    <t>Le policy di Vault sono state configurate in modo tale che gli utenti standard possano accedere e gestire solo le proprie risorse a differenza degli amministratori, che sono gli unici utenti che hanno accesso alle risorse di tutti. Questo è stato possibile mediante la definizione di ruoli e permessi, assegnati al momento dell'accesso al sistema dell'utente sulla base del ruolo stesso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17972,6 +18014,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -18089,7 +18137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -18206,9 +18254,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -18222,6 +18267,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18650,8 +18701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752914C7-115F-4905-A8A7-15F56CC9E2E7}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18691,7 +18742,7 @@
         <v>5318</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>5329</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -18715,10 +18766,10 @@
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="34" t="s">
-        <v>5557</v>
+        <v>5548</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>5330</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -18741,16 +18792,16 @@
         <v>393</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>5323</v>
+        <v>5573</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>5322</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>5331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I3" s="42" t="s">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -18770,13 +18821,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>5325</v>
+        <v>5574</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>5321</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>5562</v>
+      <c r="I4" s="43" t="s">
+        <v>5552</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -18802,8 +18853,8 @@
       <c r="H5" s="34" t="s">
         <v>5319</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>5343</v>
+      <c r="I5" s="44" t="s">
+        <v>5339</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -18824,10 +18875,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="I6" s="24"/>
     </row>
@@ -18849,10 +18900,10 @@
         <v>395</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>5332</v>
+        <v>5576</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="I7" s="24"/>
     </row>
@@ -18876,10 +18927,10 @@
         <v>19</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>5328</v>
+        <v>5575</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>5333</v>
+        <v>5329</v>
       </c>
       <c r="I8" s="24"/>
     </row>
@@ -18903,10 +18954,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>5334</v>
+        <v>5330</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>5335</v>
+        <v>5331</v>
       </c>
       <c r="I9" s="24"/>
     </row>
@@ -18926,10 +18977,10 @@
         <v>24</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>5337</v>
+        <v>5333</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>5336</v>
+        <v>5332</v>
       </c>
       <c r="I10" s="24"/>
     </row>
@@ -18952,7 +19003,7 @@
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34" t="s">
-        <v>5338</v>
+        <v>5334</v>
       </c>
       <c r="I11" s="24"/>
     </row>
@@ -18974,10 +19025,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>5340</v>
+        <v>5336</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>5339</v>
+        <v>5335</v>
       </c>
       <c r="I12" s="24"/>
     </row>
@@ -19001,10 +19052,10 @@
         <v>32</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>5342</v>
+        <v>5338</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>5341</v>
+        <v>5337</v>
       </c>
       <c r="I13" s="24"/>
     </row>
@@ -19029,7 +19080,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="34" t="s">
-        <v>5344</v>
+        <v>5340</v>
       </c>
       <c r="I14" s="24"/>
     </row>
@@ -19054,7 +19105,7 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="34" t="s">
-        <v>5345</v>
+        <v>5341</v>
       </c>
       <c r="I15" s="24"/>
     </row>
@@ -19079,7 +19130,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="34" t="s">
-        <v>5346</v>
+        <v>5342</v>
       </c>
       <c r="I16" s="24"/>
     </row>
@@ -19104,7 +19155,7 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="34" t="s">
-        <v>5347</v>
+        <v>5343</v>
       </c>
       <c r="I17" s="24"/>
     </row>
@@ -19126,10 +19177,10 @@
         <v>44</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>5349</v>
+        <v>5345</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>5348</v>
+        <v>5344</v>
       </c>
       <c r="I18" s="24"/>
     </row>
@@ -19154,7 +19205,7 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="34" t="s">
-        <v>5350</v>
+        <v>5346</v>
       </c>
       <c r="I19" s="24"/>
     </row>
@@ -19179,7 +19230,7 @@
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="34" t="s">
-        <v>5351</v>
+        <v>5347</v>
       </c>
       <c r="I20" s="24"/>
     </row>
@@ -19204,7 +19255,7 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="34" t="s">
-        <v>5352</v>
+        <v>5348</v>
       </c>
       <c r="I21" s="24"/>
     </row>
@@ -19229,7 +19280,7 @@
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="34" t="s">
-        <v>5353</v>
+        <v>5349</v>
       </c>
       <c r="I22" s="24"/>
     </row>
@@ -19254,7 +19305,7 @@
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="34" t="s">
-        <v>5354</v>
+        <v>5350</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -19278,10 +19329,10 @@
         <v>57</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>5357</v>
+        <v>5353</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>5355</v>
+        <v>5351</v>
       </c>
       <c r="I24" s="24"/>
     </row>
@@ -19305,10 +19356,10 @@
         <v>61</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>5356</v>
+        <v>5352</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>5358</v>
+        <v>5354</v>
       </c>
       <c r="I25" s="24"/>
     </row>
@@ -19332,10 +19383,10 @@
         <v>399</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>5360</v>
+        <v>5356</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>5359</v>
+        <v>5355</v>
       </c>
       <c r="I26" s="24"/>
     </row>
@@ -19359,10 +19410,10 @@
         <v>65</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>5362</v>
+        <v>5358</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>5361</v>
+        <v>5357</v>
       </c>
       <c r="I27" s="24"/>
     </row>
@@ -19386,10 +19437,10 @@
         <v>400</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>5363</v>
+        <v>5359</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>5364</v>
+        <v>5360</v>
       </c>
       <c r="I28" s="24"/>
     </row>
@@ -19413,10 +19464,10 @@
         <v>402</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>5366</v>
+        <v>5362</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>5365</v>
+        <v>5361</v>
       </c>
       <c r="I29" s="24"/>
     </row>
@@ -19438,10 +19489,10 @@
         <v>73</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>5368</v>
+        <v>5364</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>5367</v>
+        <v>5363</v>
       </c>
       <c r="I30" s="24"/>
     </row>
@@ -19465,10 +19516,10 @@
         <v>76</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>5370</v>
+        <v>5553</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>5369</v>
+        <v>5365</v>
       </c>
       <c r="I31" s="24"/>
     </row>
@@ -19492,14 +19543,14 @@
         <v>403</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>5372</v>
+        <v>5367</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>5371</v>
+        <v>5366</v>
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -19515,10 +19566,10 @@
         <v>80</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>5374</v>
+        <v>5369</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>5373</v>
+        <v>5368</v>
       </c>
       <c r="I33" s="24"/>
     </row>
@@ -19542,10 +19593,10 @@
         <v>82</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>5376</v>
+        <v>5371</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>5375</v>
+        <v>5370</v>
       </c>
       <c r="I34" s="24"/>
     </row>
@@ -19569,10 +19620,10 @@
         <v>404</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>5560</v>
+        <v>5551</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>5377</v>
+        <v>5372</v>
       </c>
       <c r="I35" s="24"/>
     </row>
@@ -19596,10 +19647,10 @@
         <v>86</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>5381</v>
+        <v>5376</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>5378</v>
+        <v>5373</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -19623,10 +19674,10 @@
         <v>405</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>5380</v>
+        <v>5375</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>5379</v>
+        <v>5374</v>
       </c>
       <c r="I37" s="24"/>
     </row>
@@ -19650,10 +19701,10 @@
         <v>93</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>5383</v>
+        <v>5378</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>5382</v>
+        <v>5377</v>
       </c>
       <c r="I38" s="24"/>
     </row>
@@ -19677,10 +19728,10 @@
         <v>94</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>5384</v>
+        <v>5379</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>5385</v>
+        <v>5380</v>
       </c>
       <c r="I39" s="24"/>
     </row>
@@ -19704,10 +19755,10 @@
         <v>96</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>5387</v>
+        <v>5382</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>5386</v>
+        <v>5381</v>
       </c>
       <c r="I40" s="24"/>
     </row>
@@ -19731,10 +19782,10 @@
         <v>100</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>5389</v>
+        <v>5384</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>5388</v>
+        <v>5383</v>
       </c>
       <c r="I41" s="24"/>
     </row>
@@ -19754,10 +19805,10 @@
         <v>101</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>5559</v>
+        <v>5550</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>5390</v>
+        <v>5385</v>
       </c>
       <c r="I42" s="24"/>
     </row>
@@ -19781,10 +19832,10 @@
         <v>103</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>5392</v>
+        <v>5387</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>5391</v>
+        <v>5386</v>
       </c>
       <c r="I43" s="24"/>
     </row>
@@ -19808,10 +19859,10 @@
         <v>105</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>5394</v>
+        <v>5389</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>5393</v>
+        <v>5388</v>
       </c>
       <c r="I44" s="24"/>
     </row>
@@ -19819,7 +19870,7 @@
       <c r="A45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="22" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -19834,9 +19885,11 @@
       <c r="F45" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="G45" s="20"/>
+      <c r="G45" s="45" t="s">
+        <v>5555</v>
+      </c>
       <c r="H45" s="34" t="s">
-        <v>5395</v>
+        <v>5390</v>
       </c>
       <c r="I45" s="24"/>
     </row>
@@ -19859,7 +19912,7 @@
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="34" t="s">
-        <v>5396</v>
+        <v>5391</v>
       </c>
       <c r="I46" s="24"/>
     </row>
@@ -19867,7 +19920,7 @@
       <c r="A47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="25" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -19882,9 +19935,11 @@
       <c r="F47" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="20"/>
+      <c r="G47" s="45" t="s">
+        <v>5554</v>
+      </c>
       <c r="H47" s="34" t="s">
-        <v>5397</v>
+        <v>5392</v>
       </c>
       <c r="I47" s="24"/>
     </row>
@@ -19907,7 +19962,7 @@
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="34" t="s">
-        <v>5398</v>
+        <v>5393</v>
       </c>
       <c r="I48" s="24"/>
     </row>
@@ -19932,7 +19987,7 @@
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="34" t="s">
-        <v>5399</v>
+        <v>5394</v>
       </c>
       <c r="I49" s="24"/>
     </row>
@@ -19956,10 +20011,10 @@
         <v>412</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>5401</v>
+        <v>5396</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="I50" s="24"/>
     </row>
@@ -19983,10 +20038,10 @@
         <v>414</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>5403</v>
+        <v>5398</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>5402</v>
+        <v>5397</v>
       </c>
       <c r="I51" s="24"/>
     </row>
@@ -20009,7 +20064,7 @@
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="34" t="s">
-        <v>5404</v>
+        <v>5399</v>
       </c>
       <c r="I52" s="24"/>
     </row>
@@ -20033,10 +20088,10 @@
         <v>125</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>5406</v>
+        <v>5401</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>5405</v>
+        <v>5400</v>
       </c>
       <c r="I53" s="24"/>
     </row>
@@ -20061,7 +20116,7 @@
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="34" t="s">
-        <v>5407</v>
+        <v>5402</v>
       </c>
       <c r="I54" s="24"/>
     </row>
@@ -20086,7 +20141,7 @@
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="34" t="s">
-        <v>5408</v>
+        <v>5403</v>
       </c>
       <c r="I55" s="24"/>
     </row>
@@ -20111,7 +20166,7 @@
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="34" t="s">
-        <v>5409</v>
+        <v>5404</v>
       </c>
       <c r="I56" s="24"/>
     </row>
@@ -20136,7 +20191,7 @@
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="34" t="s">
-        <v>5410</v>
+        <v>5405</v>
       </c>
       <c r="I57" s="24"/>
     </row>
@@ -20161,7 +20216,7 @@
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="34" t="s">
-        <v>5411</v>
+        <v>5406</v>
       </c>
       <c r="I58" s="24"/>
     </row>
@@ -20182,11 +20237,11 @@
       <c r="F59" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="G59" s="40" t="s">
-        <v>5413</v>
+      <c r="G59" s="34" t="s">
+        <v>5408</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>5412</v>
+        <v>5407</v>
       </c>
       <c r="I59" s="24"/>
     </row>
@@ -20208,10 +20263,10 @@
         <v>421</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>5414</v>
+        <v>5409</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>5416</v>
+        <v>5411</v>
       </c>
       <c r="I60" s="24"/>
     </row>
@@ -20233,10 +20288,10 @@
         <v>423</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>5417</v>
+        <v>5412</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>5415</v>
+        <v>5410</v>
       </c>
       <c r="I61" s="24"/>
     </row>
@@ -20260,10 +20315,10 @@
         <v>424</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>5419</v>
+        <v>5414</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>5418</v>
+        <v>5413</v>
       </c>
       <c r="I62" s="24"/>
     </row>
@@ -20287,10 +20342,10 @@
         <v>425</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>5419</v>
+        <v>5414</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>5420</v>
+        <v>5415</v>
       </c>
       <c r="I63" s="24"/>
     </row>
@@ -20314,10 +20369,10 @@
         <v>151</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>5422</v>
+        <v>5417</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>5421</v>
+        <v>5416</v>
       </c>
       <c r="I64" s="24"/>
     </row>
@@ -20341,10 +20396,10 @@
         <v>428</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>5424</v>
+        <v>5419</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>5423</v>
+        <v>5418</v>
       </c>
       <c r="I65" s="24"/>
     </row>
@@ -20366,10 +20421,10 @@
         <v>155</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>5426</v>
+        <v>5556</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>5425</v>
+        <v>5420</v>
       </c>
       <c r="I66" s="24"/>
     </row>
@@ -20393,10 +20448,10 @@
         <v>157</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>5428</v>
+        <v>5422</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>5427</v>
+        <v>5421</v>
       </c>
       <c r="I67" s="24"/>
     </row>
@@ -20419,11 +20474,11 @@
       <c r="F68" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="G68" s="41" t="s">
-        <v>5561</v>
+      <c r="G68" s="40" t="s">
+        <v>5557</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>5429</v>
+        <v>5423</v>
       </c>
       <c r="I68" s="24"/>
     </row>
@@ -20447,10 +20502,10 @@
         <v>161</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>5431</v>
+        <v>5425</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>5430</v>
+        <v>5424</v>
       </c>
       <c r="I69" s="24"/>
     </row>
@@ -20459,7 +20514,7 @@
         <v>163</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>5558</v>
+        <v>5549</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>8</v>
@@ -20474,10 +20529,10 @@
         <v>163</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>5433</v>
+        <v>5427</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>5432</v>
+        <v>5426</v>
       </c>
       <c r="I70" s="24"/>
     </row>
@@ -20501,10 +20556,10 @@
         <v>431</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>5435</v>
+        <v>5429</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>5434</v>
+        <v>5428</v>
       </c>
       <c r="I71" s="24"/>
     </row>
@@ -20528,10 +20583,10 @@
         <v>166</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>5437</v>
+        <v>5431</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>5436</v>
+        <v>5430</v>
       </c>
       <c r="I72" s="24"/>
     </row>
@@ -20556,7 +20611,7 @@
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="34" t="s">
-        <v>5438</v>
+        <v>5432</v>
       </c>
       <c r="I73" s="24"/>
     </row>
@@ -20579,7 +20634,7 @@
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="34" t="s">
-        <v>5439</v>
+        <v>5433</v>
       </c>
       <c r="I74" s="24"/>
     </row>
@@ -20604,7 +20659,7 @@
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="34" t="s">
-        <v>5440</v>
+        <v>5434</v>
       </c>
       <c r="I75" s="24"/>
     </row>
@@ -20629,7 +20684,7 @@
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="34" t="s">
-        <v>5441</v>
+        <v>5435</v>
       </c>
       <c r="I76" s="24"/>
     </row>
@@ -20654,7 +20709,7 @@
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="34" t="s">
-        <v>5442</v>
+        <v>5436</v>
       </c>
       <c r="I77" s="24"/>
     </row>
@@ -20679,7 +20734,7 @@
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="34" t="s">
-        <v>5443</v>
+        <v>5437</v>
       </c>
       <c r="I78" s="24"/>
     </row>
@@ -20704,7 +20759,7 @@
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="34" t="s">
-        <v>5444</v>
+        <v>5438</v>
       </c>
       <c r="I79" s="24"/>
     </row>
@@ -20729,7 +20784,7 @@
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="34" t="s">
-        <v>5445</v>
+        <v>5439</v>
       </c>
       <c r="I80" s="24"/>
     </row>
@@ -20754,7 +20809,7 @@
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="34" t="s">
-        <v>5446</v>
+        <v>5440</v>
       </c>
       <c r="I81" s="24"/>
     </row>
@@ -20777,7 +20832,7 @@
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="34" t="s">
-        <v>5447</v>
+        <v>5441</v>
       </c>
       <c r="I82" s="24"/>
     </row>
@@ -20802,7 +20857,7 @@
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="34" t="s">
-        <v>5448</v>
+        <v>5442</v>
       </c>
       <c r="I83" s="24"/>
     </row>
@@ -20827,7 +20882,7 @@
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="36" t="s">
-        <v>5449</v>
+        <v>5443</v>
       </c>
       <c r="I84" s="24"/>
     </row>
@@ -20850,7 +20905,7 @@
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="36" t="s">
-        <v>5450</v>
+        <v>5444</v>
       </c>
       <c r="I85" s="24"/>
     </row>
@@ -20875,7 +20930,7 @@
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="34" t="s">
-        <v>5451</v>
+        <v>5445</v>
       </c>
       <c r="I86" s="24"/>
     </row>
@@ -20900,7 +20955,7 @@
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="34" t="s">
-        <v>5452</v>
+        <v>5446</v>
       </c>
       <c r="I87" s="24"/>
     </row>
@@ -20923,7 +20978,7 @@
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="34" t="s">
-        <v>5453</v>
+        <v>5447</v>
       </c>
       <c r="I88" s="24"/>
     </row>
@@ -20946,7 +21001,7 @@
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="34" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="I89" s="24"/>
     </row>
@@ -20969,7 +21024,7 @@
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="34" t="s">
-        <v>5455</v>
+        <v>5449</v>
       </c>
       <c r="I90" s="24"/>
     </row>
@@ -20994,7 +21049,7 @@
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="36" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="I91" s="24"/>
     </row>
@@ -21019,7 +21074,7 @@
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="34" t="s">
-        <v>5457</v>
+        <v>5451</v>
       </c>
       <c r="I92" s="24"/>
     </row>
@@ -21044,7 +21099,7 @@
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="34" t="s">
-        <v>5458</v>
+        <v>5452</v>
       </c>
       <c r="I93" s="24"/>
     </row>
@@ -21069,7 +21124,7 @@
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="37" t="s">
-        <v>5459</v>
+        <v>5453</v>
       </c>
       <c r="I94" s="24"/>
     </row>
@@ -21094,7 +21149,7 @@
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="34" t="s">
-        <v>5460</v>
+        <v>5454</v>
       </c>
       <c r="I95" s="24"/>
     </row>
@@ -21117,7 +21172,7 @@
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="34" t="s">
-        <v>5461</v>
+        <v>5455</v>
       </c>
       <c r="I96" s="24"/>
     </row>
@@ -21140,7 +21195,7 @@
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="34" t="s">
-        <v>5462</v>
+        <v>5456</v>
       </c>
       <c r="I97" s="24"/>
     </row>
@@ -21165,7 +21220,7 @@
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="34" t="s">
-        <v>5463</v>
+        <v>5457</v>
       </c>
       <c r="I98" s="24"/>
     </row>
@@ -21190,7 +21245,7 @@
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="34" t="s">
-        <v>5464</v>
+        <v>5458</v>
       </c>
       <c r="I99" s="24"/>
     </row>
@@ -21213,7 +21268,7 @@
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="34" t="s">
-        <v>5465</v>
+        <v>5459</v>
       </c>
       <c r="I100" s="24"/>
     </row>
@@ -21236,7 +21291,7 @@
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="34" t="s">
-        <v>5466</v>
+        <v>5460</v>
       </c>
       <c r="I101" s="24"/>
     </row>
@@ -21259,7 +21314,7 @@
       </c>
       <c r="G102" s="20"/>
       <c r="H102" s="34" t="s">
-        <v>5467</v>
+        <v>5461</v>
       </c>
       <c r="I102" s="24"/>
     </row>
@@ -21284,7 +21339,7 @@
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="34" t="s">
-        <v>5468</v>
+        <v>5462</v>
       </c>
       <c r="I103" s="24"/>
     </row>
@@ -21309,7 +21364,7 @@
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="34" t="s">
-        <v>5469</v>
+        <v>5463</v>
       </c>
       <c r="I104" s="24"/>
     </row>
@@ -21334,7 +21389,7 @@
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="34" t="s">
-        <v>5470</v>
+        <v>5464</v>
       </c>
       <c r="I105" s="24"/>
     </row>
@@ -21359,7 +21414,7 @@
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="34" t="s">
-        <v>5471</v>
+        <v>5465</v>
       </c>
       <c r="I106" s="24"/>
     </row>
@@ -21384,7 +21439,7 @@
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="34" t="s">
-        <v>5472</v>
+        <v>5466</v>
       </c>
       <c r="I107" s="24"/>
     </row>
@@ -21407,7 +21462,7 @@
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="34" t="s">
-        <v>5473</v>
+        <v>5467</v>
       </c>
       <c r="I108" s="24"/>
     </row>
@@ -21428,7 +21483,7 @@
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="34" t="s">
-        <v>5474</v>
+        <v>5468</v>
       </c>
       <c r="I109" s="24"/>
     </row>
@@ -21436,7 +21491,7 @@
       <c r="A110" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="25" t="s">
         <v>259</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -21451,9 +21506,11 @@
       <c r="F110" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G110" s="20"/>
+      <c r="G110" s="34" t="s">
+        <v>5558</v>
+      </c>
       <c r="H110" s="34" t="s">
-        <v>5475</v>
+        <v>5469</v>
       </c>
       <c r="I110" s="24"/>
     </row>
@@ -21461,7 +21518,7 @@
       <c r="A111" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="25" t="s">
         <v>261</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -21476,9 +21533,11 @@
       <c r="F111" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G111" s="20"/>
+      <c r="G111" s="34" t="s">
+        <v>5559</v>
+      </c>
       <c r="H111" s="34" t="s">
-        <v>5476</v>
+        <v>5470</v>
       </c>
       <c r="I111" s="24"/>
     </row>
@@ -21486,7 +21545,7 @@
       <c r="A112" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="25" t="s">
         <v>264</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -21501,9 +21560,11 @@
       <c r="F112" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="G112" s="20"/>
+      <c r="G112" s="34" t="s">
+        <v>5560</v>
+      </c>
       <c r="H112" s="34" t="s">
-        <v>5477</v>
+        <v>5471</v>
       </c>
       <c r="I112" s="24"/>
     </row>
@@ -21511,7 +21572,7 @@
       <c r="A113" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="25" t="s">
         <v>267</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -21524,9 +21585,11 @@
       <c r="F113" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G113" s="20"/>
+      <c r="G113" s="34" t="s">
+        <v>5561</v>
+      </c>
       <c r="H113" s="34" t="s">
-        <v>5478</v>
+        <v>5472</v>
       </c>
       <c r="I113" s="24"/>
     </row>
@@ -21534,7 +21597,7 @@
       <c r="A114" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="25" t="s">
         <v>269</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -21549,9 +21612,11 @@
       <c r="F114" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G114" s="20"/>
+      <c r="G114" s="34" t="s">
+        <v>5562</v>
+      </c>
       <c r="H114" s="34" t="s">
-        <v>5479</v>
+        <v>5473</v>
       </c>
       <c r="I114" s="24"/>
     </row>
@@ -21576,7 +21641,7 @@
       </c>
       <c r="G115" s="20"/>
       <c r="H115" s="34" t="s">
-        <v>5480</v>
+        <v>5474</v>
       </c>
       <c r="I115" s="24"/>
     </row>
@@ -21601,7 +21666,7 @@
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="34" t="s">
-        <v>5481</v>
+        <v>5475</v>
       </c>
       <c r="I116" s="24"/>
     </row>
@@ -21626,7 +21691,7 @@
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="34" t="s">
-        <v>5482</v>
+        <v>5476</v>
       </c>
       <c r="I117" s="24"/>
     </row>
@@ -21651,7 +21716,7 @@
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="34" t="s">
-        <v>5483</v>
+        <v>5477</v>
       </c>
       <c r="I118" s="24"/>
     </row>
@@ -21676,7 +21741,7 @@
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="34" t="s">
-        <v>5484</v>
+        <v>5478</v>
       </c>
       <c r="I119" s="24"/>
     </row>
@@ -21701,7 +21766,7 @@
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="36" t="s">
-        <v>5485</v>
+        <v>5479</v>
       </c>
       <c r="I120" s="24"/>
     </row>
@@ -21726,7 +21791,7 @@
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="34" t="s">
-        <v>5486</v>
+        <v>5480</v>
       </c>
       <c r="I121" s="24"/>
     </row>
@@ -21734,7 +21799,7 @@
       <c r="A122" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="25" t="s">
         <v>286</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -21749,8 +21814,11 @@
       <c r="F122" s="11" t="s">
         <v>285</v>
       </c>
+      <c r="G122" s="46" t="s">
+        <v>5563</v>
+      </c>
       <c r="H122" s="34" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="I122" s="24"/>
     </row>
@@ -21758,7 +21826,7 @@
       <c r="A123" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="25" t="s">
         <v>288</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -21773,9 +21841,11 @@
       <c r="F123" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="G123" s="20"/>
+      <c r="G123" s="46" t="s">
+        <v>5564</v>
+      </c>
       <c r="H123" s="34" t="s">
-        <v>5489</v>
+        <v>5483</v>
       </c>
       <c r="I123" s="24"/>
     </row>
@@ -21799,10 +21869,10 @@
         <v>289</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>5490</v>
+        <v>5484</v>
       </c>
       <c r="I124" s="24"/>
     </row>
@@ -21810,7 +21880,7 @@
       <c r="A125" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="25" t="s">
         <v>292</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -21825,9 +21895,11 @@
       <c r="F125" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="G125" s="20"/>
+      <c r="G125" s="46" t="s">
+        <v>5565</v>
+      </c>
       <c r="H125" s="34" t="s">
-        <v>5491</v>
+        <v>5485</v>
       </c>
       <c r="I125" s="24"/>
     </row>
@@ -21835,7 +21907,7 @@
       <c r="A126" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="25" t="s">
         <v>294</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -21850,9 +21922,11 @@
       <c r="F126" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G126" s="20"/>
+      <c r="G126" s="46" t="s">
+        <v>5566</v>
+      </c>
       <c r="H126" s="34" t="s">
-        <v>5492</v>
+        <v>5486</v>
       </c>
       <c r="I126" s="24"/>
     </row>
@@ -21860,7 +21934,7 @@
       <c r="A127" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="25" t="s">
         <v>296</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -21875,9 +21949,11 @@
       <c r="F127" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="G127" s="20"/>
+      <c r="G127" s="46" t="s">
+        <v>5567</v>
+      </c>
       <c r="H127" s="34" t="s">
-        <v>5493</v>
+        <v>5487</v>
       </c>
       <c r="I127" s="24"/>
     </row>
@@ -21901,10 +21977,10 @@
         <v>297</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>5495</v>
+        <v>5489</v>
       </c>
       <c r="H128" s="34" t="s">
-        <v>5494</v>
+        <v>5488</v>
       </c>
       <c r="I128" s="24"/>
     </row>
@@ -21929,7 +22005,7 @@
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="34" t="s">
-        <v>5496</v>
+        <v>5490</v>
       </c>
       <c r="I129" s="24"/>
     </row>
@@ -21937,7 +22013,7 @@
       <c r="A130" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="25" t="s">
         <v>303</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -21952,9 +22028,11 @@
       <c r="F130" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G130" s="20"/>
+      <c r="G130" s="46" t="s">
+        <v>5568</v>
+      </c>
       <c r="H130" s="34" t="s">
-        <v>5497</v>
+        <v>5491</v>
       </c>
       <c r="I130" s="24"/>
     </row>
@@ -21976,10 +22054,10 @@
         <v>304</v>
       </c>
       <c r="G131" s="34" t="s">
-        <v>5499</v>
+        <v>5493</v>
       </c>
       <c r="H131" s="34" t="s">
-        <v>5498</v>
+        <v>5492</v>
       </c>
       <c r="I131" s="24"/>
     </row>
@@ -22004,7 +22082,7 @@
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="34" t="s">
-        <v>5500</v>
+        <v>5494</v>
       </c>
       <c r="I132" s="24"/>
     </row>
@@ -22027,7 +22105,7 @@
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="34" t="s">
-        <v>5501</v>
+        <v>5495</v>
       </c>
       <c r="I133" s="24"/>
     </row>
@@ -22049,10 +22127,10 @@
         <v>311</v>
       </c>
       <c r="G134" s="34" t="s">
-        <v>5503</v>
+        <v>5497</v>
       </c>
       <c r="H134" s="34" t="s">
-        <v>5502</v>
+        <v>5496</v>
       </c>
       <c r="I134" s="24"/>
     </row>
@@ -22073,7 +22151,7 @@
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="34" t="s">
-        <v>5504</v>
+        <v>5498</v>
       </c>
       <c r="I135" s="24"/>
     </row>
@@ -22094,7 +22172,7 @@
       </c>
       <c r="G136" s="20"/>
       <c r="H136" s="34" t="s">
-        <v>5505</v>
+        <v>5499</v>
       </c>
       <c r="I136" s="24"/>
     </row>
@@ -22115,7 +22193,7 @@
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="34" t="s">
-        <v>5506</v>
+        <v>5500</v>
       </c>
       <c r="I137" s="24"/>
     </row>
@@ -22135,10 +22213,10 @@
         <v>319</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>5507</v>
+        <v>5501</v>
       </c>
       <c r="I138" s="24"/>
     </row>
@@ -22163,7 +22241,7 @@
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="34" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I139" s="24"/>
     </row>
@@ -22185,10 +22263,10 @@
         <v>323</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>5527</v>
+        <v>5569</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="I140" s="24"/>
     </row>
@@ -22208,10 +22286,10 @@
         <v>325</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>5528</v>
+        <v>5570</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>5511</v>
+        <v>5505</v>
       </c>
       <c r="I141" s="24"/>
     </row>
@@ -22233,10 +22311,10 @@
         <v>327</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>5556</v>
+        <v>5547</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>5512</v>
+        <v>5506</v>
       </c>
       <c r="I142" s="24"/>
     </row>
@@ -22244,7 +22322,7 @@
       <c r="A143" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="25" t="s">
         <v>330</v>
       </c>
       <c r="C143" s="6" t="s">
@@ -22259,11 +22337,11 @@
       <c r="F143" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="G143" s="34" t="s">
-        <v>5515</v>
+      <c r="G143" s="46" t="s">
+        <v>5571</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>5513</v>
+        <v>5507</v>
       </c>
       <c r="I143" s="24"/>
     </row>
@@ -22287,10 +22365,10 @@
         <v>444</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>5515</v>
+        <v>5509</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>5514</v>
+        <v>5508</v>
       </c>
       <c r="I144" s="24"/>
     </row>
@@ -22312,10 +22390,10 @@
         <v>335</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>5517</v>
+        <v>5511</v>
       </c>
       <c r="H145" s="34" t="s">
-        <v>5516</v>
+        <v>5510</v>
       </c>
       <c r="I145" s="24"/>
     </row>
@@ -22323,7 +22401,7 @@
       <c r="A146" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="23" t="s">
         <v>337</v>
       </c>
       <c r="C146" s="3" t="s">
@@ -22337,10 +22415,10 @@
         <v>336</v>
       </c>
       <c r="G146" s="34" t="s">
-        <v>5519</v>
+        <v>5336</v>
       </c>
       <c r="H146" s="34" t="s">
-        <v>5518</v>
+        <v>5512</v>
       </c>
       <c r="I146" s="24"/>
     </row>
@@ -22363,11 +22441,11 @@
       <c r="F147" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="G147" s="42" t="s">
-        <v>5521</v>
+      <c r="G147" s="41" t="s">
+        <v>5514</v>
       </c>
       <c r="H147" s="34" t="s">
-        <v>5520</v>
+        <v>5513</v>
       </c>
       <c r="I147" s="24"/>
     </row>
@@ -22391,10 +22469,10 @@
         <v>341</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>5523</v>
+        <v>5516</v>
       </c>
       <c r="H148" s="34" t="s">
-        <v>5522</v>
+        <v>5515</v>
       </c>
       <c r="I148" s="24"/>
     </row>
@@ -22419,7 +22497,7 @@
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="34" t="s">
-        <v>5524</v>
+        <v>5517</v>
       </c>
       <c r="I149" s="24"/>
     </row>
@@ -22441,10 +22519,10 @@
         <v>345</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>5526</v>
+        <v>5519</v>
       </c>
       <c r="H150" s="34" t="s">
-        <v>5525</v>
+        <v>5518</v>
       </c>
       <c r="I150" s="24"/>
     </row>
@@ -22467,7 +22545,7 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="34" t="s">
-        <v>5529</v>
+        <v>5520</v>
       </c>
       <c r="I151" s="24"/>
     </row>
@@ -22490,7 +22568,7 @@
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="34" t="s">
-        <v>5530</v>
+        <v>5521</v>
       </c>
       <c r="I152" s="24"/>
     </row>
@@ -22515,7 +22593,7 @@
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="34" t="s">
-        <v>5531</v>
+        <v>5522</v>
       </c>
       <c r="I153" s="24"/>
     </row>
@@ -22540,7 +22618,7 @@
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="34" t="s">
-        <v>5532</v>
+        <v>5523</v>
       </c>
       <c r="I154" s="24"/>
     </row>
@@ -22565,7 +22643,7 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="34" t="s">
-        <v>5533</v>
+        <v>5524</v>
       </c>
       <c r="I155" s="24"/>
     </row>
@@ -22587,10 +22665,10 @@
         <v>357</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>5542</v>
+        <v>5533</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>5534</v>
+        <v>5525</v>
       </c>
       <c r="I156" s="24"/>
     </row>
@@ -22611,7 +22689,7 @@
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="34" t="s">
-        <v>5535</v>
+        <v>5526</v>
       </c>
       <c r="I157" s="24"/>
     </row>
@@ -22633,10 +22711,10 @@
         <v>361</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>5537</v>
+        <v>5528</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>5536</v>
+        <v>5527</v>
       </c>
       <c r="I158" s="24"/>
     </row>
@@ -22660,10 +22738,10 @@
         <v>363</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>5539</v>
+        <v>5530</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>5538</v>
+        <v>5529</v>
       </c>
       <c r="I159" s="24"/>
     </row>
@@ -22688,7 +22766,7 @@
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="34" t="s">
-        <v>5540</v>
+        <v>5531</v>
       </c>
       <c r="I160" s="24"/>
     </row>
@@ -22713,7 +22791,7 @@
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="34" t="s">
-        <v>5541</v>
+        <v>5532</v>
       </c>
       <c r="I161" s="24"/>
     </row>
@@ -22738,7 +22816,7 @@
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="34" t="s">
-        <v>5543</v>
+        <v>5534</v>
       </c>
       <c r="I162" s="24"/>
     </row>
@@ -22762,10 +22840,10 @@
         <v>447</v>
       </c>
       <c r="G163" s="34" t="s">
-        <v>5545</v>
+        <v>5536</v>
       </c>
       <c r="H163" s="34" t="s">
-        <v>5544</v>
+        <v>5535</v>
       </c>
       <c r="I163" s="24"/>
     </row>
@@ -22790,7 +22868,7 @@
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="34" t="s">
-        <v>5546</v>
+        <v>5537</v>
       </c>
       <c r="I164" s="24"/>
     </row>
@@ -22811,7 +22889,7 @@
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="34" t="s">
-        <v>5547</v>
+        <v>5538</v>
       </c>
       <c r="I165" s="24"/>
     </row>
@@ -22834,7 +22912,7 @@
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="34" t="s">
-        <v>5548</v>
+        <v>5539</v>
       </c>
       <c r="I166" s="24"/>
     </row>
@@ -22857,7 +22935,7 @@
       </c>
       <c r="G167" s="20"/>
       <c r="H167" s="34" t="s">
-        <v>5549</v>
+        <v>5540</v>
       </c>
       <c r="I167" s="24"/>
     </row>
@@ -22879,10 +22957,10 @@
         <v>383</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>5555</v>
+        <v>5546</v>
       </c>
       <c r="H168" s="34" t="s">
-        <v>5550</v>
+        <v>5541</v>
       </c>
       <c r="I168" s="24"/>
     </row>
@@ -22904,10 +22982,10 @@
         <v>385</v>
       </c>
       <c r="G169" s="34" t="s">
-        <v>5552</v>
+        <v>5543</v>
       </c>
       <c r="H169" s="34" t="s">
-        <v>5551</v>
+        <v>5542</v>
       </c>
       <c r="I169" s="24"/>
     </row>
@@ -22932,7 +23010,7 @@
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="34" t="s">
-        <v>5553</v>
+        <v>5544</v>
       </c>
       <c r="I170" s="21"/>
     </row>
@@ -22953,9 +23031,11 @@
       <c r="F171" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="G171" s="20"/>
+      <c r="G171" s="46" t="s">
+        <v>5572</v>
+      </c>
       <c r="H171" s="34" t="s">
-        <v>5554</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -23242,8 +23322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4708F80-B780-42F4-ABB3-67BB6E155344}">
   <dimension ref="A1:E1190"/>
   <sheetViews>
-    <sheetView topLeftCell="A714" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A62" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42764,18 +42844,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42947,14 +43027,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C52EAF15-DD86-4DD5-86D1-CADFF684AD6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -42967,6 +43039,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="bc8b5dd5-fdb2-4c58-bdf9-99d56aed9473"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HW8/NIST controls baselines.xlsx
+++ b/HW8/NIST controls baselines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\System Security\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC83BB-DED3-46BF-920F-3C4C550247D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4EF802-C22A-47CD-952A-C898C16D1031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF0359E-8923-4E23-A0F3-A24CEB3062AA}"/>
   </bookViews>
@@ -16,6 +16,31 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="AUDIT_EVENTS">Foglio1!$B$25</definedName>
+    <definedName name="AUDIT_GENERATION">Foglio1!$B$35</definedName>
+    <definedName name="AUTHENTICATOR_FEEDBACK">Foglio1!$B$69</definedName>
+    <definedName name="AUTHENTICATOR_MANAGEMENT">Foglio1!$B$68</definedName>
+    <definedName name="CONCURRENT_SESSION_CONTROL">Foglio1!$B$10</definedName>
+    <definedName name="CONTENT_OF_AUDIT_RECORDS">Foglio1!$B$26</definedName>
+    <definedName name="CRYPTOGRAPHIC_MODULE_AUTHENTICATION">Foglio1!$B$70</definedName>
+    <definedName name="IDENTIFICATION_AND_AUTHENTICATION_POLICY_AND_PROCEDURES">Foglio1!$B$64</definedName>
+    <definedName name="IDENTIFIER_MANAGEMENT">Foglio1!$B$67</definedName>
+    <definedName name="INFORMATION_FLOW_ENFORCEMENT">Foglio1!$B$5</definedName>
+    <definedName name="INFORMATION_IN_SHARED_RESOURCES">Foglio1!$B$142</definedName>
+    <definedName name="INFORMATION_INPUT_VALIDATION">Foglio1!$B$168</definedName>
+    <definedName name="LEAST_FUNCTIONALITY">Foglio1!$B$50</definedName>
+    <definedName name="LEAST_PRIVILEGE">Foglio1!$B$7</definedName>
+    <definedName name="NETWORK_DISCONNECT">Foglio1!$B$146</definedName>
+    <definedName name="PROTECTION_OF_INFORMATION_AT_REST">Foglio1!$B$158</definedName>
+    <definedName name="SEPARATION_OF_DUTIES">Foglio1!$B$6</definedName>
+    <definedName name="SESSION_AUTHENTICITY">Foglio1!$B$156</definedName>
+    <definedName name="SESSION_TERMINATION">Foglio1!$B$12</definedName>
+    <definedName name="SYSTEM_INTERCONNECTIONS">Foglio1!$B$38</definedName>
+    <definedName name="SYSTEM_USE_NOTIFICATION">Foglio1!$B$9</definedName>
+    <definedName name="TRANSMISSION_CONFIDENTIALITY_AND_INTEGRITY">Foglio1!$B$145</definedName>
+    <definedName name="UNSUCCESSFUL_LOGON_ATTEMPTS">Foglio1!$B$8</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -17141,9 +17166,6 @@
     <t>Quali informazioni devono essere registrate per ogni evento di audit, in modo da garantire la tracciabilità, la responsabilità e l'integrità delle azioni.</t>
   </si>
   <si>
-    <t>I log di audit raccolgono informazioni quali: identificativo dell'utente, tipo di evento, timestamp, risorsa, risultato dell'evento, id della sessione.</t>
-  </si>
-  <si>
     <t>Garantire che i registri di audit vengano conservati in modo sicuro e che vi sia una capacità sufficiente per gestire i volumi di dati relativi agli eventi di audit senza compromettere il sistema o la sua performance.</t>
   </si>
   <si>
@@ -17159,9 +17181,6 @@
     <t>Assicurarsi che i log siano monitorati e analizzati regolarmente per rilevare potenziali violazioni della sicurezza, incidenti o altre attività che possano richiedere un intervento.</t>
   </si>
   <si>
-    <t>I registri di audit vengono analizzati e monitorati  manualmente durante l'esecuzione dell'applicativo, ma non ci sono metodi di monitoraggio automatico.</t>
-  </si>
-  <si>
     <t>Filtraggio, riduzione e generazione di report dai registri di audit, al fine di estrarre e presentare solo le informazioni più rilevanti e significative per l'analisi e il monitoraggio della sicurezza.</t>
   </si>
   <si>
@@ -17702,16 +17721,10 @@
     <t>Si occupa della gestione degli errori in quanto un errore non gestito correttamente può esporre informazioni sensibili.</t>
   </si>
   <si>
-    <t>I log di errore dettagliati sono visibili solo agli sviluppatori.</t>
-  </si>
-  <si>
     <t>Riguarda il trattamento e la conservazione delle informazioni sensibili. È importante implementare politiche di conservazione dei dati per garantire che i dati sensibili vengano trattati e distrutti correttamente.</t>
   </si>
   <si>
     <t>Si riferisce alla protezione della memoria per evitare che informazioni sensibili vengano rivelate attraverso attacchi come buffer overflow o accesso non autorizzato alla memoria.</t>
-  </si>
-  <si>
-    <t>L'applicazione sfrutta SQLAlchemy che usa query parametrizzate, le quali prevengono attacchi come la SQL Injection, mentre l'XSS si previene mediante l'uso del filtro |e in Jinja2 (il motore di template usato da Flask) nel template HTML per l'escaping del contenuto. Jinja2 converte i caratteri speciali in entità HTML sicure, in modo che non vengano interpretati come codice HTML o JavaScript. Questo problema è stato risolto in seguito all'homework 7.</t>
   </si>
   <si>
     <t>LDAP conserva le credenziali proteggendole mediante un meccanismo di hashing, mentre la comunicazione avviene solo attraverso Vault, che sfrutta moduli per la crittografia. Il database non conserva informazioni sensibili non autorizzate.</t>
@@ -17951,6 +17964,18 @@
   </si>
   <si>
     <t>Le policy di Vault sono state configurate in modo tale che gli utenti standard possano accedere e gestire solo le proprie risorse a differenza degli amministratori, che sono gli unici utenti che hanno accesso alle risorse di tutti. Questo è stato possibile mediante la definizione di ruoli e permessi, assegnati al momento dell'accesso al sistema dell'utente sulla base del ruolo stesso.</t>
+  </si>
+  <si>
+    <t>I registri di audit vengono analizzati e monitorati manualmente durante l'esecuzione dell'applicativo, ma non ci sono metodi di monitoraggio automatico.</t>
+  </si>
+  <si>
+    <t>L'applicazione sfrutta SQLAlchemy che usa query parametrizzate, le quali prevengono attacchi come la SQL Injection, mentre l'XSS si previene mediante l'uso del filtro |e in Jinja2 (il motore di template usato da Flask) nel template HTML per l'escaping del contenuto. Jinja2 converte i caratteri speciali in entità HTML sicure, in modo che non vengano interpretati come codice HTML o JavaScript. In Apache sono stati aggiunti degli header di sicurezza.</t>
+  </si>
+  <si>
+    <t>I log di errore dettagliati sono visibili solo agli sviluppatori tramite visualizzazione del terminale.</t>
+  </si>
+  <si>
+    <t>I log di audit della webapp raccolgono informazioni quali: identificativo dell'utente, tipo di evento, timestamp, risorsa, risultato dell'evento, id della sessione.</t>
   </si>
 </sst>
 </file>
@@ -18701,8 +18726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752914C7-115F-4905-A8A7-15F56CC9E2E7}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18766,7 +18791,7 @@
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="34" t="s">
-        <v>5548</v>
+        <v>5544</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>5327</v>
@@ -18792,7 +18817,7 @@
         <v>393</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>5573</v>
+        <v>5569</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>5322</v>
@@ -18821,13 +18846,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>5574</v>
+        <v>5570</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>5321</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>5552</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -18900,7 +18925,7 @@
         <v>395</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>5576</v>
+        <v>5572</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>5325</v>
@@ -18927,7 +18952,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>5575</v>
+        <v>5571</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>5329</v>
@@ -19383,7 +19408,7 @@
         <v>399</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>5356</v>
+        <v>5576</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>5355</v>
@@ -19410,10 +19435,10 @@
         <v>65</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>5358</v>
+        <v>5357</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>5357</v>
+        <v>5356</v>
       </c>
       <c r="I27" s="24"/>
     </row>
@@ -19437,10 +19462,10 @@
         <v>400</v>
       </c>
       <c r="G28" s="34" t="s">
+        <v>5358</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>5359</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>5360</v>
       </c>
       <c r="I28" s="24"/>
     </row>
@@ -19464,10 +19489,10 @@
         <v>402</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>5362</v>
+        <v>5573</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="I29" s="24"/>
     </row>
@@ -19489,10 +19514,10 @@
         <v>73</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>5364</v>
+        <v>5362</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="I30" s="24"/>
     </row>
@@ -19516,10 +19541,10 @@
         <v>76</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>5553</v>
+        <v>5549</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>5365</v>
+        <v>5363</v>
       </c>
       <c r="I31" s="24"/>
     </row>
@@ -19543,10 +19568,10 @@
         <v>403</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>5366</v>
+        <v>5364</v>
       </c>
       <c r="I32" s="24"/>
     </row>
@@ -19566,10 +19591,10 @@
         <v>80</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>5368</v>
+        <v>5366</v>
       </c>
       <c r="I33" s="24"/>
     </row>
@@ -19593,10 +19618,10 @@
         <v>82</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>5371</v>
+        <v>5369</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>5370</v>
+        <v>5368</v>
       </c>
       <c r="I34" s="24"/>
     </row>
@@ -19620,10 +19645,10 @@
         <v>404</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>5551</v>
+        <v>5547</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>5372</v>
+        <v>5370</v>
       </c>
       <c r="I35" s="24"/>
     </row>
@@ -19647,10 +19672,10 @@
         <v>86</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>5373</v>
+        <v>5371</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -19674,10 +19699,10 @@
         <v>405</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>5374</v>
+        <v>5372</v>
       </c>
       <c r="I37" s="24"/>
     </row>
@@ -19701,10 +19726,10 @@
         <v>93</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="I38" s="24"/>
     </row>
@@ -19728,10 +19753,10 @@
         <v>94</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
       <c r="I39" s="24"/>
     </row>
@@ -19755,10 +19780,10 @@
         <v>96</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>5382</v>
+        <v>5380</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="I40" s="24"/>
     </row>
@@ -19782,10 +19807,10 @@
         <v>100</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>5383</v>
+        <v>5381</v>
       </c>
       <c r="I41" s="24"/>
     </row>
@@ -19805,10 +19830,10 @@
         <v>101</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>5550</v>
+        <v>5546</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>5385</v>
+        <v>5383</v>
       </c>
       <c r="I42" s="24"/>
     </row>
@@ -19832,10 +19857,10 @@
         <v>103</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>5387</v>
+        <v>5385</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>5386</v>
+        <v>5384</v>
       </c>
       <c r="I43" s="24"/>
     </row>
@@ -19859,10 +19884,10 @@
         <v>105</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>5389</v>
+        <v>5387</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>5388</v>
+        <v>5386</v>
       </c>
       <c r="I44" s="24"/>
     </row>
@@ -19886,10 +19911,10 @@
         <v>407</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>5555</v>
+        <v>5551</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>5390</v>
+        <v>5388</v>
       </c>
       <c r="I45" s="24"/>
     </row>
@@ -19912,7 +19937,7 @@
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="34" t="s">
-        <v>5391</v>
+        <v>5389</v>
       </c>
       <c r="I46" s="24"/>
     </row>
@@ -19936,10 +19961,10 @@
         <v>114</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>5554</v>
+        <v>5550</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>5392</v>
+        <v>5390</v>
       </c>
       <c r="I47" s="24"/>
     </row>
@@ -19962,7 +19987,7 @@
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="34" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
       <c r="I48" s="24"/>
     </row>
@@ -19987,7 +20012,7 @@
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="34" t="s">
-        <v>5394</v>
+        <v>5392</v>
       </c>
       <c r="I49" s="24"/>
     </row>
@@ -20011,10 +20036,10 @@
         <v>412</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>5396</v>
+        <v>5394</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>5395</v>
+        <v>5393</v>
       </c>
       <c r="I50" s="24"/>
     </row>
@@ -20038,10 +20063,10 @@
         <v>414</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="I51" s="24"/>
     </row>
@@ -20064,7 +20089,7 @@
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="34" t="s">
-        <v>5399</v>
+        <v>5397</v>
       </c>
       <c r="I52" s="24"/>
     </row>
@@ -20088,10 +20113,10 @@
         <v>125</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>5401</v>
+        <v>5399</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="I53" s="24"/>
     </row>
@@ -20116,7 +20141,7 @@
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="34" t="s">
-        <v>5402</v>
+        <v>5400</v>
       </c>
       <c r="I54" s="24"/>
     </row>
@@ -20141,7 +20166,7 @@
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="34" t="s">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="I55" s="24"/>
     </row>
@@ -20166,7 +20191,7 @@
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="34" t="s">
-        <v>5404</v>
+        <v>5402</v>
       </c>
       <c r="I56" s="24"/>
     </row>
@@ -20191,7 +20216,7 @@
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="34" t="s">
-        <v>5405</v>
+        <v>5403</v>
       </c>
       <c r="I57" s="24"/>
     </row>
@@ -20216,7 +20241,7 @@
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="34" t="s">
-        <v>5406</v>
+        <v>5404</v>
       </c>
       <c r="I58" s="24"/>
     </row>
@@ -20238,10 +20263,10 @@
         <v>419</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>5408</v>
+        <v>5406</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>5407</v>
+        <v>5405</v>
       </c>
       <c r="I59" s="24"/>
     </row>
@@ -20263,10 +20288,10 @@
         <v>421</v>
       </c>
       <c r="G60" s="34" t="s">
+        <v>5407</v>
+      </c>
+      <c r="H60" s="34" t="s">
         <v>5409</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>5411</v>
       </c>
       <c r="I60" s="24"/>
     </row>
@@ -20288,10 +20313,10 @@
         <v>423</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>5412</v>
+        <v>5410</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>5410</v>
+        <v>5408</v>
       </c>
       <c r="I61" s="24"/>
     </row>
@@ -20315,10 +20340,10 @@
         <v>424</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>5414</v>
+        <v>5412</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>5413</v>
+        <v>5411</v>
       </c>
       <c r="I62" s="24"/>
     </row>
@@ -20342,10 +20367,10 @@
         <v>425</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>5414</v>
+        <v>5412</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>5415</v>
+        <v>5413</v>
       </c>
       <c r="I63" s="24"/>
     </row>
@@ -20369,10 +20394,10 @@
         <v>151</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>5417</v>
+        <v>5415</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>5416</v>
+        <v>5414</v>
       </c>
       <c r="I64" s="24"/>
     </row>
@@ -20396,10 +20421,10 @@
         <v>428</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>5419</v>
+        <v>5417</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="I65" s="24"/>
     </row>
@@ -20421,10 +20446,10 @@
         <v>155</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>5556</v>
+        <v>5552</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="I66" s="24"/>
     </row>
@@ -20448,10 +20473,10 @@
         <v>157</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>5422</v>
+        <v>5420</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>5421</v>
+        <v>5419</v>
       </c>
       <c r="I67" s="24"/>
     </row>
@@ -20475,10 +20500,10 @@
         <v>430</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>5557</v>
+        <v>5553</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>5423</v>
+        <v>5421</v>
       </c>
       <c r="I68" s="24"/>
     </row>
@@ -20502,10 +20527,10 @@
         <v>161</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>5425</v>
+        <v>5423</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>5424</v>
+        <v>5422</v>
       </c>
       <c r="I69" s="24"/>
     </row>
@@ -20514,7 +20539,7 @@
         <v>163</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>5549</v>
+        <v>5545</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>8</v>
@@ -20529,10 +20554,10 @@
         <v>163</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>5427</v>
+        <v>5425</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>5426</v>
+        <v>5424</v>
       </c>
       <c r="I70" s="24"/>
     </row>
@@ -20556,10 +20581,10 @@
         <v>431</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>5429</v>
+        <v>5427</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>5428</v>
+        <v>5426</v>
       </c>
       <c r="I71" s="24"/>
     </row>
@@ -20583,10 +20608,10 @@
         <v>166</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>5431</v>
+        <v>5429</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>5430</v>
+        <v>5428</v>
       </c>
       <c r="I72" s="24"/>
     </row>
@@ -20611,7 +20636,7 @@
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="34" t="s">
-        <v>5432</v>
+        <v>5430</v>
       </c>
       <c r="I73" s="24"/>
     </row>
@@ -20634,7 +20659,7 @@
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="34" t="s">
-        <v>5433</v>
+        <v>5431</v>
       </c>
       <c r="I74" s="24"/>
     </row>
@@ -20659,7 +20684,7 @@
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="34" t="s">
-        <v>5434</v>
+        <v>5432</v>
       </c>
       <c r="I75" s="24"/>
     </row>
@@ -20684,7 +20709,7 @@
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="34" t="s">
-        <v>5435</v>
+        <v>5433</v>
       </c>
       <c r="I76" s="24"/>
     </row>
@@ -20709,7 +20734,7 @@
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="34" t="s">
-        <v>5436</v>
+        <v>5434</v>
       </c>
       <c r="I77" s="24"/>
     </row>
@@ -20734,7 +20759,7 @@
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="34" t="s">
-        <v>5437</v>
+        <v>5435</v>
       </c>
       <c r="I78" s="24"/>
     </row>
@@ -20759,7 +20784,7 @@
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="34" t="s">
-        <v>5438</v>
+        <v>5436</v>
       </c>
       <c r="I79" s="24"/>
     </row>
@@ -20784,7 +20809,7 @@
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="34" t="s">
-        <v>5439</v>
+        <v>5437</v>
       </c>
       <c r="I80" s="24"/>
     </row>
@@ -20809,7 +20834,7 @@
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="34" t="s">
-        <v>5440</v>
+        <v>5438</v>
       </c>
       <c r="I81" s="24"/>
     </row>
@@ -20832,7 +20857,7 @@
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="34" t="s">
-        <v>5441</v>
+        <v>5439</v>
       </c>
       <c r="I82" s="24"/>
     </row>
@@ -20857,7 +20882,7 @@
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="34" t="s">
-        <v>5442</v>
+        <v>5440</v>
       </c>
       <c r="I83" s="24"/>
     </row>
@@ -20882,7 +20907,7 @@
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="36" t="s">
-        <v>5443</v>
+        <v>5441</v>
       </c>
       <c r="I84" s="24"/>
     </row>
@@ -20905,7 +20930,7 @@
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="36" t="s">
-        <v>5444</v>
+        <v>5442</v>
       </c>
       <c r="I85" s="24"/>
     </row>
@@ -20930,7 +20955,7 @@
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="34" t="s">
-        <v>5445</v>
+        <v>5443</v>
       </c>
       <c r="I86" s="24"/>
     </row>
@@ -20955,7 +20980,7 @@
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="34" t="s">
-        <v>5446</v>
+        <v>5444</v>
       </c>
       <c r="I87" s="24"/>
     </row>
@@ -20978,7 +21003,7 @@
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="34" t="s">
-        <v>5447</v>
+        <v>5445</v>
       </c>
       <c r="I88" s="24"/>
     </row>
@@ -21001,7 +21026,7 @@
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="34" t="s">
-        <v>5448</v>
+        <v>5446</v>
       </c>
       <c r="I89" s="24"/>
     </row>
@@ -21024,7 +21049,7 @@
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="34" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="I90" s="24"/>
     </row>
@@ -21049,7 +21074,7 @@
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="36" t="s">
-        <v>5450</v>
+        <v>5448</v>
       </c>
       <c r="I91" s="24"/>
     </row>
@@ -21074,7 +21099,7 @@
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="34" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="I92" s="24"/>
     </row>
@@ -21099,7 +21124,7 @@
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="34" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="I93" s="24"/>
     </row>
@@ -21124,7 +21149,7 @@
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="37" t="s">
-        <v>5453</v>
+        <v>5451</v>
       </c>
       <c r="I94" s="24"/>
     </row>
@@ -21149,7 +21174,7 @@
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="34" t="s">
-        <v>5454</v>
+        <v>5452</v>
       </c>
       <c r="I95" s="24"/>
     </row>
@@ -21172,7 +21197,7 @@
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="34" t="s">
-        <v>5455</v>
+        <v>5453</v>
       </c>
       <c r="I96" s="24"/>
     </row>
@@ -21195,7 +21220,7 @@
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="34" t="s">
-        <v>5456</v>
+        <v>5454</v>
       </c>
       <c r="I97" s="24"/>
     </row>
@@ -21220,7 +21245,7 @@
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="34" t="s">
-        <v>5457</v>
+        <v>5455</v>
       </c>
       <c r="I98" s="24"/>
     </row>
@@ -21245,7 +21270,7 @@
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="34" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="I99" s="24"/>
     </row>
@@ -21268,7 +21293,7 @@
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="34" t="s">
-        <v>5459</v>
+        <v>5457</v>
       </c>
       <c r="I100" s="24"/>
     </row>
@@ -21291,7 +21316,7 @@
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="34" t="s">
-        <v>5460</v>
+        <v>5458</v>
       </c>
       <c r="I101" s="24"/>
     </row>
@@ -21314,7 +21339,7 @@
       </c>
       <c r="G102" s="20"/>
       <c r="H102" s="34" t="s">
-        <v>5461</v>
+        <v>5459</v>
       </c>
       <c r="I102" s="24"/>
     </row>
@@ -21339,7 +21364,7 @@
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="34" t="s">
-        <v>5462</v>
+        <v>5460</v>
       </c>
       <c r="I103" s="24"/>
     </row>
@@ -21364,7 +21389,7 @@
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="34" t="s">
-        <v>5463</v>
+        <v>5461</v>
       </c>
       <c r="I104" s="24"/>
     </row>
@@ -21389,7 +21414,7 @@
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="34" t="s">
-        <v>5464</v>
+        <v>5462</v>
       </c>
       <c r="I105" s="24"/>
     </row>
@@ -21414,7 +21439,7 @@
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="34" t="s">
-        <v>5465</v>
+        <v>5463</v>
       </c>
       <c r="I106" s="24"/>
     </row>
@@ -21439,7 +21464,7 @@
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="34" t="s">
-        <v>5466</v>
+        <v>5464</v>
       </c>
       <c r="I107" s="24"/>
     </row>
@@ -21462,7 +21487,7 @@
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="34" t="s">
-        <v>5467</v>
+        <v>5465</v>
       </c>
       <c r="I108" s="24"/>
     </row>
@@ -21483,7 +21508,7 @@
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="34" t="s">
-        <v>5468</v>
+        <v>5466</v>
       </c>
       <c r="I109" s="24"/>
     </row>
@@ -21507,10 +21532,10 @@
         <v>258</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>5558</v>
+        <v>5554</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>5469</v>
+        <v>5467</v>
       </c>
       <c r="I110" s="24"/>
     </row>
@@ -21534,10 +21559,10 @@
         <v>262</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>5559</v>
+        <v>5555</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>5470</v>
+        <v>5468</v>
       </c>
       <c r="I111" s="24"/>
     </row>
@@ -21561,10 +21586,10 @@
         <v>265</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>5560</v>
+        <v>5556</v>
       </c>
       <c r="H112" s="34" t="s">
-        <v>5471</v>
+        <v>5469</v>
       </c>
       <c r="I112" s="24"/>
     </row>
@@ -21586,10 +21611,10 @@
         <v>266</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>5561</v>
+        <v>5557</v>
       </c>
       <c r="H113" s="34" t="s">
-        <v>5472</v>
+        <v>5470</v>
       </c>
       <c r="I113" s="24"/>
     </row>
@@ -21613,10 +21638,10 @@
         <v>268</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>5562</v>
+        <v>5558</v>
       </c>
       <c r="H114" s="34" t="s">
-        <v>5473</v>
+        <v>5471</v>
       </c>
       <c r="I114" s="24"/>
     </row>
@@ -21641,7 +21666,7 @@
       </c>
       <c r="G115" s="20"/>
       <c r="H115" s="34" t="s">
-        <v>5474</v>
+        <v>5472</v>
       </c>
       <c r="I115" s="24"/>
     </row>
@@ -21666,7 +21691,7 @@
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="34" t="s">
-        <v>5475</v>
+        <v>5473</v>
       </c>
       <c r="I116" s="24"/>
     </row>
@@ -21691,7 +21716,7 @@
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="34" t="s">
-        <v>5476</v>
+        <v>5474</v>
       </c>
       <c r="I117" s="24"/>
     </row>
@@ -21716,7 +21741,7 @@
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="34" t="s">
-        <v>5477</v>
+        <v>5475</v>
       </c>
       <c r="I118" s="24"/>
     </row>
@@ -21741,7 +21766,7 @@
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="34" t="s">
-        <v>5478</v>
+        <v>5476</v>
       </c>
       <c r="I119" s="24"/>
     </row>
@@ -21766,7 +21791,7 @@
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="36" t="s">
-        <v>5479</v>
+        <v>5477</v>
       </c>
       <c r="I120" s="24"/>
     </row>
@@ -21791,7 +21816,7 @@
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="34" t="s">
-        <v>5480</v>
+        <v>5478</v>
       </c>
       <c r="I121" s="24"/>
     </row>
@@ -21815,10 +21840,10 @@
         <v>285</v>
       </c>
       <c r="G122" s="46" t="s">
-        <v>5563</v>
+        <v>5559</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>5481</v>
+        <v>5479</v>
       </c>
       <c r="I122" s="24"/>
     </row>
@@ -21842,10 +21867,10 @@
         <v>287</v>
       </c>
       <c r="G123" s="46" t="s">
-        <v>5564</v>
+        <v>5560</v>
       </c>
       <c r="H123" s="34" t="s">
-        <v>5483</v>
+        <v>5481</v>
       </c>
       <c r="I123" s="24"/>
     </row>
@@ -21869,10 +21894,10 @@
         <v>289</v>
       </c>
       <c r="G124" s="34" t="s">
+        <v>5480</v>
+      </c>
+      <c r="H124" s="34" t="s">
         <v>5482</v>
-      </c>
-      <c r="H124" s="34" t="s">
-        <v>5484</v>
       </c>
       <c r="I124" s="24"/>
     </row>
@@ -21896,10 +21921,10 @@
         <v>441</v>
       </c>
       <c r="G125" s="46" t="s">
-        <v>5565</v>
+        <v>5561</v>
       </c>
       <c r="H125" s="34" t="s">
-        <v>5485</v>
+        <v>5483</v>
       </c>
       <c r="I125" s="24"/>
     </row>
@@ -21923,10 +21948,10 @@
         <v>293</v>
       </c>
       <c r="G126" s="46" t="s">
-        <v>5566</v>
+        <v>5562</v>
       </c>
       <c r="H126" s="34" t="s">
-        <v>5486</v>
+        <v>5484</v>
       </c>
       <c r="I126" s="24"/>
     </row>
@@ -21950,10 +21975,10 @@
         <v>295</v>
       </c>
       <c r="G127" s="46" t="s">
-        <v>5567</v>
+        <v>5563</v>
       </c>
       <c r="H127" s="34" t="s">
-        <v>5487</v>
+        <v>5485</v>
       </c>
       <c r="I127" s="24"/>
     </row>
@@ -21977,10 +22002,10 @@
         <v>297</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="H128" s="34" t="s">
-        <v>5488</v>
+        <v>5486</v>
       </c>
       <c r="I128" s="24"/>
     </row>
@@ -22005,7 +22030,7 @@
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="34" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="I129" s="24"/>
     </row>
@@ -22029,10 +22054,10 @@
         <v>302</v>
       </c>
       <c r="G130" s="46" t="s">
-        <v>5568</v>
+        <v>5564</v>
       </c>
       <c r="H130" s="34" t="s">
-        <v>5491</v>
+        <v>5489</v>
       </c>
       <c r="I130" s="24"/>
     </row>
@@ -22054,10 +22079,10 @@
         <v>304</v>
       </c>
       <c r="G131" s="34" t="s">
-        <v>5493</v>
+        <v>5491</v>
       </c>
       <c r="H131" s="34" t="s">
-        <v>5492</v>
+        <v>5490</v>
       </c>
       <c r="I131" s="24"/>
     </row>
@@ -22082,7 +22107,7 @@
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="34" t="s">
-        <v>5494</v>
+        <v>5492</v>
       </c>
       <c r="I132" s="24"/>
     </row>
@@ -22105,7 +22130,7 @@
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="34" t="s">
-        <v>5495</v>
+        <v>5493</v>
       </c>
       <c r="I133" s="24"/>
     </row>
@@ -22127,10 +22152,10 @@
         <v>311</v>
       </c>
       <c r="G134" s="34" t="s">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="H134" s="34" t="s">
-        <v>5496</v>
+        <v>5494</v>
       </c>
       <c r="I134" s="24"/>
     </row>
@@ -22151,7 +22176,7 @@
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="34" t="s">
-        <v>5498</v>
+        <v>5496</v>
       </c>
       <c r="I135" s="24"/>
     </row>
@@ -22172,7 +22197,7 @@
       </c>
       <c r="G136" s="20"/>
       <c r="H136" s="34" t="s">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="I136" s="24"/>
     </row>
@@ -22193,7 +22218,7 @@
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="34" t="s">
-        <v>5500</v>
+        <v>5498</v>
       </c>
       <c r="I137" s="24"/>
     </row>
@@ -22213,10 +22238,10 @@
         <v>319</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>5504</v>
+        <v>5502</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>5501</v>
+        <v>5499</v>
       </c>
       <c r="I138" s="24"/>
     </row>
@@ -22241,7 +22266,7 @@
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="34" t="s">
-        <v>5502</v>
+        <v>5500</v>
       </c>
       <c r="I139" s="24"/>
     </row>
@@ -22263,10 +22288,10 @@
         <v>323</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>5569</v>
+        <v>5565</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>5503</v>
+        <v>5501</v>
       </c>
       <c r="I140" s="24"/>
     </row>
@@ -22286,10 +22311,10 @@
         <v>325</v>
       </c>
       <c r="G141" s="30" t="s">
-        <v>5570</v>
+        <v>5566</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>5505</v>
+        <v>5503</v>
       </c>
       <c r="I141" s="24"/>
     </row>
@@ -22311,10 +22336,10 @@
         <v>327</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>5547</v>
+        <v>5543</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>5506</v>
+        <v>5504</v>
       </c>
       <c r="I142" s="24"/>
     </row>
@@ -22338,10 +22363,10 @@
         <v>329</v>
       </c>
       <c r="G143" s="46" t="s">
-        <v>5571</v>
+        <v>5567</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>5507</v>
+        <v>5505</v>
       </c>
       <c r="I143" s="24"/>
     </row>
@@ -22365,10 +22390,10 @@
         <v>444</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>5509</v>
+        <v>5507</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>5508</v>
+        <v>5506</v>
       </c>
       <c r="I144" s="24"/>
     </row>
@@ -22390,10 +22415,10 @@
         <v>335</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="H145" s="34" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I145" s="24"/>
     </row>
@@ -22418,7 +22443,7 @@
         <v>5336</v>
       </c>
       <c r="H146" s="34" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="I146" s="24"/>
     </row>
@@ -22442,10 +22467,10 @@
         <v>340</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>5514</v>
+        <v>5512</v>
       </c>
       <c r="H147" s="34" t="s">
-        <v>5513</v>
+        <v>5511</v>
       </c>
       <c r="I147" s="24"/>
     </row>
@@ -22469,10 +22494,10 @@
         <v>341</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>5516</v>
+        <v>5514</v>
       </c>
       <c r="H148" s="34" t="s">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="I148" s="24"/>
     </row>
@@ -22497,7 +22522,7 @@
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="34" t="s">
-        <v>5517</v>
+        <v>5515</v>
       </c>
       <c r="I149" s="24"/>
     </row>
@@ -22519,10 +22544,10 @@
         <v>345</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>5519</v>
+        <v>5517</v>
       </c>
       <c r="H150" s="34" t="s">
-        <v>5518</v>
+        <v>5516</v>
       </c>
       <c r="I150" s="24"/>
     </row>
@@ -22545,7 +22570,7 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="34" t="s">
-        <v>5520</v>
+        <v>5518</v>
       </c>
       <c r="I151" s="24"/>
     </row>
@@ -22568,7 +22593,7 @@
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="34" t="s">
-        <v>5521</v>
+        <v>5519</v>
       </c>
       <c r="I152" s="24"/>
     </row>
@@ -22593,7 +22618,7 @@
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="34" t="s">
-        <v>5522</v>
+        <v>5520</v>
       </c>
       <c r="I153" s="24"/>
     </row>
@@ -22618,7 +22643,7 @@
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="34" t="s">
-        <v>5523</v>
+        <v>5521</v>
       </c>
       <c r="I154" s="24"/>
     </row>
@@ -22643,7 +22668,7 @@
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="34" t="s">
-        <v>5524</v>
+        <v>5522</v>
       </c>
       <c r="I155" s="24"/>
     </row>
@@ -22665,10 +22690,10 @@
         <v>357</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>5533</v>
+        <v>5531</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>5525</v>
+        <v>5523</v>
       </c>
       <c r="I156" s="24"/>
     </row>
@@ -22689,7 +22714,7 @@
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="34" t="s">
-        <v>5526</v>
+        <v>5524</v>
       </c>
       <c r="I157" s="24"/>
     </row>
@@ -22711,10 +22736,10 @@
         <v>361</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>5528</v>
+        <v>5526</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>5527</v>
+        <v>5525</v>
       </c>
       <c r="I158" s="24"/>
     </row>
@@ -22738,10 +22763,10 @@
         <v>363</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>5530</v>
+        <v>5528</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>5529</v>
+        <v>5527</v>
       </c>
       <c r="I159" s="24"/>
     </row>
@@ -22766,7 +22791,7 @@
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="34" t="s">
-        <v>5531</v>
+        <v>5529</v>
       </c>
       <c r="I160" s="24"/>
     </row>
@@ -22791,7 +22816,7 @@
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="34" t="s">
-        <v>5532</v>
+        <v>5530</v>
       </c>
       <c r="I161" s="24"/>
     </row>
@@ -22816,7 +22841,7 @@
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="34" t="s">
-        <v>5534</v>
+        <v>5532</v>
       </c>
       <c r="I162" s="24"/>
     </row>
@@ -22840,10 +22865,10 @@
         <v>447</v>
       </c>
       <c r="G163" s="34" t="s">
-        <v>5536</v>
+        <v>5534</v>
       </c>
       <c r="H163" s="34" t="s">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="I163" s="24"/>
     </row>
@@ -22868,7 +22893,7 @@
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="34" t="s">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="I164" s="24"/>
     </row>
@@ -22889,7 +22914,7 @@
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="34" t="s">
-        <v>5538</v>
+        <v>5536</v>
       </c>
       <c r="I165" s="24"/>
     </row>
@@ -22912,7 +22937,7 @@
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="34" t="s">
-        <v>5539</v>
+        <v>5537</v>
       </c>
       <c r="I166" s="24"/>
     </row>
@@ -22935,7 +22960,7 @@
       </c>
       <c r="G167" s="20"/>
       <c r="H167" s="34" t="s">
-        <v>5540</v>
+        <v>5538</v>
       </c>
       <c r="I167" s="24"/>
     </row>
@@ -22957,10 +22982,10 @@
         <v>383</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>5546</v>
+        <v>5574</v>
       </c>
       <c r="H168" s="34" t="s">
-        <v>5541</v>
+        <v>5539</v>
       </c>
       <c r="I168" s="24"/>
     </row>
@@ -22968,7 +22993,7 @@
       <c r="A169" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B169" s="23" t="s">
+      <c r="B169" s="22" t="s">
         <v>386</v>
       </c>
       <c r="C169" s="6" t="s">
@@ -22982,10 +23007,10 @@
         <v>385</v>
       </c>
       <c r="G169" s="34" t="s">
-        <v>5543</v>
+        <v>5575</v>
       </c>
       <c r="H169" s="34" t="s">
-        <v>5542</v>
+        <v>5540</v>
       </c>
       <c r="I169" s="24"/>
     </row>
@@ -23010,7 +23035,7 @@
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="34" t="s">
-        <v>5544</v>
+        <v>5541</v>
       </c>
       <c r="I170" s="21"/>
     </row>
@@ -23032,10 +23057,10 @@
         <v>389</v>
       </c>
       <c r="G171" s="46" t="s">
-        <v>5572</v>
+        <v>5568</v>
       </c>
       <c r="H171" s="34" t="s">
-        <v>5545</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -23322,7 +23347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4708F80-B780-42F4-ABB3-67BB6E155344}">
   <dimension ref="A1:E1190"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView topLeftCell="A409" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -42844,18 +42869,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43027,6 +43052,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C52EAF15-DD86-4DD5-86D1-CADFF684AD6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -43039,14 +43072,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="bc8b5dd5-fdb2-4c58-bdf9-99d56aed9473"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9465744-DA2D-4CC4-BF9B-46B7946DF054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
